--- a/MPI/racunanje_ubrzanja_programa_mpi.xlsx
+++ b/MPI/racunanje_ubrzanja_programa_mpi.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saren\OneDrive\Documents\ETF\7. semestar\Multiprocesorski sistemi\GitHub_Domaci\Multiprocessing_Systems\MPI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF32B47E-4729-4FD6-AF66-92B0B1F5BABF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC619296-9A94-4B02-8924-8375E44C091D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{E700D36A-9AEC-48B1-B431-3A7C21838328}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{E700D36A-9AEC-48B1-B431-3A7C21838328}"/>
   </bookViews>
   <sheets>
-    <sheet name="Zadatak 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Zadatak 1" sheetId="3" r:id="rId1"/>
     <sheet name="Zadatak 2" sheetId="2" r:id="rId2"/>
-    <sheet name="Zadatak 3" sheetId="3" r:id="rId3"/>
+    <sheet name="Zadatak 3" sheetId="1" r:id="rId3"/>
     <sheet name="Zadatak 4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -38,9 +38,47 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="11">
+  <si>
+    <t>sequential</t>
+  </si>
+  <si>
+    <t>30 particles, 100 iterations</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>30 particles, 1000 iterations</t>
+  </si>
+  <si>
+    <t>3000 particles, 100 iterations</t>
+  </si>
+  <si>
+    <t>3000 particles, 1000 iterations</t>
+  </si>
+  <si>
+    <t>speedup</t>
+  </si>
+  <si>
+    <t>parallel (one process)</t>
+  </si>
+  <si>
+    <t>parallel (two processes)</t>
+  </si>
+  <si>
+    <t>parallel (four processes)</t>
+  </si>
+  <si>
+    <t>parallel (eight processes)</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -48,16 +86,48 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -65,12 +135,126 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -384,7 +568,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D802E11-FFBF-4034-8D69-C48F8BCDD2DC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E507908-E47E-43FA-866F-ABBDC664C0C3}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -408,7 +592,966 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E507908-E47E-43FA-866F-ABBDC664C0C3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D802E11-FFBF-4034-8D69-C48F8BCDD2DC}">
+  <dimension ref="A1:L39"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="J39" sqref="J39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="22.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="23.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.77734375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="25.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" s="3">
+        <v>7.7799999999999996E-3</v>
+      </c>
+      <c r="B3" s="5">
+        <f>AVERAGE(A3:A7)</f>
+        <v>6.4991999999999992E-3</v>
+      </c>
+      <c r="C3" s="3">
+        <v>3.4301999999999999E-2</v>
+      </c>
+      <c r="D3" s="5">
+        <f>AVERAGE(C3:C7)</f>
+        <v>4.93788E-2</v>
+      </c>
+      <c r="E3" s="3">
+        <v>2.4107050000000001</v>
+      </c>
+      <c r="F3" s="5">
+        <f>AVERAGE(E3:E7)</f>
+        <v>2.3921540000000001</v>
+      </c>
+      <c r="G3" s="3">
+        <v>23.769746000000001</v>
+      </c>
+      <c r="H3" s="5">
+        <f>AVERAGE(G3:G7)</f>
+        <v>23.8937372</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" s="3">
+        <v>5.986E-3</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="C4" s="3">
+        <v>3.2233999999999999E-2</v>
+      </c>
+      <c r="D4" s="5"/>
+      <c r="E4" s="3">
+        <v>2.3849840000000002</v>
+      </c>
+      <c r="F4" s="5"/>
+      <c r="G4" s="3">
+        <v>23.880281</v>
+      </c>
+      <c r="H4" s="5"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" s="3">
+        <v>6.3420000000000004E-3</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="3">
+        <v>3.2267999999999998E-2</v>
+      </c>
+      <c r="D5" s="5"/>
+      <c r="E5" s="3">
+        <v>2.418174</v>
+      </c>
+      <c r="F5" s="5"/>
+      <c r="G5" s="3">
+        <v>23.901166</v>
+      </c>
+      <c r="H5" s="5"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="3">
+        <v>6.0850000000000001E-3</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="3">
+        <v>6.1054999999999998E-2</v>
+      </c>
+      <c r="D6" s="5"/>
+      <c r="E6" s="3">
+        <v>2.374854</v>
+      </c>
+      <c r="F6" s="5"/>
+      <c r="G6" s="3">
+        <v>23.998033</v>
+      </c>
+      <c r="H6" s="5"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" s="3">
+        <v>6.3029999999999996E-3</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="3">
+        <v>8.7035000000000001E-2</v>
+      </c>
+      <c r="D7" s="5"/>
+      <c r="E7" s="3">
+        <v>2.3720530000000002</v>
+      </c>
+      <c r="F7" s="5"/>
+      <c r="G7" s="3">
+        <v>23.919460000000001</v>
+      </c>
+      <c r="H7" s="5"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="L10" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11" s="7">
+        <v>4.3769999999999998E-3</v>
+      </c>
+      <c r="B11" s="9">
+        <f>AVERAGE(A11:A15)</f>
+        <v>4.4596000000000002E-3</v>
+      </c>
+      <c r="C11" s="10">
+        <f>B3/B11</f>
+        <v>1.4573504350165931</v>
+      </c>
+      <c r="D11" s="7">
+        <v>6.8006999999999998E-2</v>
+      </c>
+      <c r="E11" s="9">
+        <f>AVERAGE(D11:D15)</f>
+        <v>6.4985799999999996E-2</v>
+      </c>
+      <c r="F11" s="10">
+        <f>D3/E11</f>
+        <v>0.75983984193469967</v>
+      </c>
+      <c r="G11" s="7">
+        <v>6.6232480000000002</v>
+      </c>
+      <c r="H11" s="9">
+        <f>AVERAGE(G11:G15)</f>
+        <v>6.686429200000001</v>
+      </c>
+      <c r="I11" s="10">
+        <f>F3/H11</f>
+        <v>0.3577625558347346</v>
+      </c>
+      <c r="J11" s="7">
+        <v>89.042483000000004</v>
+      </c>
+      <c r="K11" s="9">
+        <f>AVERAGE(J11:J15)</f>
+        <v>74.137772400000017</v>
+      </c>
+      <c r="L11" s="10">
+        <f>H3/K11</f>
+        <v>0.32228830765354899</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12" s="7">
+        <v>4.4380000000000001E-3</v>
+      </c>
+      <c r="B12" s="11"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="7">
+        <v>4.1998000000000001E-2</v>
+      </c>
+      <c r="E12" s="11"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="7">
+        <v>6.5891760000000001</v>
+      </c>
+      <c r="H12" s="11"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="7">
+        <v>71.662083999999993</v>
+      </c>
+      <c r="K12" s="11"/>
+      <c r="L12" s="12"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13" s="7">
+        <v>4.5110000000000003E-3</v>
+      </c>
+      <c r="B13" s="11"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="7">
+        <v>4.3872000000000001E-2</v>
+      </c>
+      <c r="E13" s="11"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="7">
+        <v>6.7215730000000002</v>
+      </c>
+      <c r="H13" s="11"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="7">
+        <v>69.002851000000007</v>
+      </c>
+      <c r="K13" s="11"/>
+      <c r="L13" s="12"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A14" s="7">
+        <v>4.5250000000000004E-3</v>
+      </c>
+      <c r="B14" s="11"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="7">
+        <v>5.8254E-2</v>
+      </c>
+      <c r="E14" s="11"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="7">
+        <v>6.7527499999999998</v>
+      </c>
+      <c r="H14" s="11"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="7">
+        <v>68.275855000000007</v>
+      </c>
+      <c r="K14" s="11"/>
+      <c r="L14" s="12"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15" s="7">
+        <v>4.4470000000000004E-3</v>
+      </c>
+      <c r="B15" s="13"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="7">
+        <v>0.112798</v>
+      </c>
+      <c r="E15" s="13"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="7">
+        <v>6.7453989999999999</v>
+      </c>
+      <c r="H15" s="13"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="7">
+        <v>72.705589000000003</v>
+      </c>
+      <c r="K15" s="13"/>
+      <c r="L15" s="14"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A17" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A18" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="I18" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="L18" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A19" s="7">
+        <v>4.8999999999999998E-3</v>
+      </c>
+      <c r="B19" s="9">
+        <f>AVERAGE(A19:A23)</f>
+        <v>4.6842000000000003E-3</v>
+      </c>
+      <c r="C19" s="10">
+        <f>B3/B19</f>
+        <v>1.3874727808377094</v>
+      </c>
+      <c r="D19" s="7">
+        <v>5.6577000000000002E-2</v>
+      </c>
+      <c r="E19" s="9">
+        <f>AVERAGE(D19:D23)</f>
+        <v>4.8751799999999998E-2</v>
+      </c>
+      <c r="F19" s="10">
+        <f>D3/E19</f>
+        <v>1.0128610635914983</v>
+      </c>
+      <c r="G19" s="7">
+        <v>3.4884689999999998</v>
+      </c>
+      <c r="H19" s="9">
+        <f>AVERAGE(G19:G23)</f>
+        <v>3.6097006</v>
+      </c>
+      <c r="I19" s="10">
+        <f>F3/H19</f>
+        <v>0.6627014993985928</v>
+      </c>
+      <c r="J19" s="7">
+        <v>40.36327</v>
+      </c>
+      <c r="K19" s="9">
+        <f>AVERAGE(J19:J23)</f>
+        <v>41.001088199999991</v>
+      </c>
+      <c r="L19" s="10">
+        <f>H3/K19</f>
+        <v>0.58275861078243296</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A20" s="7">
+        <v>4.7720000000000002E-3</v>
+      </c>
+      <c r="B20" s="11"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="7">
+        <v>6.0916999999999999E-2</v>
+      </c>
+      <c r="E20" s="11"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="7">
+        <v>3.561401</v>
+      </c>
+      <c r="H20" s="11"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="7">
+        <v>47.20411</v>
+      </c>
+      <c r="K20" s="11"/>
+      <c r="L20" s="12"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A21" s="7">
+        <v>4.9020000000000001E-3</v>
+      </c>
+      <c r="B21" s="11"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="7">
+        <v>4.2832000000000002E-2</v>
+      </c>
+      <c r="E21" s="11"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="7">
+        <v>3.6326170000000002</v>
+      </c>
+      <c r="H21" s="11"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="7">
+        <v>41.847327999999997</v>
+      </c>
+      <c r="K21" s="11"/>
+      <c r="L21" s="12"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A22" s="7">
+        <v>4.4450000000000002E-3</v>
+      </c>
+      <c r="B22" s="11"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="7">
+        <v>4.1216999999999997E-2</v>
+      </c>
+      <c r="E22" s="11"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="7">
+        <v>3.6529639999999999</v>
+      </c>
+      <c r="H22" s="11"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="7">
+        <v>37.903092999999998</v>
+      </c>
+      <c r="K22" s="11"/>
+      <c r="L22" s="12"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A23" s="7">
+        <v>4.4019999999999997E-3</v>
+      </c>
+      <c r="B23" s="13"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="7">
+        <v>4.2215999999999997E-2</v>
+      </c>
+      <c r="E23" s="13"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="7">
+        <v>3.7130519999999998</v>
+      </c>
+      <c r="H23" s="13"/>
+      <c r="I23" s="14"/>
+      <c r="J23" s="7">
+        <v>37.687640000000002</v>
+      </c>
+      <c r="K23" s="13"/>
+      <c r="L23" s="14"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A25" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="6"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A26" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="H26" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="I26" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="L26" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A27" s="7">
+        <v>4.3699999999999998E-3</v>
+      </c>
+      <c r="B27" s="9">
+        <f>AVERAGE(A27:A31)</f>
+        <v>4.3296000000000003E-3</v>
+      </c>
+      <c r="C27" s="10">
+        <f>B3/B27</f>
+        <v>1.5011086474501105</v>
+      </c>
+      <c r="D27" s="7">
+        <v>6.8677000000000002E-2</v>
+      </c>
+      <c r="E27" s="9">
+        <f>AVERAGE(D27:D31)</f>
+        <v>5.2304200000000002E-2</v>
+      </c>
+      <c r="F27" s="10">
+        <f>D3/E27</f>
+        <v>0.94406950111080945</v>
+      </c>
+      <c r="G27" s="7">
+        <v>1.9634100000000001</v>
+      </c>
+      <c r="H27" s="9">
+        <f>AVERAGE(G27:G31)</f>
+        <v>2.189451</v>
+      </c>
+      <c r="I27" s="10">
+        <f>F3/H27</f>
+        <v>1.0925816563147566</v>
+      </c>
+      <c r="J27" s="7">
+        <v>22.983543000000001</v>
+      </c>
+      <c r="K27" s="9">
+        <f>AVERAGE(J27:J31)</f>
+        <v>24.474444599999998</v>
+      </c>
+      <c r="L27" s="10">
+        <f>H3/K27</f>
+        <v>0.97627290794578447</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A28" s="7">
+        <v>4.2700000000000004E-3</v>
+      </c>
+      <c r="B28" s="11"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="7">
+        <v>4.2324000000000001E-2</v>
+      </c>
+      <c r="E28" s="11"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="7">
+        <v>2.1728649999999998</v>
+      </c>
+      <c r="H28" s="11"/>
+      <c r="I28" s="12"/>
+      <c r="J28" s="7">
+        <v>23.784718999999999</v>
+      </c>
+      <c r="K28" s="11"/>
+      <c r="L28" s="12"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A29" s="7">
+        <v>4.4650000000000002E-3</v>
+      </c>
+      <c r="B29" s="11"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="7">
+        <v>4.3873000000000002E-2</v>
+      </c>
+      <c r="E29" s="11"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="7">
+        <v>2.1944849999999998</v>
+      </c>
+      <c r="H29" s="11"/>
+      <c r="I29" s="12"/>
+      <c r="J29" s="7">
+        <v>25.523700000000002</v>
+      </c>
+      <c r="K29" s="11"/>
+      <c r="L29" s="12"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A30" s="7">
+        <v>4.3579999999999999E-3</v>
+      </c>
+      <c r="B30" s="11"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="7">
+        <v>4.1213E-2</v>
+      </c>
+      <c r="E30" s="11"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="7">
+        <v>2.3042750000000001</v>
+      </c>
+      <c r="H30" s="11"/>
+      <c r="I30" s="12"/>
+      <c r="J30" s="7">
+        <v>27.042113000000001</v>
+      </c>
+      <c r="K30" s="11"/>
+      <c r="L30" s="12"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A31" s="7">
+        <v>4.1850000000000004E-3</v>
+      </c>
+      <c r="B31" s="13"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="7">
+        <v>6.5434000000000006E-2</v>
+      </c>
+      <c r="E31" s="13"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="7">
+        <v>2.3122199999999999</v>
+      </c>
+      <c r="H31" s="13"/>
+      <c r="I31" s="14"/>
+      <c r="J31" s="7">
+        <v>23.038148</v>
+      </c>
+      <c r="K31" s="13"/>
+      <c r="L31" s="14"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A33" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6"/>
+      <c r="I33" s="6"/>
+      <c r="J33" s="6"/>
+      <c r="K33" s="6"/>
+      <c r="L33" s="6"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A34" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F34" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="H34" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="I34" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="L34" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A35" s="7">
+        <v>4.5999999999999999E-3</v>
+      </c>
+      <c r="B35" s="9">
+        <f>AVERAGE(A35:A39)</f>
+        <v>5.8130000000000005E-3</v>
+      </c>
+      <c r="C35" s="10">
+        <f>B3/B35</f>
+        <v>1.1180457595045585</v>
+      </c>
+      <c r="D35" s="7">
+        <v>4.335E-2</v>
+      </c>
+      <c r="E35" s="9">
+        <f>AVERAGE(D35:D39)</f>
+        <v>4.2192600000000004E-2</v>
+      </c>
+      <c r="F35" s="10">
+        <f>D3/E35</f>
+        <v>1.1703189658850128</v>
+      </c>
+      <c r="G35" s="7">
+        <v>1.668833</v>
+      </c>
+      <c r="H35" s="9">
+        <f>AVERAGE(G35:G39)</f>
+        <v>1.9743895999999999</v>
+      </c>
+      <c r="I35" s="10">
+        <f>F3/H35</f>
+        <v>1.2115916737000643</v>
+      </c>
+      <c r="J35" s="7">
+        <v>21.320739</v>
+      </c>
+      <c r="K35" s="9">
+        <f>AVERAGE(J35:J39)</f>
+        <v>21.781726599999999</v>
+      </c>
+      <c r="L35" s="10">
+        <f>H3/K35</f>
+        <v>1.0969624969950731</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A36" s="7">
+        <v>4.5840000000000004E-3</v>
+      </c>
+      <c r="B36" s="11"/>
+      <c r="C36" s="12"/>
+      <c r="D36" s="7">
+        <v>4.1674000000000003E-2</v>
+      </c>
+      <c r="E36" s="11"/>
+      <c r="F36" s="12"/>
+      <c r="G36" s="7">
+        <v>2.009665</v>
+      </c>
+      <c r="H36" s="11"/>
+      <c r="I36" s="12"/>
+      <c r="J36" s="7">
+        <v>21.419577</v>
+      </c>
+      <c r="K36" s="11"/>
+      <c r="L36" s="12"/>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A37" s="7">
+        <v>7.3130000000000001E-3</v>
+      </c>
+      <c r="B37" s="11"/>
+      <c r="C37" s="12"/>
+      <c r="D37" s="7">
+        <v>4.2286999999999998E-2</v>
+      </c>
+      <c r="E37" s="11"/>
+      <c r="F37" s="12"/>
+      <c r="G37" s="7">
+        <v>2.188358</v>
+      </c>
+      <c r="H37" s="11"/>
+      <c r="I37" s="12"/>
+      <c r="J37" s="7">
+        <v>21.917483000000001</v>
+      </c>
+      <c r="K37" s="11"/>
+      <c r="L37" s="12"/>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A38" s="7">
+        <v>4.6990000000000001E-3</v>
+      </c>
+      <c r="B38" s="11"/>
+      <c r="C38" s="12"/>
+      <c r="D38" s="7">
+        <v>4.1896999999999997E-2</v>
+      </c>
+      <c r="E38" s="11"/>
+      <c r="F38" s="12"/>
+      <c r="G38" s="7">
+        <v>2.0170970000000001</v>
+      </c>
+      <c r="H38" s="11"/>
+      <c r="I38" s="12"/>
+      <c r="J38" s="7">
+        <v>22.68177</v>
+      </c>
+      <c r="K38" s="11"/>
+      <c r="L38" s="12"/>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A39" s="7">
+        <v>7.8689999999999993E-3</v>
+      </c>
+      <c r="B39" s="13"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="7">
+        <v>4.1755E-2</v>
+      </c>
+      <c r="E39" s="13"/>
+      <c r="F39" s="14"/>
+      <c r="G39" s="7">
+        <v>1.987995</v>
+      </c>
+      <c r="H39" s="13"/>
+      <c r="I39" s="14"/>
+      <c r="J39" s="7">
+        <v>21.569064000000001</v>
+      </c>
+      <c r="K39" s="13"/>
+      <c r="L39" s="14"/>
+    </row>
+  </sheetData>
+  <mergeCells count="41">
+    <mergeCell ref="A33:L33"/>
+    <mergeCell ref="B35:B39"/>
+    <mergeCell ref="C35:C39"/>
+    <mergeCell ref="E35:E39"/>
+    <mergeCell ref="F35:F39"/>
+    <mergeCell ref="H35:H39"/>
+    <mergeCell ref="I35:I39"/>
+    <mergeCell ref="K35:K39"/>
+    <mergeCell ref="L35:L39"/>
+    <mergeCell ref="L19:L23"/>
+    <mergeCell ref="A25:L25"/>
+    <mergeCell ref="B27:B31"/>
+    <mergeCell ref="C27:C31"/>
+    <mergeCell ref="E27:E31"/>
+    <mergeCell ref="F27:F31"/>
+    <mergeCell ref="H27:H31"/>
+    <mergeCell ref="I27:I31"/>
+    <mergeCell ref="K27:K31"/>
+    <mergeCell ref="L27:L31"/>
+    <mergeCell ref="K11:K15"/>
+    <mergeCell ref="L11:L15"/>
+    <mergeCell ref="A17:L17"/>
+    <mergeCell ref="B19:B23"/>
+    <mergeCell ref="C19:C23"/>
+    <mergeCell ref="E19:E23"/>
+    <mergeCell ref="F19:F23"/>
+    <mergeCell ref="H19:H23"/>
+    <mergeCell ref="I19:I23"/>
+    <mergeCell ref="K19:K23"/>
+    <mergeCell ref="B11:B15"/>
+    <mergeCell ref="C11:C15"/>
+    <mergeCell ref="E11:E15"/>
+    <mergeCell ref="F11:F15"/>
+    <mergeCell ref="H11:H15"/>
+    <mergeCell ref="I11:I15"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="B3:B7"/>
+    <mergeCell ref="D3:D7"/>
+    <mergeCell ref="F3:F7"/>
+    <mergeCell ref="H3:H7"/>
+    <mergeCell ref="A9:L9"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{118925EF-7105-47D2-92E9-828532FD1FFB}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -417,16 +1560,4 @@
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{118925EF-7105-47D2-92E9-828532FD1FFB}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/MPI/racunanje_ubrzanja_programa_mpi.xlsx
+++ b/MPI/racunanje_ubrzanja_programa_mpi.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saren\OneDrive\Documents\ETF\7. semestar\Multiprocesorski sistemi\GitHub_Domaci\Multiprocessing_Systems\MPI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC619296-9A94-4B02-8924-8375E44C091D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F71D395-29AF-417B-84A2-D107BC0B0EA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{E700D36A-9AEC-48B1-B431-3A7C21838328}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" activeTab="2" xr2:uid="{E700D36A-9AEC-48B1-B431-3A7C21838328}"/>
   </bookViews>
   <sheets>
     <sheet name="Zadatak 1" sheetId="3" r:id="rId1"/>
@@ -213,22 +213,10 @@
   </cellStyleXfs>
   <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -237,22 +225,34 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -595,8 +595,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D802E11-FFBF-4034-8D69-C48F8BCDD2DC}">
   <dimension ref="A1:L39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="J39" sqref="J39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -611,918 +611,905 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="3" t="s">
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="3" t="s">
+      <c r="D2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" s="3" t="s">
+      <c r="F2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="3">
+      <c r="A3" s="1">
         <v>7.7799999999999996E-3</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="14">
         <f>AVERAGE(A3:A7)</f>
         <v>6.4991999999999992E-3</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="1">
         <v>3.4301999999999999E-2</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="14">
         <f>AVERAGE(C3:C7)</f>
         <v>4.93788E-2</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="1">
         <v>2.4107050000000001</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="14">
         <f>AVERAGE(E3:E7)</f>
         <v>2.3921540000000001</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3" s="1">
         <v>23.769746000000001</v>
       </c>
-      <c r="H3" s="5">
+      <c r="H3" s="14">
         <f>AVERAGE(G3:G7)</f>
         <v>23.8937372</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="3">
+      <c r="A4" s="1">
         <v>5.986E-3</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="3">
+      <c r="B4" s="14"/>
+      <c r="C4" s="1">
         <v>3.2233999999999999E-2</v>
       </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="3">
+      <c r="D4" s="14"/>
+      <c r="E4" s="1">
         <v>2.3849840000000002</v>
       </c>
-      <c r="F4" s="5"/>
-      <c r="G4" s="3">
+      <c r="F4" s="14"/>
+      <c r="G4" s="1">
         <v>23.880281</v>
       </c>
-      <c r="H4" s="5"/>
+      <c r="H4" s="14"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="3">
+      <c r="A5" s="1">
         <v>6.3420000000000004E-3</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="3">
+      <c r="B5" s="14"/>
+      <c r="C5" s="1">
         <v>3.2267999999999998E-2</v>
       </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="3">
+      <c r="D5" s="14"/>
+      <c r="E5" s="1">
         <v>2.418174</v>
       </c>
-      <c r="F5" s="5"/>
-      <c r="G5" s="3">
+      <c r="F5" s="14"/>
+      <c r="G5" s="1">
         <v>23.901166</v>
       </c>
-      <c r="H5" s="5"/>
+      <c r="H5" s="14"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="3">
+      <c r="A6" s="1">
         <v>6.0850000000000001E-3</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="3">
+      <c r="B6" s="14"/>
+      <c r="C6" s="1">
         <v>6.1054999999999998E-2</v>
       </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="3">
+      <c r="D6" s="14"/>
+      <c r="E6" s="1">
         <v>2.374854</v>
       </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="3">
+      <c r="F6" s="14"/>
+      <c r="G6" s="1">
         <v>23.998033</v>
       </c>
-      <c r="H6" s="5"/>
+      <c r="H6" s="14"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="3">
+      <c r="A7" s="1">
         <v>6.3029999999999996E-3</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="3">
+      <c r="B7" s="14"/>
+      <c r="C7" s="1">
         <v>8.7035000000000001E-2</v>
       </c>
-      <c r="D7" s="5"/>
-      <c r="E7" s="3">
+      <c r="D7" s="14"/>
+      <c r="E7" s="1">
         <v>2.3720530000000002</v>
       </c>
-      <c r="F7" s="5"/>
-      <c r="G7" s="3">
+      <c r="F7" s="14"/>
+      <c r="G7" s="1">
         <v>23.919460000000001</v>
       </c>
-      <c r="H7" s="5"/>
+      <c r="H7" s="14"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C10" s="8" t="s">
+      <c r="B10" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F10" s="8" t="s">
+      <c r="E10" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F10" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="G10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H10" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="I10" s="8" t="s">
+      <c r="H10" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I10" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="J10" s="7" t="s">
+      <c r="J10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K10" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="L10" s="8" t="s">
+      <c r="K10" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="L10" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" s="7">
+      <c r="A11" s="3">
         <v>4.3769999999999998E-3</v>
       </c>
-      <c r="B11" s="9">
+      <c r="B11" s="6">
         <f>AVERAGE(A11:A15)</f>
         <v>4.4596000000000002E-3</v>
       </c>
-      <c r="C11" s="10">
+      <c r="C11" s="9">
         <f>B3/B11</f>
         <v>1.4573504350165931</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11" s="3">
         <v>6.8006999999999998E-2</v>
       </c>
-      <c r="E11" s="9">
+      <c r="E11" s="6">
         <f>AVERAGE(D11:D15)</f>
         <v>6.4985799999999996E-2</v>
       </c>
-      <c r="F11" s="10">
+      <c r="F11" s="9">
         <f>D3/E11</f>
         <v>0.75983984193469967</v>
       </c>
-      <c r="G11" s="7">
+      <c r="G11" s="3">
         <v>6.6232480000000002</v>
       </c>
-      <c r="H11" s="9">
+      <c r="H11" s="6">
         <f>AVERAGE(G11:G15)</f>
         <v>6.686429200000001</v>
       </c>
-      <c r="I11" s="10">
+      <c r="I11" s="9">
         <f>F3/H11</f>
         <v>0.3577625558347346</v>
       </c>
-      <c r="J11" s="7">
+      <c r="J11" s="3">
         <v>89.042483000000004</v>
       </c>
-      <c r="K11" s="9">
+      <c r="K11" s="6">
         <f>AVERAGE(J11:J15)</f>
         <v>74.137772400000017</v>
       </c>
-      <c r="L11" s="10">
+      <c r="L11" s="9">
         <f>H3/K11</f>
         <v>0.32228830765354899</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A12" s="7">
+      <c r="A12" s="3">
         <v>4.4380000000000001E-3</v>
       </c>
-      <c r="B12" s="11"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="7">
+      <c r="B12" s="7"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="3">
         <v>4.1998000000000001E-2</v>
       </c>
-      <c r="E12" s="11"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="7">
+      <c r="E12" s="7"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="3">
         <v>6.5891760000000001</v>
       </c>
-      <c r="H12" s="11"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="7">
+      <c r="H12" s="7"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="3">
         <v>71.662083999999993</v>
       </c>
-      <c r="K12" s="11"/>
-      <c r="L12" s="12"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="10"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13" s="7">
+      <c r="A13" s="3">
         <v>4.5110000000000003E-3</v>
       </c>
-      <c r="B13" s="11"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="7">
+      <c r="B13" s="7"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="3">
         <v>4.3872000000000001E-2</v>
       </c>
-      <c r="E13" s="11"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="7">
+      <c r="E13" s="7"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="3">
         <v>6.7215730000000002</v>
       </c>
-      <c r="H13" s="11"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="7">
+      <c r="H13" s="7"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="3">
         <v>69.002851000000007</v>
       </c>
-      <c r="K13" s="11"/>
-      <c r="L13" s="12"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="10"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A14" s="7">
+      <c r="A14" s="3">
         <v>4.5250000000000004E-3</v>
       </c>
-      <c r="B14" s="11"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="7">
+      <c r="B14" s="7"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="3">
         <v>5.8254E-2</v>
       </c>
-      <c r="E14" s="11"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="7">
+      <c r="E14" s="7"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="3">
         <v>6.7527499999999998</v>
       </c>
-      <c r="H14" s="11"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="7">
+      <c r="H14" s="7"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="3">
         <v>68.275855000000007</v>
       </c>
-      <c r="K14" s="11"/>
-      <c r="L14" s="12"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="10"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A15" s="7">
+      <c r="A15" s="3">
         <v>4.4470000000000004E-3</v>
       </c>
-      <c r="B15" s="13"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="7">
+      <c r="B15" s="8"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="3">
         <v>0.112798</v>
       </c>
-      <c r="E15" s="13"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="7">
+      <c r="E15" s="8"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="3">
         <v>6.7453989999999999</v>
       </c>
-      <c r="H15" s="13"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="7">
+      <c r="H15" s="8"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="3">
         <v>72.705589000000003</v>
       </c>
-      <c r="K15" s="13"/>
-      <c r="L15" s="14"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="11"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="6"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A18" s="7" t="s">
+      <c r="A18" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B18" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C18" s="8" t="s">
+      <c r="B18" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="D18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F18" s="8" t="s">
+      <c r="E18" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F18" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="G18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H18" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="I18" s="8" t="s">
+      <c r="H18" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I18" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="J18" s="7" t="s">
+      <c r="J18" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K18" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="L18" s="8" t="s">
+      <c r="K18" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="L18" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A19" s="7">
+      <c r="A19" s="3">
         <v>4.8999999999999998E-3</v>
       </c>
-      <c r="B19" s="9">
+      <c r="B19" s="6">
         <f>AVERAGE(A19:A23)</f>
         <v>4.6842000000000003E-3</v>
       </c>
-      <c r="C19" s="10">
+      <c r="C19" s="9">
         <f>B3/B19</f>
         <v>1.3874727808377094</v>
       </c>
-      <c r="D19" s="7">
+      <c r="D19" s="3">
         <v>5.6577000000000002E-2</v>
       </c>
-      <c r="E19" s="9">
+      <c r="E19" s="6">
         <f>AVERAGE(D19:D23)</f>
         <v>4.8751799999999998E-2</v>
       </c>
-      <c r="F19" s="10">
+      <c r="F19" s="9">
         <f>D3/E19</f>
         <v>1.0128610635914983</v>
       </c>
-      <c r="G19" s="7">
+      <c r="G19" s="3">
         <v>3.4884689999999998</v>
       </c>
-      <c r="H19" s="9">
+      <c r="H19" s="6">
         <f>AVERAGE(G19:G23)</f>
         <v>3.6097006</v>
       </c>
-      <c r="I19" s="10">
+      <c r="I19" s="9">
         <f>F3/H19</f>
         <v>0.6627014993985928</v>
       </c>
-      <c r="J19" s="7">
+      <c r="J19" s="3">
         <v>40.36327</v>
       </c>
-      <c r="K19" s="9">
+      <c r="K19" s="6">
         <f>AVERAGE(J19:J23)</f>
         <v>41.001088199999991</v>
       </c>
-      <c r="L19" s="10">
+      <c r="L19" s="9">
         <f>H3/K19</f>
         <v>0.58275861078243296</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A20" s="7">
+      <c r="A20" s="3">
         <v>4.7720000000000002E-3</v>
       </c>
-      <c r="B20" s="11"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="7">
+      <c r="B20" s="7"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="3">
         <v>6.0916999999999999E-2</v>
       </c>
-      <c r="E20" s="11"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="7">
+      <c r="E20" s="7"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="3">
         <v>3.561401</v>
       </c>
-      <c r="H20" s="11"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="7">
+      <c r="H20" s="7"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="3">
         <v>47.20411</v>
       </c>
-      <c r="K20" s="11"/>
-      <c r="L20" s="12"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="10"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A21" s="7">
+      <c r="A21" s="3">
         <v>4.9020000000000001E-3</v>
       </c>
-      <c r="B21" s="11"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="7">
+      <c r="B21" s="7"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="3">
         <v>4.2832000000000002E-2</v>
       </c>
-      <c r="E21" s="11"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="7">
+      <c r="E21" s="7"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="3">
         <v>3.6326170000000002</v>
       </c>
-      <c r="H21" s="11"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="7">
+      <c r="H21" s="7"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="3">
         <v>41.847327999999997</v>
       </c>
-      <c r="K21" s="11"/>
-      <c r="L21" s="12"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="10"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A22" s="7">
+      <c r="A22" s="3">
         <v>4.4450000000000002E-3</v>
       </c>
-      <c r="B22" s="11"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="7">
+      <c r="B22" s="7"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="3">
         <v>4.1216999999999997E-2</v>
       </c>
-      <c r="E22" s="11"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="7">
+      <c r="E22" s="7"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="3">
         <v>3.6529639999999999</v>
       </c>
-      <c r="H22" s="11"/>
-      <c r="I22" s="12"/>
-      <c r="J22" s="7">
+      <c r="H22" s="7"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="3">
         <v>37.903092999999998</v>
       </c>
-      <c r="K22" s="11"/>
-      <c r="L22" s="12"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="10"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A23" s="7">
+      <c r="A23" s="3">
         <v>4.4019999999999997E-3</v>
       </c>
-      <c r="B23" s="13"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="7">
+      <c r="B23" s="8"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="3">
         <v>4.2215999999999997E-2</v>
       </c>
-      <c r="E23" s="13"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="7">
+      <c r="E23" s="8"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="3">
         <v>3.7130519999999998</v>
       </c>
-      <c r="H23" s="13"/>
-      <c r="I23" s="14"/>
-      <c r="J23" s="7">
+      <c r="H23" s="8"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="3">
         <v>37.687640000000002</v>
       </c>
-      <c r="K23" s="13"/>
-      <c r="L23" s="14"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="11"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A25" s="6" t="s">
+      <c r="A25" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="6"/>
-      <c r="J25" s="6"/>
-      <c r="K25" s="6"/>
-      <c r="L25" s="6"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A26" s="7" t="s">
+      <c r="A26" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B26" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C26" s="8" t="s">
+      <c r="B26" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C26" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D26" s="7" t="s">
+      <c r="D26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E26" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F26" s="8" t="s">
+      <c r="E26" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F26" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G26" s="7" t="s">
+      <c r="G26" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H26" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="I26" s="8" t="s">
+      <c r="H26" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I26" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="J26" s="7" t="s">
+      <c r="J26" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K26" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="L26" s="8" t="s">
+      <c r="K26" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="L26" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A27" s="7">
+      <c r="A27" s="3">
         <v>4.3699999999999998E-3</v>
       </c>
-      <c r="B27" s="9">
+      <c r="B27" s="6">
         <f>AVERAGE(A27:A31)</f>
         <v>4.3296000000000003E-3</v>
       </c>
-      <c r="C27" s="10">
+      <c r="C27" s="9">
         <f>B3/B27</f>
         <v>1.5011086474501105</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D27" s="3">
         <v>6.8677000000000002E-2</v>
       </c>
-      <c r="E27" s="9">
+      <c r="E27" s="6">
         <f>AVERAGE(D27:D31)</f>
         <v>5.2304200000000002E-2</v>
       </c>
-      <c r="F27" s="10">
+      <c r="F27" s="9">
         <f>D3/E27</f>
         <v>0.94406950111080945</v>
       </c>
-      <c r="G27" s="7">
+      <c r="G27" s="3">
         <v>1.9634100000000001</v>
       </c>
-      <c r="H27" s="9">
+      <c r="H27" s="6">
         <f>AVERAGE(G27:G31)</f>
         <v>2.189451</v>
       </c>
-      <c r="I27" s="10">
+      <c r="I27" s="9">
         <f>F3/H27</f>
         <v>1.0925816563147566</v>
       </c>
-      <c r="J27" s="7">
+      <c r="J27" s="3">
         <v>22.983543000000001</v>
       </c>
-      <c r="K27" s="9">
+      <c r="K27" s="6">
         <f>AVERAGE(J27:J31)</f>
         <v>24.474444599999998</v>
       </c>
-      <c r="L27" s="10">
+      <c r="L27" s="9">
         <f>H3/K27</f>
         <v>0.97627290794578447</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A28" s="7">
+      <c r="A28" s="3">
         <v>4.2700000000000004E-3</v>
       </c>
-      <c r="B28" s="11"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="7">
+      <c r="B28" s="7"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="3">
         <v>4.2324000000000001E-2</v>
       </c>
-      <c r="E28" s="11"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="7">
+      <c r="E28" s="7"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="3">
         <v>2.1728649999999998</v>
       </c>
-      <c r="H28" s="11"/>
-      <c r="I28" s="12"/>
-      <c r="J28" s="7">
+      <c r="H28" s="7"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="3">
         <v>23.784718999999999</v>
       </c>
-      <c r="K28" s="11"/>
-      <c r="L28" s="12"/>
+      <c r="K28" s="7"/>
+      <c r="L28" s="10"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A29" s="7">
+      <c r="A29" s="3">
         <v>4.4650000000000002E-3</v>
       </c>
-      <c r="B29" s="11"/>
-      <c r="C29" s="12"/>
-      <c r="D29" s="7">
+      <c r="B29" s="7"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="3">
         <v>4.3873000000000002E-2</v>
       </c>
-      <c r="E29" s="11"/>
-      <c r="F29" s="12"/>
-      <c r="G29" s="7">
+      <c r="E29" s="7"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="3">
         <v>2.1944849999999998</v>
       </c>
-      <c r="H29" s="11"/>
-      <c r="I29" s="12"/>
-      <c r="J29" s="7">
+      <c r="H29" s="7"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="3">
         <v>25.523700000000002</v>
       </c>
-      <c r="K29" s="11"/>
-      <c r="L29" s="12"/>
+      <c r="K29" s="7"/>
+      <c r="L29" s="10"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A30" s="7">
+      <c r="A30" s="3">
         <v>4.3579999999999999E-3</v>
       </c>
-      <c r="B30" s="11"/>
-      <c r="C30" s="12"/>
-      <c r="D30" s="7">
+      <c r="B30" s="7"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="3">
         <v>4.1213E-2</v>
       </c>
-      <c r="E30" s="11"/>
-      <c r="F30" s="12"/>
-      <c r="G30" s="7">
+      <c r="E30" s="7"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="3">
         <v>2.3042750000000001</v>
       </c>
-      <c r="H30" s="11"/>
-      <c r="I30" s="12"/>
-      <c r="J30" s="7">
+      <c r="H30" s="7"/>
+      <c r="I30" s="10"/>
+      <c r="J30" s="3">
         <v>27.042113000000001</v>
       </c>
-      <c r="K30" s="11"/>
-      <c r="L30" s="12"/>
+      <c r="K30" s="7"/>
+      <c r="L30" s="10"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A31" s="7">
+      <c r="A31" s="3">
         <v>4.1850000000000004E-3</v>
       </c>
-      <c r="B31" s="13"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="7">
+      <c r="B31" s="8"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="3">
         <v>6.5434000000000006E-2</v>
       </c>
-      <c r="E31" s="13"/>
-      <c r="F31" s="14"/>
-      <c r="G31" s="7">
+      <c r="E31" s="8"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="3">
         <v>2.3122199999999999</v>
       </c>
-      <c r="H31" s="13"/>
-      <c r="I31" s="14"/>
-      <c r="J31" s="7">
+      <c r="H31" s="8"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="3">
         <v>23.038148</v>
       </c>
-      <c r="K31" s="13"/>
-      <c r="L31" s="14"/>
+      <c r="K31" s="8"/>
+      <c r="L31" s="11"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A33" s="6" t="s">
+      <c r="A33" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B33" s="6"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="6"/>
-      <c r="H33" s="6"/>
-      <c r="I33" s="6"/>
-      <c r="J33" s="6"/>
-      <c r="K33" s="6"/>
-      <c r="L33" s="6"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="5"/>
+      <c r="K33" s="5"/>
+      <c r="L33" s="5"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A34" s="7" t="s">
+      <c r="A34" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B34" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C34" s="8" t="s">
+      <c r="B34" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C34" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D34" s="7" t="s">
+      <c r="D34" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E34" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F34" s="8" t="s">
+      <c r="E34" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F34" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G34" s="7" t="s">
+      <c r="G34" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H34" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="I34" s="8" t="s">
+      <c r="H34" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I34" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="J34" s="7" t="s">
+      <c r="J34" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K34" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="L34" s="8" t="s">
+      <c r="K34" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="L34" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A35" s="7">
+      <c r="A35" s="3">
         <v>4.5999999999999999E-3</v>
       </c>
-      <c r="B35" s="9">
+      <c r="B35" s="6">
         <f>AVERAGE(A35:A39)</f>
         <v>5.8130000000000005E-3</v>
       </c>
-      <c r="C35" s="10">
+      <c r="C35" s="9">
         <f>B3/B35</f>
         <v>1.1180457595045585</v>
       </c>
-      <c r="D35" s="7">
+      <c r="D35" s="3">
         <v>4.335E-2</v>
       </c>
-      <c r="E35" s="9">
+      <c r="E35" s="6">
         <f>AVERAGE(D35:D39)</f>
         <v>4.2192600000000004E-2</v>
       </c>
-      <c r="F35" s="10">
+      <c r="F35" s="9">
         <f>D3/E35</f>
         <v>1.1703189658850128</v>
       </c>
-      <c r="G35" s="7">
+      <c r="G35" s="3">
         <v>1.668833</v>
       </c>
-      <c r="H35" s="9">
+      <c r="H35" s="6">
         <f>AVERAGE(G35:G39)</f>
         <v>1.9743895999999999</v>
       </c>
-      <c r="I35" s="10">
+      <c r="I35" s="9">
         <f>F3/H35</f>
         <v>1.2115916737000643</v>
       </c>
-      <c r="J35" s="7">
+      <c r="J35" s="3">
         <v>21.320739</v>
       </c>
-      <c r="K35" s="9">
+      <c r="K35" s="6">
         <f>AVERAGE(J35:J39)</f>
         <v>21.781726599999999</v>
       </c>
-      <c r="L35" s="10">
+      <c r="L35" s="9">
         <f>H3/K35</f>
         <v>1.0969624969950731</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A36" s="7">
+      <c r="A36" s="3">
         <v>4.5840000000000004E-3</v>
       </c>
-      <c r="B36" s="11"/>
-      <c r="C36" s="12"/>
-      <c r="D36" s="7">
+      <c r="B36" s="7"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="3">
         <v>4.1674000000000003E-2</v>
       </c>
-      <c r="E36" s="11"/>
-      <c r="F36" s="12"/>
-      <c r="G36" s="7">
+      <c r="E36" s="7"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="3">
         <v>2.009665</v>
       </c>
-      <c r="H36" s="11"/>
-      <c r="I36" s="12"/>
-      <c r="J36" s="7">
+      <c r="H36" s="7"/>
+      <c r="I36" s="10"/>
+      <c r="J36" s="3">
         <v>21.419577</v>
       </c>
-      <c r="K36" s="11"/>
-      <c r="L36" s="12"/>
+      <c r="K36" s="7"/>
+      <c r="L36" s="10"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A37" s="7">
+      <c r="A37" s="3">
         <v>7.3130000000000001E-3</v>
       </c>
-      <c r="B37" s="11"/>
-      <c r="C37" s="12"/>
-      <c r="D37" s="7">
+      <c r="B37" s="7"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="3">
         <v>4.2286999999999998E-2</v>
       </c>
-      <c r="E37" s="11"/>
-      <c r="F37" s="12"/>
-      <c r="G37" s="7">
+      <c r="E37" s="7"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="3">
         <v>2.188358</v>
       </c>
-      <c r="H37" s="11"/>
-      <c r="I37" s="12"/>
-      <c r="J37" s="7">
+      <c r="H37" s="7"/>
+      <c r="I37" s="10"/>
+      <c r="J37" s="3">
         <v>21.917483000000001</v>
       </c>
-      <c r="K37" s="11"/>
-      <c r="L37" s="12"/>
+      <c r="K37" s="7"/>
+      <c r="L37" s="10"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A38" s="7">
+      <c r="A38" s="3">
         <v>4.6990000000000001E-3</v>
       </c>
-      <c r="B38" s="11"/>
-      <c r="C38" s="12"/>
-      <c r="D38" s="7">
+      <c r="B38" s="7"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="3">
         <v>4.1896999999999997E-2</v>
       </c>
-      <c r="E38" s="11"/>
-      <c r="F38" s="12"/>
-      <c r="G38" s="7">
+      <c r="E38" s="7"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="3">
         <v>2.0170970000000001</v>
       </c>
-      <c r="H38" s="11"/>
-      <c r="I38" s="12"/>
-      <c r="J38" s="7">
+      <c r="H38" s="7"/>
+      <c r="I38" s="10"/>
+      <c r="J38" s="3">
         <v>22.68177</v>
       </c>
-      <c r="K38" s="11"/>
-      <c r="L38" s="12"/>
+      <c r="K38" s="7"/>
+      <c r="L38" s="10"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A39" s="7">
+      <c r="A39" s="3">
         <v>7.8689999999999993E-3</v>
       </c>
-      <c r="B39" s="13"/>
-      <c r="C39" s="14"/>
-      <c r="D39" s="7">
+      <c r="B39" s="8"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="3">
         <v>4.1755E-2</v>
       </c>
-      <c r="E39" s="13"/>
-      <c r="F39" s="14"/>
-      <c r="G39" s="7">
+      <c r="E39" s="8"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="3">
         <v>1.987995</v>
       </c>
-      <c r="H39" s="13"/>
-      <c r="I39" s="14"/>
-      <c r="J39" s="7">
+      <c r="H39" s="8"/>
+      <c r="I39" s="11"/>
+      <c r="J39" s="3">
         <v>21.569064000000001</v>
       </c>
-      <c r="K39" s="13"/>
-      <c r="L39" s="14"/>
+      <c r="K39" s="8"/>
+      <c r="L39" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="A33:L33"/>
-    <mergeCell ref="B35:B39"/>
-    <mergeCell ref="C35:C39"/>
-    <mergeCell ref="E35:E39"/>
-    <mergeCell ref="F35:F39"/>
-    <mergeCell ref="H35:H39"/>
-    <mergeCell ref="I35:I39"/>
-    <mergeCell ref="K35:K39"/>
-    <mergeCell ref="L35:L39"/>
-    <mergeCell ref="L19:L23"/>
-    <mergeCell ref="A25:L25"/>
-    <mergeCell ref="B27:B31"/>
-    <mergeCell ref="C27:C31"/>
-    <mergeCell ref="E27:E31"/>
-    <mergeCell ref="F27:F31"/>
-    <mergeCell ref="H27:H31"/>
-    <mergeCell ref="I27:I31"/>
-    <mergeCell ref="K27:K31"/>
-    <mergeCell ref="L27:L31"/>
+    <mergeCell ref="A9:L9"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="B3:B7"/>
+    <mergeCell ref="D3:D7"/>
+    <mergeCell ref="F3:F7"/>
+    <mergeCell ref="H3:H7"/>
     <mergeCell ref="K11:K15"/>
     <mergeCell ref="L11:L15"/>
     <mergeCell ref="A17:L17"/>
@@ -1539,12 +1526,25 @@
     <mergeCell ref="F11:F15"/>
     <mergeCell ref="H11:H15"/>
     <mergeCell ref="I11:I15"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="B3:B7"/>
-    <mergeCell ref="D3:D7"/>
-    <mergeCell ref="F3:F7"/>
-    <mergeCell ref="H3:H7"/>
-    <mergeCell ref="A9:L9"/>
+    <mergeCell ref="L19:L23"/>
+    <mergeCell ref="A25:L25"/>
+    <mergeCell ref="B27:B31"/>
+    <mergeCell ref="C27:C31"/>
+    <mergeCell ref="E27:E31"/>
+    <mergeCell ref="F27:F31"/>
+    <mergeCell ref="H27:H31"/>
+    <mergeCell ref="I27:I31"/>
+    <mergeCell ref="K27:K31"/>
+    <mergeCell ref="L27:L31"/>
+    <mergeCell ref="A33:L33"/>
+    <mergeCell ref="B35:B39"/>
+    <mergeCell ref="C35:C39"/>
+    <mergeCell ref="E35:E39"/>
+    <mergeCell ref="F35:F39"/>
+    <mergeCell ref="H35:H39"/>
+    <mergeCell ref="I35:I39"/>
+    <mergeCell ref="K35:K39"/>
+    <mergeCell ref="L35:L39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/MPI/racunanje_ubrzanja_programa_mpi.xlsx
+++ b/MPI/racunanje_ubrzanja_programa_mpi.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saren\OneDrive\Documents\ETF\7. semestar\Multiprocesorski sistemi\GitHub_Domaci\Multiprocessing_Systems\MPI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F71D395-29AF-417B-84A2-D107BC0B0EA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{319DB37D-ACE5-4426-8F02-275A9E723197}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" activeTab="2" xr2:uid="{E700D36A-9AEC-48B1-B431-3A7C21838328}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{E700D36A-9AEC-48B1-B431-3A7C21838328}"/>
   </bookViews>
   <sheets>
     <sheet name="Zadatak 1" sheetId="3" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="11">
   <si>
     <t>sequential</t>
   </si>
@@ -127,7 +127,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -207,11 +207,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -227,6 +264,15 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -246,14 +292,41 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -569,80 +642,47 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E507908-E47E-43FA-866F-ABBDC664C0C3}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7851D13-C089-4E79-B982-DBF5982D0E6F}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D802E11-FFBF-4034-8D69-C48F8BCDD2DC}">
   <dimension ref="A1:L39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J39" sqref="J39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="22.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="23.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.77734375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="25.88671875" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
+      <c r="A2" s="1">
+        <v>10000</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>3</v>
+      <c r="C2" s="1">
+        <v>100000</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>4</v>
+      <c r="E2" s="1">
+        <v>1000000</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>5</v>
+      <c r="G2" s="1">
+        <v>10000000</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>2</v>
@@ -650,105 +690,105 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
-        <v>7.7799999999999996E-3</v>
-      </c>
-      <c r="B3" s="14">
+        <v>2.859E-3</v>
+      </c>
+      <c r="B3" s="8">
         <f>AVERAGE(A3:A7)</f>
-        <v>6.4991999999999992E-3</v>
+        <v>2.8677999999999998E-3</v>
       </c>
       <c r="C3" s="1">
-        <v>3.4301999999999999E-2</v>
-      </c>
-      <c r="D3" s="14">
+        <v>9.2750000000000003E-3</v>
+      </c>
+      <c r="D3" s="8">
         <f>AVERAGE(C3:C7)</f>
-        <v>4.93788E-2</v>
+        <v>9.2186000000000021E-3</v>
       </c>
       <c r="E3" s="1">
-        <v>2.4107050000000001</v>
-      </c>
-      <c r="F3" s="14">
+        <v>0.176201</v>
+      </c>
+      <c r="F3" s="8">
         <f>AVERAGE(E3:E7)</f>
-        <v>2.3921540000000001</v>
+        <v>0.17561979999999999</v>
       </c>
       <c r="G3" s="1">
-        <v>23.769746000000001</v>
-      </c>
-      <c r="H3" s="14">
+        <v>4.1992710000000004</v>
+      </c>
+      <c r="H3" s="16">
         <f>AVERAGE(G3:G7)</f>
-        <v>23.8937372</v>
+        <v>4.1829993999999999</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
-        <v>5.986E-3</v>
-      </c>
-      <c r="B4" s="14"/>
+        <v>2.872E-3</v>
+      </c>
+      <c r="B4" s="8"/>
       <c r="C4" s="1">
-        <v>3.2233999999999999E-2</v>
-      </c>
-      <c r="D4" s="14"/>
+        <v>1.0198E-2</v>
+      </c>
+      <c r="D4" s="8"/>
       <c r="E4" s="1">
-        <v>2.3849840000000002</v>
-      </c>
-      <c r="F4" s="14"/>
+        <v>0.176263</v>
+      </c>
+      <c r="F4" s="8"/>
       <c r="G4" s="1">
-        <v>23.880281</v>
-      </c>
-      <c r="H4" s="14"/>
+        <v>4.2012299999999998</v>
+      </c>
+      <c r="H4" s="17"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
-        <v>6.3420000000000004E-3</v>
-      </c>
-      <c r="B5" s="14"/>
+        <v>2.8570000000000002E-3</v>
+      </c>
+      <c r="B5" s="8"/>
       <c r="C5" s="1">
-        <v>3.2267999999999998E-2</v>
-      </c>
-      <c r="D5" s="14"/>
+        <v>9.7560000000000008E-3</v>
+      </c>
+      <c r="D5" s="8"/>
       <c r="E5" s="1">
-        <v>2.418174</v>
-      </c>
-      <c r="F5" s="14"/>
+        <v>0.17635200000000001</v>
+      </c>
+      <c r="F5" s="8"/>
       <c r="G5" s="1">
-        <v>23.901166</v>
-      </c>
-      <c r="H5" s="14"/>
+        <v>4.1154200000000003</v>
+      </c>
+      <c r="H5" s="17"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
-        <v>6.0850000000000001E-3</v>
-      </c>
-      <c r="B6" s="14"/>
+        <v>2.9009999999999999E-3</v>
+      </c>
+      <c r="B6" s="8"/>
       <c r="C6" s="1">
-        <v>6.1054999999999998E-2</v>
-      </c>
-      <c r="D6" s="14"/>
+        <v>8.5199999999999998E-3</v>
+      </c>
+      <c r="D6" s="8"/>
       <c r="E6" s="1">
-        <v>2.374854</v>
-      </c>
-      <c r="F6" s="14"/>
+        <v>0.17640700000000001</v>
+      </c>
+      <c r="F6" s="8"/>
       <c r="G6" s="1">
-        <v>23.998033</v>
-      </c>
-      <c r="H6" s="14"/>
+        <v>4.1990109999999996</v>
+      </c>
+      <c r="H6" s="17"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
-        <v>6.3029999999999996E-3</v>
-      </c>
-      <c r="B7" s="14"/>
+        <v>2.8500000000000001E-3</v>
+      </c>
+      <c r="B7" s="8"/>
       <c r="C7" s="1">
-        <v>8.7035000000000001E-2</v>
-      </c>
-      <c r="D7" s="14"/>
+        <v>8.3440000000000007E-3</v>
+      </c>
+      <c r="D7" s="8"/>
       <c r="E7" s="1">
-        <v>2.3720530000000002</v>
-      </c>
-      <c r="F7" s="14"/>
+        <v>0.172876</v>
+      </c>
+      <c r="F7" s="8"/>
       <c r="G7" s="1">
-        <v>23.919460000000001</v>
-      </c>
-      <c r="H7" s="14"/>
+        <v>4.2000650000000004</v>
+      </c>
+      <c r="H7" s="18"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
@@ -767,8 +807,8 @@
       <c r="L9" s="5"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
-        <v>1</v>
+      <c r="A10" s="3">
+        <v>10000</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>2</v>
@@ -776,8 +816,8 @@
       <c r="C10" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>3</v>
+      <c r="D10" s="3">
+        <v>100000</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>2</v>
@@ -785,8 +825,8 @@
       <c r="F10" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G10" s="3" t="s">
-        <v>4</v>
+      <c r="G10" s="3">
+        <v>1000000</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>2</v>
@@ -794,8 +834,8 @@
       <c r="I10" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="J10" s="3" t="s">
-        <v>5</v>
+      <c r="J10" s="3">
+        <v>10000000</v>
       </c>
       <c r="K10" s="3" t="s">
         <v>2</v>
@@ -806,137 +846,137 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
-        <v>4.3769999999999998E-3</v>
-      </c>
-      <c r="B11" s="6">
+        <v>6.9800000000000005E-4</v>
+      </c>
+      <c r="B11" s="19">
         <f>AVERAGE(A11:A15)</f>
-        <v>4.4596000000000002E-3</v>
-      </c>
-      <c r="C11" s="9">
+        <v>6.8980000000000007E-4</v>
+      </c>
+      <c r="C11" s="20">
         <f>B3/B11</f>
-        <v>1.4573504350165931</v>
+        <v>4.1574369382429683</v>
       </c>
       <c r="D11" s="3">
-        <v>6.8006999999999998E-2</v>
-      </c>
-      <c r="E11" s="6">
+        <v>1.0813E-2</v>
+      </c>
+      <c r="E11" s="19">
         <f>AVERAGE(D11:D15)</f>
-        <v>6.4985799999999996E-2</v>
-      </c>
-      <c r="F11" s="9">
+        <v>1.1069199999999998E-2</v>
+      </c>
+      <c r="F11" s="12">
         <f>D3/E11</f>
-        <v>0.75983984193469967</v>
+        <v>0.83281537961189644</v>
       </c>
       <c r="G11" s="3">
-        <v>6.6232480000000002</v>
-      </c>
-      <c r="H11" s="6">
+        <v>0.206654</v>
+      </c>
+      <c r="H11" s="19">
         <f>AVERAGE(G11:G15)</f>
-        <v>6.686429200000001</v>
-      </c>
-      <c r="I11" s="9">
+        <v>0.21116679999999999</v>
+      </c>
+      <c r="I11" s="12">
         <f>F3/H11</f>
-        <v>0.3577625558347346</v>
+        <v>0.83166387898097616</v>
       </c>
       <c r="J11" s="3">
-        <v>89.042483000000004</v>
-      </c>
-      <c r="K11" s="6">
+        <v>4.5652889999999999</v>
+      </c>
+      <c r="K11" s="19">
         <f>AVERAGE(J11:J15)</f>
-        <v>74.137772400000017</v>
-      </c>
-      <c r="L11" s="9">
+        <v>4.6684320000000001</v>
+      </c>
+      <c r="L11" s="12">
         <f>H3/K11</f>
-        <v>0.32228830765354899</v>
+        <v>0.89601806345256818</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
-        <v>4.4380000000000001E-3</v>
-      </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="10"/>
+        <v>6.7500000000000004E-4</v>
+      </c>
+      <c r="B12" s="19"/>
+      <c r="C12" s="20"/>
       <c r="D12" s="3">
-        <v>4.1998000000000001E-2</v>
-      </c>
-      <c r="E12" s="7"/>
-      <c r="F12" s="10"/>
+        <v>1.1304E-2</v>
+      </c>
+      <c r="E12" s="19"/>
+      <c r="F12" s="13"/>
       <c r="G12" s="3">
-        <v>6.5891760000000001</v>
-      </c>
-      <c r="H12" s="7"/>
-      <c r="I12" s="10"/>
+        <v>0.20962600000000001</v>
+      </c>
+      <c r="H12" s="19"/>
+      <c r="I12" s="13"/>
       <c r="J12" s="3">
-        <v>71.662083999999993</v>
-      </c>
-      <c r="K12" s="7"/>
-      <c r="L12" s="10"/>
+        <v>4.6637890000000004</v>
+      </c>
+      <c r="K12" s="19"/>
+      <c r="L12" s="13"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
-        <v>4.5110000000000003E-3</v>
-      </c>
-      <c r="B13" s="7"/>
-      <c r="C13" s="10"/>
+        <v>6.8000000000000005E-4</v>
+      </c>
+      <c r="B13" s="19"/>
+      <c r="C13" s="20"/>
       <c r="D13" s="3">
-        <v>4.3872000000000001E-2</v>
-      </c>
-      <c r="E13" s="7"/>
-      <c r="F13" s="10"/>
+        <v>1.1237E-2</v>
+      </c>
+      <c r="E13" s="19"/>
+      <c r="F13" s="13"/>
       <c r="G13" s="3">
-        <v>6.7215730000000002</v>
-      </c>
-      <c r="H13" s="7"/>
-      <c r="I13" s="10"/>
+        <v>0.21007999999999999</v>
+      </c>
+      <c r="H13" s="19"/>
+      <c r="I13" s="13"/>
       <c r="J13" s="3">
-        <v>69.002851000000007</v>
-      </c>
-      <c r="K13" s="7"/>
-      <c r="L13" s="10"/>
+        <v>4.674715</v>
+      </c>
+      <c r="K13" s="19"/>
+      <c r="L13" s="13"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
-        <v>4.5250000000000004E-3</v>
-      </c>
-      <c r="B14" s="7"/>
-      <c r="C14" s="10"/>
+        <v>6.9300000000000004E-4</v>
+      </c>
+      <c r="B14" s="19"/>
+      <c r="C14" s="20"/>
       <c r="D14" s="3">
-        <v>5.8254E-2</v>
-      </c>
-      <c r="E14" s="7"/>
-      <c r="F14" s="10"/>
+        <v>1.0857E-2</v>
+      </c>
+      <c r="E14" s="19"/>
+      <c r="F14" s="13"/>
       <c r="G14" s="3">
-        <v>6.7527499999999998</v>
-      </c>
-      <c r="H14" s="7"/>
-      <c r="I14" s="10"/>
+        <v>0.21654999999999999</v>
+      </c>
+      <c r="H14" s="19"/>
+      <c r="I14" s="13"/>
       <c r="J14" s="3">
-        <v>68.275855000000007</v>
-      </c>
-      <c r="K14" s="7"/>
-      <c r="L14" s="10"/>
+        <v>4.6830360000000004</v>
+      </c>
+      <c r="K14" s="19"/>
+      <c r="L14" s="13"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
-        <v>4.4470000000000004E-3</v>
-      </c>
-      <c r="B15" s="8"/>
-      <c r="C15" s="11"/>
+        <v>7.0299999999999996E-4</v>
+      </c>
+      <c r="B15" s="19"/>
+      <c r="C15" s="20"/>
       <c r="D15" s="3">
-        <v>0.112798</v>
-      </c>
-      <c r="E15" s="8"/>
-      <c r="F15" s="11"/>
+        <v>1.1135000000000001E-2</v>
+      </c>
+      <c r="E15" s="19"/>
+      <c r="F15" s="14"/>
       <c r="G15" s="3">
-        <v>6.7453989999999999</v>
-      </c>
-      <c r="H15" s="8"/>
-      <c r="I15" s="11"/>
+        <v>0.212924</v>
+      </c>
+      <c r="H15" s="19"/>
+      <c r="I15" s="14"/>
       <c r="J15" s="3">
-        <v>72.705589000000003</v>
-      </c>
-      <c r="K15" s="8"/>
-      <c r="L15" s="11"/>
+        <v>4.755331</v>
+      </c>
+      <c r="K15" s="19"/>
+      <c r="L15" s="14"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
@@ -955,8 +995,8 @@
       <c r="L17" s="5"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
-        <v>1</v>
+      <c r="A18" s="3">
+        <v>10000</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>2</v>
@@ -964,8 +1004,8 @@
       <c r="C18" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>3</v>
+      <c r="D18" s="3">
+        <v>100000</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>2</v>
@@ -973,8 +1013,8 @@
       <c r="F18" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G18" s="3" t="s">
-        <v>4</v>
+      <c r="G18" s="3">
+        <v>1000000</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>2</v>
@@ -982,8 +1022,8 @@
       <c r="I18" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="J18" s="3" t="s">
-        <v>5</v>
+      <c r="J18" s="3">
+        <v>10000000</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>2</v>
@@ -994,137 +1034,137 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
-        <v>4.8999999999999998E-3</v>
-      </c>
-      <c r="B19" s="6">
+        <v>6.1600000000000001E-4</v>
+      </c>
+      <c r="B19" s="19">
         <f>AVERAGE(A19:A23)</f>
-        <v>4.6842000000000003E-3</v>
-      </c>
-      <c r="C19" s="9">
+        <v>5.4779999999999998E-4</v>
+      </c>
+      <c r="C19" s="20">
         <f>B3/B19</f>
-        <v>1.3874727808377094</v>
+        <v>5.2351223074114639</v>
       </c>
       <c r="D19" s="3">
-        <v>5.6577000000000002E-2</v>
-      </c>
-      <c r="E19" s="6">
+        <v>6.2249999999999996E-3</v>
+      </c>
+      <c r="E19" s="19">
         <f>AVERAGE(D19:D23)</f>
-        <v>4.8751799999999998E-2</v>
-      </c>
-      <c r="F19" s="9">
+        <v>6.4689999999999999E-3</v>
+      </c>
+      <c r="F19" s="12">
         <f>D3/E19</f>
-        <v>1.0128610635914983</v>
+        <v>1.4250425104343798</v>
       </c>
       <c r="G19" s="3">
-        <v>3.4884689999999998</v>
-      </c>
-      <c r="H19" s="6">
+        <v>0.14038600000000001</v>
+      </c>
+      <c r="H19" s="19">
         <f>AVERAGE(G19:G23)</f>
-        <v>3.6097006</v>
-      </c>
-      <c r="I19" s="9">
+        <v>0.12656260000000003</v>
+      </c>
+      <c r="I19" s="12">
         <f>F3/H19</f>
-        <v>0.6627014993985928</v>
+        <v>1.3876121381830016</v>
       </c>
       <c r="J19" s="3">
-        <v>40.36327</v>
-      </c>
-      <c r="K19" s="6">
+        <v>2.786152</v>
+      </c>
+      <c r="K19" s="19">
         <f>AVERAGE(J19:J23)</f>
-        <v>41.001088199999991</v>
-      </c>
-      <c r="L19" s="9">
+        <v>2.8426081999999999</v>
+      </c>
+      <c r="L19" s="12">
         <f>H3/K19</f>
-        <v>0.58275861078243296</v>
+        <v>1.4715356833206912</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
-        <v>4.7720000000000002E-3</v>
-      </c>
-      <c r="B20" s="7"/>
-      <c r="C20" s="10"/>
+        <v>6.0499999999999996E-4</v>
+      </c>
+      <c r="B20" s="19"/>
+      <c r="C20" s="20"/>
       <c r="D20" s="3">
-        <v>6.0916999999999999E-2</v>
-      </c>
-      <c r="E20" s="7"/>
-      <c r="F20" s="10"/>
+        <v>6.5729999999999998E-3</v>
+      </c>
+      <c r="E20" s="19"/>
+      <c r="F20" s="13"/>
       <c r="G20" s="3">
-        <v>3.561401</v>
-      </c>
-      <c r="H20" s="7"/>
-      <c r="I20" s="10"/>
+        <v>0.121653</v>
+      </c>
+      <c r="H20" s="19"/>
+      <c r="I20" s="13"/>
       <c r="J20" s="3">
-        <v>47.20411</v>
-      </c>
-      <c r="K20" s="7"/>
-      <c r="L20" s="10"/>
+        <v>2.7959390000000002</v>
+      </c>
+      <c r="K20" s="19"/>
+      <c r="L20" s="13"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
-        <v>4.9020000000000001E-3</v>
-      </c>
-      <c r="B21" s="7"/>
-      <c r="C21" s="10"/>
+        <v>4.8899999999999996E-4</v>
+      </c>
+      <c r="B21" s="19"/>
+      <c r="C21" s="20"/>
       <c r="D21" s="3">
-        <v>4.2832000000000002E-2</v>
-      </c>
-      <c r="E21" s="7"/>
-      <c r="F21" s="10"/>
+        <v>6.4190000000000002E-3</v>
+      </c>
+      <c r="E21" s="19"/>
+      <c r="F21" s="13"/>
       <c r="G21" s="3">
-        <v>3.6326170000000002</v>
-      </c>
-      <c r="H21" s="7"/>
-      <c r="I21" s="10"/>
+        <v>0.12253799999999999</v>
+      </c>
+      <c r="H21" s="19"/>
+      <c r="I21" s="13"/>
       <c r="J21" s="3">
-        <v>41.847327999999997</v>
-      </c>
-      <c r="K21" s="7"/>
-      <c r="L21" s="10"/>
+        <v>2.8313739999999998</v>
+      </c>
+      <c r="K21" s="19"/>
+      <c r="L21" s="13"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
-        <v>4.4450000000000002E-3</v>
-      </c>
-      <c r="B22" s="7"/>
-      <c r="C22" s="10"/>
+        <v>5.1599999999999997E-4</v>
+      </c>
+      <c r="B22" s="19"/>
+      <c r="C22" s="20"/>
       <c r="D22" s="3">
-        <v>4.1216999999999997E-2</v>
-      </c>
-      <c r="E22" s="7"/>
-      <c r="F22" s="10"/>
+        <v>6.3420000000000004E-3</v>
+      </c>
+      <c r="E22" s="19"/>
+      <c r="F22" s="13"/>
       <c r="G22" s="3">
-        <v>3.6529639999999999</v>
-      </c>
-      <c r="H22" s="7"/>
-      <c r="I22" s="10"/>
+        <v>0.124524</v>
+      </c>
+      <c r="H22" s="19"/>
+      <c r="I22" s="13"/>
       <c r="J22" s="3">
-        <v>37.903092999999998</v>
-      </c>
-      <c r="K22" s="7"/>
-      <c r="L22" s="10"/>
+        <v>2.8770509999999998</v>
+      </c>
+      <c r="K22" s="19"/>
+      <c r="L22" s="13"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
-        <v>4.4019999999999997E-3</v>
-      </c>
-      <c r="B23" s="8"/>
-      <c r="C23" s="11"/>
+        <v>5.13E-4</v>
+      </c>
+      <c r="B23" s="19"/>
+      <c r="C23" s="20"/>
       <c r="D23" s="3">
-        <v>4.2215999999999997E-2</v>
-      </c>
-      <c r="E23" s="8"/>
-      <c r="F23" s="11"/>
+        <v>6.7860000000000004E-3</v>
+      </c>
+      <c r="E23" s="19"/>
+      <c r="F23" s="14"/>
       <c r="G23" s="3">
-        <v>3.7130519999999998</v>
-      </c>
-      <c r="H23" s="8"/>
-      <c r="I23" s="11"/>
+        <v>0.123712</v>
+      </c>
+      <c r="H23" s="19"/>
+      <c r="I23" s="14"/>
       <c r="J23" s="3">
-        <v>37.687640000000002</v>
-      </c>
-      <c r="K23" s="8"/>
-      <c r="L23" s="11"/>
+        <v>2.9225249999999998</v>
+      </c>
+      <c r="K23" s="19"/>
+      <c r="L23" s="14"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
@@ -1143,8 +1183,8 @@
       <c r="L25" s="5"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A26" s="3" t="s">
-        <v>1</v>
+      <c r="A26" s="3">
+        <v>10000</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>2</v>
@@ -1152,8 +1192,8 @@
       <c r="C26" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>3</v>
+      <c r="D26" s="3">
+        <v>100000</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>2</v>
@@ -1161,8 +1201,8 @@
       <c r="F26" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G26" s="3" t="s">
-        <v>4</v>
+      <c r="G26" s="3">
+        <v>1000000</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>2</v>
@@ -1170,8 +1210,8 @@
       <c r="I26" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="J26" s="3" t="s">
-        <v>5</v>
+      <c r="J26" s="3">
+        <v>10000000</v>
       </c>
       <c r="K26" s="3" t="s">
         <v>2</v>
@@ -1182,137 +1222,137 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
-        <v>4.3699999999999998E-3</v>
-      </c>
-      <c r="B27" s="6">
+        <v>5.04E-4</v>
+      </c>
+      <c r="B27" s="19">
         <f>AVERAGE(A27:A31)</f>
-        <v>4.3296000000000003E-3</v>
-      </c>
-      <c r="C27" s="9">
+        <v>4.4439999999999991E-4</v>
+      </c>
+      <c r="C27" s="20">
         <f>B3/B27</f>
-        <v>1.5011086474501105</v>
+        <v>6.4531953195319538</v>
       </c>
       <c r="D27" s="3">
-        <v>6.8677000000000002E-2</v>
-      </c>
-      <c r="E27" s="6">
+        <v>3.692E-3</v>
+      </c>
+      <c r="E27" s="19">
         <f>AVERAGE(D27:D31)</f>
-        <v>5.2304200000000002E-2</v>
-      </c>
-      <c r="F27" s="9">
+        <v>4.3686000000000003E-3</v>
+      </c>
+      <c r="F27" s="12">
         <f>D3/E27</f>
-        <v>0.94406950111080945</v>
+        <v>2.110195485968045</v>
       </c>
       <c r="G27" s="3">
-        <v>1.9634100000000001</v>
-      </c>
-      <c r="H27" s="6">
+        <v>6.8218000000000001E-2</v>
+      </c>
+      <c r="H27" s="19">
         <f>AVERAGE(G27:G31)</f>
-        <v>2.189451</v>
-      </c>
-      <c r="I27" s="9">
+        <v>7.5724000000000014E-2</v>
+      </c>
+      <c r="I27" s="12">
         <f>F3/H27</f>
-        <v>1.0925816563147566</v>
+        <v>2.3192092335323009</v>
       </c>
       <c r="J27" s="3">
-        <v>22.983543000000001</v>
-      </c>
-      <c r="K27" s="6">
+        <v>1.5362549999999999</v>
+      </c>
+      <c r="K27" s="19">
         <f>AVERAGE(J27:J31)</f>
-        <v>24.474444599999998</v>
-      </c>
-      <c r="L27" s="9">
+        <v>1.6117066000000002</v>
+      </c>
+      <c r="L27" s="12">
         <f>H3/K27</f>
-        <v>0.97627290794578447</v>
+        <v>2.595385165017007</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
-        <v>4.2700000000000004E-3</v>
-      </c>
-      <c r="B28" s="7"/>
-      <c r="C28" s="10"/>
+        <v>3.8099999999999999E-4</v>
+      </c>
+      <c r="B28" s="19"/>
+      <c r="C28" s="20"/>
       <c r="D28" s="3">
-        <v>4.2324000000000001E-2</v>
-      </c>
-      <c r="E28" s="7"/>
-      <c r="F28" s="10"/>
+        <v>4.3299999999999996E-3</v>
+      </c>
+      <c r="E28" s="19"/>
+      <c r="F28" s="13"/>
       <c r="G28" s="3">
-        <v>2.1728649999999998</v>
-      </c>
-      <c r="H28" s="7"/>
-      <c r="I28" s="10"/>
+        <v>6.9427000000000003E-2</v>
+      </c>
+      <c r="H28" s="19"/>
+      <c r="I28" s="13"/>
       <c r="J28" s="3">
-        <v>23.784718999999999</v>
-      </c>
-      <c r="K28" s="7"/>
-      <c r="L28" s="10"/>
+        <v>1.5048840000000001</v>
+      </c>
+      <c r="K28" s="19"/>
+      <c r="L28" s="13"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
-        <v>4.4650000000000002E-3</v>
-      </c>
-      <c r="B29" s="7"/>
-      <c r="C29" s="10"/>
+        <v>3.9800000000000002E-4</v>
+      </c>
+      <c r="B29" s="19"/>
+      <c r="C29" s="20"/>
       <c r="D29" s="3">
-        <v>4.3873000000000002E-2</v>
-      </c>
-      <c r="E29" s="7"/>
-      <c r="F29" s="10"/>
+        <v>4.908E-3</v>
+      </c>
+      <c r="E29" s="19"/>
+      <c r="F29" s="13"/>
       <c r="G29" s="3">
-        <v>2.1944849999999998</v>
-      </c>
-      <c r="H29" s="7"/>
-      <c r="I29" s="10"/>
+        <v>0.100582</v>
+      </c>
+      <c r="H29" s="19"/>
+      <c r="I29" s="13"/>
       <c r="J29" s="3">
-        <v>25.523700000000002</v>
-      </c>
-      <c r="K29" s="7"/>
-      <c r="L29" s="10"/>
+        <v>1.5909089999999999</v>
+      </c>
+      <c r="K29" s="19"/>
+      <c r="L29" s="13"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
-        <v>4.3579999999999999E-3</v>
-      </c>
-      <c r="B30" s="7"/>
-      <c r="C30" s="10"/>
+        <v>4.4999999999999999E-4</v>
+      </c>
+      <c r="B30" s="19"/>
+      <c r="C30" s="20"/>
       <c r="D30" s="3">
-        <v>4.1213E-2</v>
-      </c>
-      <c r="E30" s="7"/>
-      <c r="F30" s="10"/>
+        <v>5.3270000000000001E-3</v>
+      </c>
+      <c r="E30" s="19"/>
+      <c r="F30" s="13"/>
       <c r="G30" s="3">
-        <v>2.3042750000000001</v>
-      </c>
-      <c r="H30" s="7"/>
-      <c r="I30" s="10"/>
+        <v>6.6267000000000006E-2</v>
+      </c>
+      <c r="H30" s="19"/>
+      <c r="I30" s="13"/>
       <c r="J30" s="3">
-        <v>27.042113000000001</v>
-      </c>
-      <c r="K30" s="7"/>
-      <c r="L30" s="10"/>
+        <v>1.715792</v>
+      </c>
+      <c r="K30" s="19"/>
+      <c r="L30" s="13"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
-        <v>4.1850000000000004E-3</v>
-      </c>
-      <c r="B31" s="8"/>
-      <c r="C31" s="11"/>
+        <v>4.8899999999999996E-4</v>
+      </c>
+      <c r="B31" s="19"/>
+      <c r="C31" s="20"/>
       <c r="D31" s="3">
-        <v>6.5434000000000006E-2</v>
-      </c>
-      <c r="E31" s="8"/>
-      <c r="F31" s="11"/>
+        <v>3.5860000000000002E-3</v>
+      </c>
+      <c r="E31" s="19"/>
+      <c r="F31" s="14"/>
       <c r="G31" s="3">
-        <v>2.3122199999999999</v>
-      </c>
-      <c r="H31" s="8"/>
-      <c r="I31" s="11"/>
+        <v>7.4125999999999997E-2</v>
+      </c>
+      <c r="H31" s="19"/>
+      <c r="I31" s="14"/>
       <c r="J31" s="3">
-        <v>23.038148</v>
-      </c>
-      <c r="K31" s="8"/>
-      <c r="L31" s="11"/>
+        <v>1.710693</v>
+      </c>
+      <c r="K31" s="19"/>
+      <c r="L31" s="14"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
@@ -1331,8 +1371,8 @@
       <c r="L33" s="5"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A34" s="3" t="s">
-        <v>1</v>
+      <c r="A34" s="3">
+        <v>10000</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>2</v>
@@ -1340,8 +1380,8 @@
       <c r="C34" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D34" s="3" t="s">
-        <v>3</v>
+      <c r="D34" s="3">
+        <v>100000</v>
       </c>
       <c r="E34" s="3" t="s">
         <v>2</v>
@@ -1349,8 +1389,8 @@
       <c r="F34" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G34" s="3" t="s">
-        <v>4</v>
+      <c r="G34" s="3">
+        <v>1000000</v>
       </c>
       <c r="H34" s="3" t="s">
         <v>2</v>
@@ -1358,8 +1398,8 @@
       <c r="I34" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="J34" s="3" t="s">
-        <v>5</v>
+      <c r="J34" s="3">
+        <v>10000000</v>
       </c>
       <c r="K34" s="3" t="s">
         <v>2</v>
@@ -1370,146 +1410,159 @@
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" s="3">
-        <v>4.5999999999999999E-3</v>
-      </c>
-      <c r="B35" s="6">
+        <v>4.5199999999999998E-4</v>
+      </c>
+      <c r="B35" s="19">
         <f>AVERAGE(A35:A39)</f>
-        <v>5.8130000000000005E-3</v>
-      </c>
-      <c r="C35" s="9">
+        <v>4.6160000000000005E-4</v>
+      </c>
+      <c r="C35" s="20">
         <f>B3/B35</f>
-        <v>1.1180457595045585</v>
+        <v>6.2127383015597912</v>
       </c>
       <c r="D35" s="3">
-        <v>4.335E-2</v>
-      </c>
-      <c r="E35" s="6">
+        <v>3.0070000000000001E-3</v>
+      </c>
+      <c r="E35" s="19">
         <f>AVERAGE(D35:D39)</f>
-        <v>4.2192600000000004E-2</v>
-      </c>
-      <c r="F35" s="9">
+        <v>2.7066E-3</v>
+      </c>
+      <c r="F35" s="12">
         <f>D3/E35</f>
-        <v>1.1703189658850128</v>
+        <v>3.4059705904086317</v>
       </c>
       <c r="G35" s="3">
-        <v>1.668833</v>
-      </c>
-      <c r="H35" s="6">
+        <v>5.9722999999999998E-2</v>
+      </c>
+      <c r="H35" s="19">
         <f>AVERAGE(G35:G39)</f>
-        <v>1.9743895999999999</v>
-      </c>
-      <c r="I35" s="9">
+        <v>5.3711600000000005E-2</v>
+      </c>
+      <c r="I35" s="12">
         <f>F3/H35</f>
-        <v>1.2115916737000643</v>
+        <v>3.2696810372433509</v>
       </c>
       <c r="J35" s="3">
-        <v>21.320739</v>
-      </c>
-      <c r="K35" s="6">
+        <v>1.1083529999999999</v>
+      </c>
+      <c r="K35" s="19">
         <f>AVERAGE(J35:J39)</f>
-        <v>21.781726599999999</v>
-      </c>
-      <c r="L35" s="9">
+        <v>1.0822175999999999</v>
+      </c>
+      <c r="L35" s="12">
         <f>H3/K35</f>
-        <v>1.0969624969950731</v>
+        <v>3.8652110259526369</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" s="3">
-        <v>4.5840000000000004E-3</v>
-      </c>
-      <c r="B36" s="7"/>
-      <c r="C36" s="10"/>
+        <v>4.5300000000000001E-4</v>
+      </c>
+      <c r="B36" s="19"/>
+      <c r="C36" s="20"/>
       <c r="D36" s="3">
-        <v>4.1674000000000003E-2</v>
-      </c>
-      <c r="E36" s="7"/>
-      <c r="F36" s="10"/>
+        <v>2.4359999999999998E-3</v>
+      </c>
+      <c r="E36" s="19"/>
+      <c r="F36" s="13"/>
       <c r="G36" s="3">
-        <v>2.009665</v>
-      </c>
-      <c r="H36" s="7"/>
-      <c r="I36" s="10"/>
+        <v>4.4310000000000002E-2</v>
+      </c>
+      <c r="H36" s="19"/>
+      <c r="I36" s="13"/>
       <c r="J36" s="3">
-        <v>21.419577</v>
-      </c>
-      <c r="K36" s="7"/>
-      <c r="L36" s="10"/>
+        <v>0.86892100000000005</v>
+      </c>
+      <c r="K36" s="19"/>
+      <c r="L36" s="13"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" s="3">
-        <v>7.3130000000000001E-3</v>
-      </c>
-      <c r="B37" s="7"/>
-      <c r="C37" s="10"/>
+        <v>4.66E-4</v>
+      </c>
+      <c r="B37" s="19"/>
+      <c r="C37" s="20"/>
       <c r="D37" s="3">
-        <v>4.2286999999999998E-2</v>
-      </c>
-      <c r="E37" s="7"/>
-      <c r="F37" s="10"/>
+        <v>2.294E-3</v>
+      </c>
+      <c r="E37" s="19"/>
+      <c r="F37" s="13"/>
       <c r="G37" s="3">
-        <v>2.188358</v>
-      </c>
-      <c r="H37" s="7"/>
-      <c r="I37" s="10"/>
+        <v>5.0810000000000001E-2</v>
+      </c>
+      <c r="H37" s="19"/>
+      <c r="I37" s="13"/>
       <c r="J37" s="3">
-        <v>21.917483000000001</v>
-      </c>
-      <c r="K37" s="7"/>
-      <c r="L37" s="10"/>
+        <v>1.050233</v>
+      </c>
+      <c r="K37" s="19"/>
+      <c r="L37" s="13"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38" s="3">
-        <v>4.6990000000000001E-3</v>
-      </c>
-      <c r="B38" s="7"/>
-      <c r="C38" s="10"/>
+        <v>4.3199999999999998E-4</v>
+      </c>
+      <c r="B38" s="19"/>
+      <c r="C38" s="20"/>
       <c r="D38" s="3">
-        <v>4.1896999999999997E-2</v>
-      </c>
-      <c r="E38" s="7"/>
-      <c r="F38" s="10"/>
+        <v>2.6549999999999998E-3</v>
+      </c>
+      <c r="E38" s="19"/>
+      <c r="F38" s="13"/>
       <c r="G38" s="3">
-        <v>2.0170970000000001</v>
-      </c>
-      <c r="H38" s="7"/>
-      <c r="I38" s="10"/>
+        <v>5.8358E-2</v>
+      </c>
+      <c r="H38" s="19"/>
+      <c r="I38" s="13"/>
       <c r="J38" s="3">
-        <v>22.68177</v>
-      </c>
-      <c r="K38" s="7"/>
-      <c r="L38" s="10"/>
+        <v>1.09981</v>
+      </c>
+      <c r="K38" s="19"/>
+      <c r="L38" s="13"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39" s="3">
-        <v>7.8689999999999993E-3</v>
-      </c>
-      <c r="B39" s="8"/>
-      <c r="C39" s="11"/>
+        <v>5.0500000000000002E-4</v>
+      </c>
+      <c r="B39" s="19"/>
+      <c r="C39" s="20"/>
       <c r="D39" s="3">
-        <v>4.1755E-2</v>
-      </c>
-      <c r="E39" s="8"/>
-      <c r="F39" s="11"/>
+        <v>3.1410000000000001E-3</v>
+      </c>
+      <c r="E39" s="19"/>
+      <c r="F39" s="14"/>
       <c r="G39" s="3">
-        <v>1.987995</v>
-      </c>
-      <c r="H39" s="8"/>
-      <c r="I39" s="11"/>
+        <v>5.5357000000000003E-2</v>
+      </c>
+      <c r="H39" s="19"/>
+      <c r="I39" s="14"/>
       <c r="J39" s="3">
-        <v>21.569064000000001</v>
-      </c>
-      <c r="K39" s="8"/>
-      <c r="L39" s="11"/>
+        <v>1.283771</v>
+      </c>
+      <c r="K39" s="19"/>
+      <c r="L39" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="A9:L9"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="B3:B7"/>
-    <mergeCell ref="D3:D7"/>
-    <mergeCell ref="F3:F7"/>
-    <mergeCell ref="H3:H7"/>
+    <mergeCell ref="A33:L33"/>
+    <mergeCell ref="B35:B39"/>
+    <mergeCell ref="C35:C39"/>
+    <mergeCell ref="E35:E39"/>
+    <mergeCell ref="F35:F39"/>
+    <mergeCell ref="H35:H39"/>
+    <mergeCell ref="I35:I39"/>
+    <mergeCell ref="K35:K39"/>
+    <mergeCell ref="L35:L39"/>
+    <mergeCell ref="L19:L23"/>
+    <mergeCell ref="A25:L25"/>
+    <mergeCell ref="B27:B31"/>
+    <mergeCell ref="C27:C31"/>
+    <mergeCell ref="E27:E31"/>
+    <mergeCell ref="F27:F31"/>
+    <mergeCell ref="H27:H31"/>
+    <mergeCell ref="I27:I31"/>
+    <mergeCell ref="K27:K31"/>
+    <mergeCell ref="L27:L31"/>
     <mergeCell ref="K11:K15"/>
     <mergeCell ref="L11:L15"/>
     <mergeCell ref="A17:L17"/>
@@ -1526,6 +1579,1677 @@
     <mergeCell ref="F11:F15"/>
     <mergeCell ref="H11:H15"/>
     <mergeCell ref="I11:I15"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="B3:B7"/>
+    <mergeCell ref="D3:D7"/>
+    <mergeCell ref="F3:F7"/>
+    <mergeCell ref="H3:H7"/>
+    <mergeCell ref="A9:L9"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7851D13-C089-4E79-B982-DBF5982D0E6F}">
+  <dimension ref="A1:I39"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="G39" sqref="G39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="23"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>10</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1">
+        <v>100</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1000</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>1.438E-3</v>
+      </c>
+      <c r="B3" s="8">
+        <f>AVERAGE(A3:A7)</f>
+        <v>1.9784000000000004E-3</v>
+      </c>
+      <c r="C3" s="1">
+        <v>2.1944000000000002E-2</v>
+      </c>
+      <c r="D3" s="8">
+        <f>AVERAGE(C3:C7)</f>
+        <v>2.25554E-2</v>
+      </c>
+      <c r="E3" s="1">
+        <v>2.4267289999999999</v>
+      </c>
+      <c r="F3" s="8">
+        <f>AVERAGE(E3:E7)</f>
+        <v>2.2378609999999997</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>1.317E-3</v>
+      </c>
+      <c r="B4" s="8"/>
+      <c r="C4" s="1">
+        <v>2.9302000000000002E-2</v>
+      </c>
+      <c r="D4" s="8"/>
+      <c r="E4" s="1">
+        <v>1.8761060000000001</v>
+      </c>
+      <c r="F4" s="8"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>3.32E-3</v>
+      </c>
+      <c r="B5" s="8"/>
+      <c r="C5" s="1">
+        <v>2.3130000000000001E-2</v>
+      </c>
+      <c r="D5" s="8"/>
+      <c r="E5" s="1">
+        <v>2.4563670000000002</v>
+      </c>
+      <c r="F5" s="8"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>1.47E-3</v>
+      </c>
+      <c r="B6" s="8"/>
+      <c r="C6" s="1">
+        <v>1.6910000000000001E-2</v>
+      </c>
+      <c r="D6" s="8"/>
+      <c r="E6" s="1">
+        <v>2.0546519999999999</v>
+      </c>
+      <c r="F6" s="8"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>2.3470000000000001E-3</v>
+      </c>
+      <c r="B7" s="8"/>
+      <c r="C7" s="1">
+        <v>2.1491E-2</v>
+      </c>
+      <c r="D7" s="8"/>
+      <c r="E7" s="1">
+        <v>2.375451</v>
+      </c>
+      <c r="F7" s="8"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="25"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="26"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="3">
+        <v>10</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="3">
+        <v>100</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G10" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="3">
+        <v>6.4700000000000001E-4</v>
+      </c>
+      <c r="B11" s="19">
+        <f>AVERAGE(A11:A15)</f>
+        <v>5.9120000000000006E-4</v>
+      </c>
+      <c r="C11" s="20">
+        <f>B3/B11</f>
+        <v>3.3464140730717187</v>
+      </c>
+      <c r="D11" s="3">
+        <v>3.3813999999999997E-2</v>
+      </c>
+      <c r="E11" s="19">
+        <f>AVERAGE(D11:D15)</f>
+        <v>2.8969399999999999E-2</v>
+      </c>
+      <c r="F11" s="12">
+        <f>D3/E11</f>
+        <v>0.77859396466616504</v>
+      </c>
+      <c r="G11" s="3">
+        <v>1.9461379999999999</v>
+      </c>
+      <c r="H11" s="19">
+        <f>AVERAGE(G11:G15)</f>
+        <v>2.1034044000000001</v>
+      </c>
+      <c r="I11" s="12">
+        <f>F3/H11</f>
+        <v>1.0639233235415879</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="3">
+        <v>5.7899999999999998E-4</v>
+      </c>
+      <c r="B12" s="19"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="3">
+        <v>2.0060999999999999E-2</v>
+      </c>
+      <c r="E12" s="19"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="3">
+        <v>2.0668820000000001</v>
+      </c>
+      <c r="H12" s="19"/>
+      <c r="I12" s="13"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="3">
+        <v>5.1500000000000005E-4</v>
+      </c>
+      <c r="B13" s="19"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="3">
+        <v>2.4271999999999998E-2</v>
+      </c>
+      <c r="E13" s="19"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="3">
+        <v>2.3161109999999998</v>
+      </c>
+      <c r="H13" s="19"/>
+      <c r="I13" s="13"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="3">
+        <v>5.8100000000000003E-4</v>
+      </c>
+      <c r="B14" s="19"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="3">
+        <v>4.6851999999999998E-2</v>
+      </c>
+      <c r="E14" s="19"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="3">
+        <v>1.861777</v>
+      </c>
+      <c r="H14" s="19"/>
+      <c r="I14" s="13"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="3">
+        <v>6.3400000000000001E-4</v>
+      </c>
+      <c r="B15" s="19"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="3">
+        <v>1.9848000000000001E-2</v>
+      </c>
+      <c r="E15" s="19"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="3">
+        <v>2.326114</v>
+      </c>
+      <c r="H15" s="19"/>
+      <c r="I15" s="14"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" s="25"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="26"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="3">
+        <v>10</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="3">
+        <v>100</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G18" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="3">
+        <v>9.6699999999999998E-4</v>
+      </c>
+      <c r="B19" s="19">
+        <f>AVERAGE(A19:A23)</f>
+        <v>1.1560000000000001E-3</v>
+      </c>
+      <c r="C19" s="20">
+        <f>B3/B19</f>
+        <v>1.7114186851211075</v>
+      </c>
+      <c r="D19" s="3">
+        <v>2.6647000000000001E-2</v>
+      </c>
+      <c r="E19" s="19">
+        <f>AVERAGE(D19:D23)</f>
+        <v>2.07402E-2</v>
+      </c>
+      <c r="F19" s="12">
+        <f>D3/E19</f>
+        <v>1.0875208532222447</v>
+      </c>
+      <c r="G19" s="3">
+        <v>1.5159940000000001</v>
+      </c>
+      <c r="H19" s="19">
+        <f>AVERAGE(G19:G23)</f>
+        <v>1.572173</v>
+      </c>
+      <c r="I19" s="12">
+        <f>F3/H19</f>
+        <v>1.423419051211285</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="3">
+        <v>9.2000000000000003E-4</v>
+      </c>
+      <c r="B20" s="19"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="3">
+        <v>2.4121E-2</v>
+      </c>
+      <c r="E20" s="19"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="3">
+        <v>1.2644839999999999</v>
+      </c>
+      <c r="H20" s="19"/>
+      <c r="I20" s="13"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" s="3">
+        <v>1.3090000000000001E-3</v>
+      </c>
+      <c r="B21" s="19"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="3">
+        <v>2.0069E-2</v>
+      </c>
+      <c r="E21" s="19"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="3">
+        <v>1.659119</v>
+      </c>
+      <c r="H21" s="19"/>
+      <c r="I21" s="13"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="3">
+        <v>1.263E-3</v>
+      </c>
+      <c r="B22" s="19"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="3">
+        <v>1.7649999999999999E-2</v>
+      </c>
+      <c r="E22" s="19"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="3">
+        <v>2.3957220000000001</v>
+      </c>
+      <c r="H22" s="19"/>
+      <c r="I22" s="13"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" s="3">
+        <v>1.3209999999999999E-3</v>
+      </c>
+      <c r="B23" s="19"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="3">
+        <v>1.5214E-2</v>
+      </c>
+      <c r="E23" s="19"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="3">
+        <v>1.0255460000000001</v>
+      </c>
+      <c r="H23" s="19"/>
+      <c r="I23" s="14"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25" s="25"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="25"/>
+      <c r="I25" s="26"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" s="3">
+        <v>10</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" s="3">
+        <v>100</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G26" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I26" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" s="3">
+        <v>1.4790000000000001E-3</v>
+      </c>
+      <c r="B27" s="19">
+        <f>AVERAGE(A27:A31)</f>
+        <v>1.6408000000000002E-3</v>
+      </c>
+      <c r="C27" s="20">
+        <f>B3/B27</f>
+        <v>1.2057532910775233</v>
+      </c>
+      <c r="D27" s="3">
+        <v>2.1350000000000001E-2</v>
+      </c>
+      <c r="E27" s="19">
+        <f>AVERAGE(D27:D31)</f>
+        <v>2.23614E-2</v>
+      </c>
+      <c r="F27" s="12">
+        <f>D3/E27</f>
+        <v>1.0086756643143988</v>
+      </c>
+      <c r="G27" s="3">
+        <v>0.92999399999999999</v>
+      </c>
+      <c r="H27" s="19">
+        <f>AVERAGE(G27:G31)</f>
+        <v>1.2499398000000002</v>
+      </c>
+      <c r="I27" s="12">
+        <f>F3/H27</f>
+        <v>1.7903750244611776</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28" s="3">
+        <v>1.7650000000000001E-3</v>
+      </c>
+      <c r="B28" s="19"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="3">
+        <v>1.8789E-2</v>
+      </c>
+      <c r="E28" s="19"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="3">
+        <v>1.313869</v>
+      </c>
+      <c r="H28" s="19"/>
+      <c r="I28" s="13"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29" s="3">
+        <v>1.681E-3</v>
+      </c>
+      <c r="B29" s="19"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="3">
+        <v>2.3209E-2</v>
+      </c>
+      <c r="E29" s="19"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="3">
+        <v>1.435206</v>
+      </c>
+      <c r="H29" s="19"/>
+      <c r="I29" s="13"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30" s="3">
+        <v>1.498E-3</v>
+      </c>
+      <c r="B30" s="19"/>
+      <c r="C30" s="20"/>
+      <c r="D30" s="3">
+        <v>2.1609E-2</v>
+      </c>
+      <c r="E30" s="19"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="3">
+        <v>1.5782529999999999</v>
+      </c>
+      <c r="H30" s="19"/>
+      <c r="I30" s="13"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A31" s="3">
+        <v>1.781E-3</v>
+      </c>
+      <c r="B31" s="19"/>
+      <c r="C31" s="20"/>
+      <c r="D31" s="3">
+        <v>2.6849999999999999E-2</v>
+      </c>
+      <c r="E31" s="19"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="3">
+        <v>0.99237699999999995</v>
+      </c>
+      <c r="H31" s="19"/>
+      <c r="I31" s="14"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A33" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="B33" s="25"/>
+      <c r="C33" s="25"/>
+      <c r="D33" s="25"/>
+      <c r="E33" s="25"/>
+      <c r="F33" s="25"/>
+      <c r="G33" s="25"/>
+      <c r="H33" s="25"/>
+      <c r="I33" s="26"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A34" s="3">
+        <v>10</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D34" s="3">
+        <v>100</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G34" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I34" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A35" s="3">
+        <v>2.248E-3</v>
+      </c>
+      <c r="B35" s="19">
+        <f>AVERAGE(A35:A39)</f>
+        <v>2.3254E-3</v>
+      </c>
+      <c r="C35" s="20">
+        <f>B3/B35</f>
+        <v>0.85077836071213575</v>
+      </c>
+      <c r="D35" s="3">
+        <v>1.7295999999999999E-2</v>
+      </c>
+      <c r="E35" s="19">
+        <f>AVERAGE(D35:D39)</f>
+        <v>1.9747799999999999E-2</v>
+      </c>
+      <c r="F35" s="12">
+        <f>D3/E35</f>
+        <v>1.1421727989953312</v>
+      </c>
+      <c r="G35" s="3">
+        <v>0.87707999999999997</v>
+      </c>
+      <c r="H35" s="19">
+        <f>AVERAGE(G35:G39)</f>
+        <v>1.1370174</v>
+      </c>
+      <c r="I35" s="12">
+        <f>F3/H35</f>
+        <v>1.9681853593445446</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A36" s="3">
+        <v>2.3479999999999998E-3</v>
+      </c>
+      <c r="B36" s="19"/>
+      <c r="C36" s="20"/>
+      <c r="D36" s="3">
+        <v>2.3296999999999998E-2</v>
+      </c>
+      <c r="E36" s="19"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="3">
+        <v>1.178417</v>
+      </c>
+      <c r="H36" s="19"/>
+      <c r="I36" s="13"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A37" s="3">
+        <v>2.4620000000000002E-3</v>
+      </c>
+      <c r="B37" s="19"/>
+      <c r="C37" s="20"/>
+      <c r="D37" s="3">
+        <v>1.9085999999999999E-2</v>
+      </c>
+      <c r="E37" s="19"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="3">
+        <v>1.25576</v>
+      </c>
+      <c r="H37" s="19"/>
+      <c r="I37" s="13"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A38" s="3">
+        <v>2.258E-3</v>
+      </c>
+      <c r="B38" s="19"/>
+      <c r="C38" s="20"/>
+      <c r="D38" s="3">
+        <v>2.0473999999999999E-2</v>
+      </c>
+      <c r="E38" s="19"/>
+      <c r="F38" s="13"/>
+      <c r="G38" s="3">
+        <v>1.182725</v>
+      </c>
+      <c r="H38" s="19"/>
+      <c r="I38" s="13"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A39" s="3">
+        <v>2.3110000000000001E-3</v>
+      </c>
+      <c r="B39" s="19"/>
+      <c r="C39" s="20"/>
+      <c r="D39" s="3">
+        <v>1.8585999999999998E-2</v>
+      </c>
+      <c r="E39" s="19"/>
+      <c r="F39" s="14"/>
+      <c r="G39" s="3">
+        <v>1.1911050000000001</v>
+      </c>
+      <c r="H39" s="19"/>
+      <c r="I39" s="14"/>
+    </row>
+  </sheetData>
+  <mergeCells count="32">
+    <mergeCell ref="A33:I33"/>
+    <mergeCell ref="B35:B39"/>
+    <mergeCell ref="C35:C39"/>
+    <mergeCell ref="E35:E39"/>
+    <mergeCell ref="F35:F39"/>
+    <mergeCell ref="H35:H39"/>
+    <mergeCell ref="I35:I39"/>
+    <mergeCell ref="A25:I25"/>
+    <mergeCell ref="B27:B31"/>
+    <mergeCell ref="C27:C31"/>
+    <mergeCell ref="E27:E31"/>
+    <mergeCell ref="F27:F31"/>
+    <mergeCell ref="H27:H31"/>
+    <mergeCell ref="I27:I31"/>
+    <mergeCell ref="I11:I15"/>
+    <mergeCell ref="A17:I17"/>
+    <mergeCell ref="B19:B23"/>
+    <mergeCell ref="C19:C23"/>
+    <mergeCell ref="E19:E23"/>
+    <mergeCell ref="F19:F23"/>
+    <mergeCell ref="H19:H23"/>
+    <mergeCell ref="I19:I23"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="B3:B7"/>
+    <mergeCell ref="D3:D7"/>
+    <mergeCell ref="F3:F7"/>
+    <mergeCell ref="A9:I9"/>
+    <mergeCell ref="B11:B15"/>
+    <mergeCell ref="C11:C15"/>
+    <mergeCell ref="E11:E15"/>
+    <mergeCell ref="F11:F15"/>
+    <mergeCell ref="H11:H15"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D802E11-FFBF-4034-8D69-C48F8BCDD2DC}">
+  <dimension ref="A1:L39"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="22.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="23.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.77734375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="25.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>7.7799999999999996E-3</v>
+      </c>
+      <c r="B3" s="8">
+        <f>AVERAGE(A3:A7)</f>
+        <v>6.4991999999999992E-3</v>
+      </c>
+      <c r="C3" s="1">
+        <v>3.4301999999999999E-2</v>
+      </c>
+      <c r="D3" s="8">
+        <f>AVERAGE(C3:C7)</f>
+        <v>4.93788E-2</v>
+      </c>
+      <c r="E3" s="1">
+        <v>2.4107050000000001</v>
+      </c>
+      <c r="F3" s="8">
+        <f>AVERAGE(E3:E7)</f>
+        <v>2.3921540000000001</v>
+      </c>
+      <c r="G3" s="1">
+        <v>23.769746000000001</v>
+      </c>
+      <c r="H3" s="8">
+        <f>AVERAGE(G3:G7)</f>
+        <v>23.8937372</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>5.986E-3</v>
+      </c>
+      <c r="B4" s="8"/>
+      <c r="C4" s="1">
+        <v>3.2233999999999999E-2</v>
+      </c>
+      <c r="D4" s="8"/>
+      <c r="E4" s="1">
+        <v>2.3849840000000002</v>
+      </c>
+      <c r="F4" s="8"/>
+      <c r="G4" s="1">
+        <v>23.880281</v>
+      </c>
+      <c r="H4" s="8"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>6.3420000000000004E-3</v>
+      </c>
+      <c r="B5" s="8"/>
+      <c r="C5" s="1">
+        <v>3.2267999999999998E-2</v>
+      </c>
+      <c r="D5" s="8"/>
+      <c r="E5" s="1">
+        <v>2.418174</v>
+      </c>
+      <c r="F5" s="8"/>
+      <c r="G5" s="1">
+        <v>23.901166</v>
+      </c>
+      <c r="H5" s="8"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>6.0850000000000001E-3</v>
+      </c>
+      <c r="B6" s="8"/>
+      <c r="C6" s="1">
+        <v>6.1054999999999998E-2</v>
+      </c>
+      <c r="D6" s="8"/>
+      <c r="E6" s="1">
+        <v>2.374854</v>
+      </c>
+      <c r="F6" s="8"/>
+      <c r="G6" s="1">
+        <v>23.998033</v>
+      </c>
+      <c r="H6" s="8"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>6.3029999999999996E-3</v>
+      </c>
+      <c r="B7" s="8"/>
+      <c r="C7" s="1">
+        <v>8.7035000000000001E-2</v>
+      </c>
+      <c r="D7" s="8"/>
+      <c r="E7" s="1">
+        <v>2.3720530000000002</v>
+      </c>
+      <c r="F7" s="8"/>
+      <c r="G7" s="1">
+        <v>23.919460000000001</v>
+      </c>
+      <c r="H7" s="8"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11" s="3">
+        <v>4.3769999999999998E-3</v>
+      </c>
+      <c r="B11" s="9">
+        <f>AVERAGE(A11:A15)</f>
+        <v>4.4596000000000002E-3</v>
+      </c>
+      <c r="C11" s="12">
+        <f>B3/B11</f>
+        <v>1.4573504350165931</v>
+      </c>
+      <c r="D11" s="3">
+        <v>6.8006999999999998E-2</v>
+      </c>
+      <c r="E11" s="9">
+        <f>AVERAGE(D11:D15)</f>
+        <v>6.4985799999999996E-2</v>
+      </c>
+      <c r="F11" s="12">
+        <f>D3/E11</f>
+        <v>0.75983984193469967</v>
+      </c>
+      <c r="G11" s="3">
+        <v>6.6232480000000002</v>
+      </c>
+      <c r="H11" s="9">
+        <f>AVERAGE(G11:G15)</f>
+        <v>6.686429200000001</v>
+      </c>
+      <c r="I11" s="12">
+        <f>F3/H11</f>
+        <v>0.3577625558347346</v>
+      </c>
+      <c r="J11" s="3">
+        <v>89.042483000000004</v>
+      </c>
+      <c r="K11" s="9">
+        <f>AVERAGE(J11:J15)</f>
+        <v>74.137772400000017</v>
+      </c>
+      <c r="L11" s="12">
+        <f>H3/K11</f>
+        <v>0.32228830765354899</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12" s="3">
+        <v>4.4380000000000001E-3</v>
+      </c>
+      <c r="B12" s="10"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="3">
+        <v>4.1998000000000001E-2</v>
+      </c>
+      <c r="E12" s="10"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="3">
+        <v>6.5891760000000001</v>
+      </c>
+      <c r="H12" s="10"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="3">
+        <v>71.662083999999993</v>
+      </c>
+      <c r="K12" s="10"/>
+      <c r="L12" s="13"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13" s="3">
+        <v>4.5110000000000003E-3</v>
+      </c>
+      <c r="B13" s="10"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="3">
+        <v>4.3872000000000001E-2</v>
+      </c>
+      <c r="E13" s="10"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="3">
+        <v>6.7215730000000002</v>
+      </c>
+      <c r="H13" s="10"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="3">
+        <v>69.002851000000007</v>
+      </c>
+      <c r="K13" s="10"/>
+      <c r="L13" s="13"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A14" s="3">
+        <v>4.5250000000000004E-3</v>
+      </c>
+      <c r="B14" s="10"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="3">
+        <v>5.8254E-2</v>
+      </c>
+      <c r="E14" s="10"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="3">
+        <v>6.7527499999999998</v>
+      </c>
+      <c r="H14" s="10"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="3">
+        <v>68.275855000000007</v>
+      </c>
+      <c r="K14" s="10"/>
+      <c r="L14" s="13"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15" s="3">
+        <v>4.4470000000000004E-3</v>
+      </c>
+      <c r="B15" s="11"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="3">
+        <v>0.112798</v>
+      </c>
+      <c r="E15" s="11"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="3">
+        <v>6.7453989999999999</v>
+      </c>
+      <c r="H15" s="11"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="3">
+        <v>72.705589000000003</v>
+      </c>
+      <c r="K15" s="11"/>
+      <c r="L15" s="14"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A17" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="L18" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A19" s="3">
+        <v>4.8999999999999998E-3</v>
+      </c>
+      <c r="B19" s="9">
+        <f>AVERAGE(A19:A23)</f>
+        <v>4.6842000000000003E-3</v>
+      </c>
+      <c r="C19" s="12">
+        <f>B3/B19</f>
+        <v>1.3874727808377094</v>
+      </c>
+      <c r="D19" s="3">
+        <v>5.6577000000000002E-2</v>
+      </c>
+      <c r="E19" s="9">
+        <f>AVERAGE(D19:D23)</f>
+        <v>4.8751799999999998E-2</v>
+      </c>
+      <c r="F19" s="12">
+        <f>D3/E19</f>
+        <v>1.0128610635914983</v>
+      </c>
+      <c r="G19" s="3">
+        <v>3.4884689999999998</v>
+      </c>
+      <c r="H19" s="9">
+        <f>AVERAGE(G19:G23)</f>
+        <v>3.6097006</v>
+      </c>
+      <c r="I19" s="12">
+        <f>F3/H19</f>
+        <v>0.6627014993985928</v>
+      </c>
+      <c r="J19" s="3">
+        <v>40.36327</v>
+      </c>
+      <c r="K19" s="9">
+        <f>AVERAGE(J19:J23)</f>
+        <v>41.001088199999991</v>
+      </c>
+      <c r="L19" s="12">
+        <f>H3/K19</f>
+        <v>0.58275861078243296</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A20" s="3">
+        <v>4.7720000000000002E-3</v>
+      </c>
+      <c r="B20" s="10"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="3">
+        <v>6.0916999999999999E-2</v>
+      </c>
+      <c r="E20" s="10"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="3">
+        <v>3.561401</v>
+      </c>
+      <c r="H20" s="10"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="3">
+        <v>47.20411</v>
+      </c>
+      <c r="K20" s="10"/>
+      <c r="L20" s="13"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A21" s="3">
+        <v>4.9020000000000001E-3</v>
+      </c>
+      <c r="B21" s="10"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="3">
+        <v>4.2832000000000002E-2</v>
+      </c>
+      <c r="E21" s="10"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="3">
+        <v>3.6326170000000002</v>
+      </c>
+      <c r="H21" s="10"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="3">
+        <v>41.847327999999997</v>
+      </c>
+      <c r="K21" s="10"/>
+      <c r="L21" s="13"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A22" s="3">
+        <v>4.4450000000000002E-3</v>
+      </c>
+      <c r="B22" s="10"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="3">
+        <v>4.1216999999999997E-2</v>
+      </c>
+      <c r="E22" s="10"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="3">
+        <v>3.6529639999999999</v>
+      </c>
+      <c r="H22" s="10"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="3">
+        <v>37.903092999999998</v>
+      </c>
+      <c r="K22" s="10"/>
+      <c r="L22" s="13"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A23" s="3">
+        <v>4.4019999999999997E-3</v>
+      </c>
+      <c r="B23" s="11"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="3">
+        <v>4.2215999999999997E-2</v>
+      </c>
+      <c r="E23" s="11"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="3">
+        <v>3.7130519999999998</v>
+      </c>
+      <c r="H23" s="11"/>
+      <c r="I23" s="14"/>
+      <c r="J23" s="3">
+        <v>37.687640000000002</v>
+      </c>
+      <c r="K23" s="11"/>
+      <c r="L23" s="14"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A25" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I26" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="L26" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A27" s="3">
+        <v>4.3699999999999998E-3</v>
+      </c>
+      <c r="B27" s="9">
+        <f>AVERAGE(A27:A31)</f>
+        <v>4.3296000000000003E-3</v>
+      </c>
+      <c r="C27" s="12">
+        <f>B3/B27</f>
+        <v>1.5011086474501105</v>
+      </c>
+      <c r="D27" s="3">
+        <v>6.8677000000000002E-2</v>
+      </c>
+      <c r="E27" s="9">
+        <f>AVERAGE(D27:D31)</f>
+        <v>5.2304200000000002E-2</v>
+      </c>
+      <c r="F27" s="12">
+        <f>D3/E27</f>
+        <v>0.94406950111080945</v>
+      </c>
+      <c r="G27" s="3">
+        <v>1.9634100000000001</v>
+      </c>
+      <c r="H27" s="9">
+        <f>AVERAGE(G27:G31)</f>
+        <v>2.189451</v>
+      </c>
+      <c r="I27" s="12">
+        <f>F3/H27</f>
+        <v>1.0925816563147566</v>
+      </c>
+      <c r="J27" s="3">
+        <v>22.983543000000001</v>
+      </c>
+      <c r="K27" s="9">
+        <f>AVERAGE(J27:J31)</f>
+        <v>24.474444599999998</v>
+      </c>
+      <c r="L27" s="12">
+        <f>H3/K27</f>
+        <v>0.97627290794578447</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A28" s="3">
+        <v>4.2700000000000004E-3</v>
+      </c>
+      <c r="B28" s="10"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="3">
+        <v>4.2324000000000001E-2</v>
+      </c>
+      <c r="E28" s="10"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="3">
+        <v>2.1728649999999998</v>
+      </c>
+      <c r="H28" s="10"/>
+      <c r="I28" s="13"/>
+      <c r="J28" s="3">
+        <v>23.784718999999999</v>
+      </c>
+      <c r="K28" s="10"/>
+      <c r="L28" s="13"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A29" s="3">
+        <v>4.4650000000000002E-3</v>
+      </c>
+      <c r="B29" s="10"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="3">
+        <v>4.3873000000000002E-2</v>
+      </c>
+      <c r="E29" s="10"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="3">
+        <v>2.1944849999999998</v>
+      </c>
+      <c r="H29" s="10"/>
+      <c r="I29" s="13"/>
+      <c r="J29" s="3">
+        <v>25.523700000000002</v>
+      </c>
+      <c r="K29" s="10"/>
+      <c r="L29" s="13"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A30" s="3">
+        <v>4.3579999999999999E-3</v>
+      </c>
+      <c r="B30" s="10"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="3">
+        <v>4.1213E-2</v>
+      </c>
+      <c r="E30" s="10"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="3">
+        <v>2.3042750000000001</v>
+      </c>
+      <c r="H30" s="10"/>
+      <c r="I30" s="13"/>
+      <c r="J30" s="3">
+        <v>27.042113000000001</v>
+      </c>
+      <c r="K30" s="10"/>
+      <c r="L30" s="13"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A31" s="3">
+        <v>4.1850000000000004E-3</v>
+      </c>
+      <c r="B31" s="11"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="3">
+        <v>6.5434000000000006E-2</v>
+      </c>
+      <c r="E31" s="11"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="3">
+        <v>2.3122199999999999</v>
+      </c>
+      <c r="H31" s="11"/>
+      <c r="I31" s="14"/>
+      <c r="J31" s="3">
+        <v>23.038148</v>
+      </c>
+      <c r="K31" s="11"/>
+      <c r="L31" s="14"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A33" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="5"/>
+      <c r="K33" s="5"/>
+      <c r="L33" s="5"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A34" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I34" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J34" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K34" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="L34" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A35" s="3">
+        <v>4.5999999999999999E-3</v>
+      </c>
+      <c r="B35" s="9">
+        <f>AVERAGE(A35:A39)</f>
+        <v>5.8130000000000005E-3</v>
+      </c>
+      <c r="C35" s="12">
+        <f>B3/B35</f>
+        <v>1.1180457595045585</v>
+      </c>
+      <c r="D35" s="3">
+        <v>4.335E-2</v>
+      </c>
+      <c r="E35" s="9">
+        <f>AVERAGE(D35:D39)</f>
+        <v>4.2192600000000004E-2</v>
+      </c>
+      <c r="F35" s="12">
+        <f>D3/E35</f>
+        <v>1.1703189658850128</v>
+      </c>
+      <c r="G35" s="3">
+        <v>1.668833</v>
+      </c>
+      <c r="H35" s="9">
+        <f>AVERAGE(G35:G39)</f>
+        <v>1.9743895999999999</v>
+      </c>
+      <c r="I35" s="12">
+        <f>F3/H35</f>
+        <v>1.2115916737000643</v>
+      </c>
+      <c r="J35" s="3">
+        <v>21.320739</v>
+      </c>
+      <c r="K35" s="9">
+        <f>AVERAGE(J35:J39)</f>
+        <v>21.781726599999999</v>
+      </c>
+      <c r="L35" s="12">
+        <f>H3/K35</f>
+        <v>1.0969624969950731</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A36" s="3">
+        <v>4.5840000000000004E-3</v>
+      </c>
+      <c r="B36" s="10"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="3">
+        <v>4.1674000000000003E-2</v>
+      </c>
+      <c r="E36" s="10"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="3">
+        <v>2.009665</v>
+      </c>
+      <c r="H36" s="10"/>
+      <c r="I36" s="13"/>
+      <c r="J36" s="3">
+        <v>21.419577</v>
+      </c>
+      <c r="K36" s="10"/>
+      <c r="L36" s="13"/>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A37" s="3">
+        <v>7.3130000000000001E-3</v>
+      </c>
+      <c r="B37" s="10"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="3">
+        <v>4.2286999999999998E-2</v>
+      </c>
+      <c r="E37" s="10"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="3">
+        <v>2.188358</v>
+      </c>
+      <c r="H37" s="10"/>
+      <c r="I37" s="13"/>
+      <c r="J37" s="3">
+        <v>21.917483000000001</v>
+      </c>
+      <c r="K37" s="10"/>
+      <c r="L37" s="13"/>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A38" s="3">
+        <v>4.6990000000000001E-3</v>
+      </c>
+      <c r="B38" s="10"/>
+      <c r="C38" s="13"/>
+      <c r="D38" s="3">
+        <v>4.1896999999999997E-2</v>
+      </c>
+      <c r="E38" s="10"/>
+      <c r="F38" s="13"/>
+      <c r="G38" s="3">
+        <v>2.0170970000000001</v>
+      </c>
+      <c r="H38" s="10"/>
+      <c r="I38" s="13"/>
+      <c r="J38" s="3">
+        <v>22.68177</v>
+      </c>
+      <c r="K38" s="10"/>
+      <c r="L38" s="13"/>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A39" s="3">
+        <v>7.8689999999999993E-3</v>
+      </c>
+      <c r="B39" s="11"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="3">
+        <v>4.1755E-2</v>
+      </c>
+      <c r="E39" s="11"/>
+      <c r="F39" s="14"/>
+      <c r="G39" s="3">
+        <v>1.987995</v>
+      </c>
+      <c r="H39" s="11"/>
+      <c r="I39" s="14"/>
+      <c r="J39" s="3">
+        <v>21.569064000000001</v>
+      </c>
+      <c r="K39" s="11"/>
+      <c r="L39" s="14"/>
+    </row>
+  </sheetData>
+  <mergeCells count="41">
+    <mergeCell ref="A33:L33"/>
+    <mergeCell ref="B35:B39"/>
+    <mergeCell ref="C35:C39"/>
+    <mergeCell ref="E35:E39"/>
+    <mergeCell ref="F35:F39"/>
+    <mergeCell ref="H35:H39"/>
+    <mergeCell ref="I35:I39"/>
+    <mergeCell ref="K35:K39"/>
+    <mergeCell ref="L35:L39"/>
     <mergeCell ref="L19:L23"/>
     <mergeCell ref="A25:L25"/>
     <mergeCell ref="B27:B31"/>
@@ -1536,15 +3260,28 @@
     <mergeCell ref="I27:I31"/>
     <mergeCell ref="K27:K31"/>
     <mergeCell ref="L27:L31"/>
-    <mergeCell ref="A33:L33"/>
-    <mergeCell ref="B35:B39"/>
-    <mergeCell ref="C35:C39"/>
-    <mergeCell ref="E35:E39"/>
-    <mergeCell ref="F35:F39"/>
-    <mergeCell ref="H35:H39"/>
-    <mergeCell ref="I35:I39"/>
-    <mergeCell ref="K35:K39"/>
-    <mergeCell ref="L35:L39"/>
+    <mergeCell ref="K11:K15"/>
+    <mergeCell ref="L11:L15"/>
+    <mergeCell ref="A17:L17"/>
+    <mergeCell ref="B19:B23"/>
+    <mergeCell ref="C19:C23"/>
+    <mergeCell ref="E19:E23"/>
+    <mergeCell ref="F19:F23"/>
+    <mergeCell ref="H19:H23"/>
+    <mergeCell ref="I19:I23"/>
+    <mergeCell ref="K19:K23"/>
+    <mergeCell ref="B11:B15"/>
+    <mergeCell ref="C11:C15"/>
+    <mergeCell ref="E11:E15"/>
+    <mergeCell ref="F11:F15"/>
+    <mergeCell ref="H11:H15"/>
+    <mergeCell ref="I11:I15"/>
+    <mergeCell ref="A9:L9"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="B3:B7"/>
+    <mergeCell ref="D3:D7"/>
+    <mergeCell ref="F3:F7"/>
+    <mergeCell ref="H3:H7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/MPI/racunanje_ubrzanja_programa_mpi.xlsx
+++ b/MPI/racunanje_ubrzanja_programa_mpi.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saren\OneDrive\Documents\ETF\7. semestar\Multiprocesorski sistemi\GitHub_Domaci\Multiprocessing_Systems\MPI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{319DB37D-ACE5-4426-8F02-275A9E723197}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A936037-96F7-470A-9C91-F459E693E038}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{E700D36A-9AEC-48B1-B431-3A7C21838328}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{E700D36A-9AEC-48B1-B431-3A7C21838328}"/>
   </bookViews>
   <sheets>
     <sheet name="Zadatak 1" sheetId="3" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="11">
   <si>
     <t>sequential</t>
   </si>
@@ -265,22 +265,10 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -295,6 +283,9 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -304,11 +295,14 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -319,13 +313,19 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -645,22 +645,22 @@
   <dimension ref="A1:L39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J39" sqref="J39"/>
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
@@ -692,28 +692,28 @@
       <c r="A3" s="1">
         <v>2.859E-3</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3" s="12">
         <f>AVERAGE(A3:A7)</f>
         <v>2.8677999999999998E-3</v>
       </c>
       <c r="C3" s="1">
         <v>9.2750000000000003E-3</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="12">
         <f>AVERAGE(C3:C7)</f>
         <v>9.2186000000000021E-3</v>
       </c>
       <c r="E3" s="1">
         <v>0.176201</v>
       </c>
-      <c r="F3" s="8">
+      <c r="F3" s="12">
         <f>AVERAGE(E3:E7)</f>
         <v>0.17561979999999999</v>
       </c>
       <c r="G3" s="1">
         <v>4.1992710000000004</v>
       </c>
-      <c r="H3" s="16">
+      <c r="H3" s="13">
         <f>AVERAGE(G3:G7)</f>
         <v>4.1829993999999999</v>
       </c>
@@ -722,73 +722,73 @@
       <c r="A4" s="1">
         <v>2.872E-3</v>
       </c>
-      <c r="B4" s="8"/>
+      <c r="B4" s="12"/>
       <c r="C4" s="1">
         <v>1.0198E-2</v>
       </c>
-      <c r="D4" s="8"/>
+      <c r="D4" s="12"/>
       <c r="E4" s="1">
         <v>0.176263</v>
       </c>
-      <c r="F4" s="8"/>
+      <c r="F4" s="12"/>
       <c r="G4" s="1">
         <v>4.2012299999999998</v>
       </c>
-      <c r="H4" s="17"/>
+      <c r="H4" s="14"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>2.8570000000000002E-3</v>
       </c>
-      <c r="B5" s="8"/>
+      <c r="B5" s="12"/>
       <c r="C5" s="1">
         <v>9.7560000000000008E-3</v>
       </c>
-      <c r="D5" s="8"/>
+      <c r="D5" s="12"/>
       <c r="E5" s="1">
         <v>0.17635200000000001</v>
       </c>
-      <c r="F5" s="8"/>
+      <c r="F5" s="12"/>
       <c r="G5" s="1">
         <v>4.1154200000000003</v>
       </c>
-      <c r="H5" s="17"/>
+      <c r="H5" s="14"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>2.9009999999999999E-3</v>
       </c>
-      <c r="B6" s="8"/>
+      <c r="B6" s="12"/>
       <c r="C6" s="1">
         <v>8.5199999999999998E-3</v>
       </c>
-      <c r="D6" s="8"/>
+      <c r="D6" s="12"/>
       <c r="E6" s="1">
         <v>0.17640700000000001</v>
       </c>
-      <c r="F6" s="8"/>
+      <c r="F6" s="12"/>
       <c r="G6" s="1">
         <v>4.1990109999999996</v>
       </c>
-      <c r="H6" s="17"/>
+      <c r="H6" s="14"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>2.8500000000000001E-3</v>
       </c>
-      <c r="B7" s="8"/>
+      <c r="B7" s="12"/>
       <c r="C7" s="1">
         <v>8.3440000000000007E-3</v>
       </c>
-      <c r="D7" s="8"/>
+      <c r="D7" s="12"/>
       <c r="E7" s="1">
         <v>0.172876</v>
       </c>
-      <c r="F7" s="8"/>
+      <c r="F7" s="12"/>
       <c r="G7" s="1">
         <v>4.2000650000000004</v>
       </c>
-      <c r="H7" s="18"/>
+      <c r="H7" s="15"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
@@ -848,44 +848,44 @@
       <c r="A11" s="3">
         <v>6.9800000000000005E-4</v>
       </c>
-      <c r="B11" s="19">
+      <c r="B11" s="6">
         <f>AVERAGE(A11:A15)</f>
         <v>6.8980000000000007E-4</v>
       </c>
-      <c r="C11" s="20">
+      <c r="C11" s="7">
         <f>B3/B11</f>
         <v>4.1574369382429683</v>
       </c>
       <c r="D11" s="3">
         <v>1.0813E-2</v>
       </c>
-      <c r="E11" s="19">
+      <c r="E11" s="6">
         <f>AVERAGE(D11:D15)</f>
         <v>1.1069199999999998E-2</v>
       </c>
-      <c r="F11" s="12">
+      <c r="F11" s="8">
         <f>D3/E11</f>
         <v>0.83281537961189644</v>
       </c>
       <c r="G11" s="3">
         <v>0.206654</v>
       </c>
-      <c r="H11" s="19">
+      <c r="H11" s="6">
         <f>AVERAGE(G11:G15)</f>
         <v>0.21116679999999999</v>
       </c>
-      <c r="I11" s="12">
+      <c r="I11" s="8">
         <f>F3/H11</f>
         <v>0.83166387898097616</v>
       </c>
       <c r="J11" s="3">
         <v>4.5652889999999999</v>
       </c>
-      <c r="K11" s="19">
+      <c r="K11" s="6">
         <f>AVERAGE(J11:J15)</f>
         <v>4.6684320000000001</v>
       </c>
-      <c r="L11" s="12">
+      <c r="L11" s="8">
         <f>H3/K11</f>
         <v>0.89601806345256818</v>
       </c>
@@ -894,89 +894,89 @@
       <c r="A12" s="3">
         <v>6.7500000000000004E-4</v>
       </c>
-      <c r="B12" s="19"/>
-      <c r="C12" s="20"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="7"/>
       <c r="D12" s="3">
         <v>1.1304E-2</v>
       </c>
-      <c r="E12" s="19"/>
-      <c r="F12" s="13"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="9"/>
       <c r="G12" s="3">
         <v>0.20962600000000001</v>
       </c>
-      <c r="H12" s="19"/>
-      <c r="I12" s="13"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="9"/>
       <c r="J12" s="3">
         <v>4.6637890000000004</v>
       </c>
-      <c r="K12" s="19"/>
-      <c r="L12" s="13"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="9"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>6.8000000000000005E-4</v>
       </c>
-      <c r="B13" s="19"/>
-      <c r="C13" s="20"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="7"/>
       <c r="D13" s="3">
         <v>1.1237E-2</v>
       </c>
-      <c r="E13" s="19"/>
-      <c r="F13" s="13"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="9"/>
       <c r="G13" s="3">
         <v>0.21007999999999999</v>
       </c>
-      <c r="H13" s="19"/>
-      <c r="I13" s="13"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="9"/>
       <c r="J13" s="3">
         <v>4.674715</v>
       </c>
-      <c r="K13" s="19"/>
-      <c r="L13" s="13"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="9"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>6.9300000000000004E-4</v>
       </c>
-      <c r="B14" s="19"/>
-      <c r="C14" s="20"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="7"/>
       <c r="D14" s="3">
         <v>1.0857E-2</v>
       </c>
-      <c r="E14" s="19"/>
-      <c r="F14" s="13"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="9"/>
       <c r="G14" s="3">
         <v>0.21654999999999999</v>
       </c>
-      <c r="H14" s="19"/>
-      <c r="I14" s="13"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="9"/>
       <c r="J14" s="3">
         <v>4.6830360000000004</v>
       </c>
-      <c r="K14" s="19"/>
-      <c r="L14" s="13"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="9"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>7.0299999999999996E-4</v>
       </c>
-      <c r="B15" s="19"/>
-      <c r="C15" s="20"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="7"/>
       <c r="D15" s="3">
         <v>1.1135000000000001E-2</v>
       </c>
-      <c r="E15" s="19"/>
-      <c r="F15" s="14"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="10"/>
       <c r="G15" s="3">
         <v>0.212924</v>
       </c>
-      <c r="H15" s="19"/>
-      <c r="I15" s="14"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="10"/>
       <c r="J15" s="3">
         <v>4.755331</v>
       </c>
-      <c r="K15" s="19"/>
-      <c r="L15" s="14"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="10"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
@@ -1036,44 +1036,44 @@
       <c r="A19" s="3">
         <v>6.1600000000000001E-4</v>
       </c>
-      <c r="B19" s="19">
+      <c r="B19" s="6">
         <f>AVERAGE(A19:A23)</f>
         <v>5.4779999999999998E-4</v>
       </c>
-      <c r="C19" s="20">
+      <c r="C19" s="7">
         <f>B3/B19</f>
         <v>5.2351223074114639</v>
       </c>
       <c r="D19" s="3">
         <v>6.2249999999999996E-3</v>
       </c>
-      <c r="E19" s="19">
+      <c r="E19" s="6">
         <f>AVERAGE(D19:D23)</f>
         <v>6.4689999999999999E-3</v>
       </c>
-      <c r="F19" s="12">
+      <c r="F19" s="8">
         <f>D3/E19</f>
         <v>1.4250425104343798</v>
       </c>
       <c r="G19" s="3">
         <v>0.14038600000000001</v>
       </c>
-      <c r="H19" s="19">
+      <c r="H19" s="6">
         <f>AVERAGE(G19:G23)</f>
         <v>0.12656260000000003</v>
       </c>
-      <c r="I19" s="12">
+      <c r="I19" s="8">
         <f>F3/H19</f>
         <v>1.3876121381830016</v>
       </c>
       <c r="J19" s="3">
         <v>2.786152</v>
       </c>
-      <c r="K19" s="19">
+      <c r="K19" s="6">
         <f>AVERAGE(J19:J23)</f>
         <v>2.8426081999999999</v>
       </c>
-      <c r="L19" s="12">
+      <c r="L19" s="8">
         <f>H3/K19</f>
         <v>1.4715356833206912</v>
       </c>
@@ -1082,89 +1082,89 @@
       <c r="A20" s="3">
         <v>6.0499999999999996E-4</v>
       </c>
-      <c r="B20" s="19"/>
-      <c r="C20" s="20"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="7"/>
       <c r="D20" s="3">
         <v>6.5729999999999998E-3</v>
       </c>
-      <c r="E20" s="19"/>
-      <c r="F20" s="13"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="9"/>
       <c r="G20" s="3">
         <v>0.121653</v>
       </c>
-      <c r="H20" s="19"/>
-      <c r="I20" s="13"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="9"/>
       <c r="J20" s="3">
         <v>2.7959390000000002</v>
       </c>
-      <c r="K20" s="19"/>
-      <c r="L20" s="13"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="9"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>4.8899999999999996E-4</v>
       </c>
-      <c r="B21" s="19"/>
-      <c r="C21" s="20"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="7"/>
       <c r="D21" s="3">
         <v>6.4190000000000002E-3</v>
       </c>
-      <c r="E21" s="19"/>
-      <c r="F21" s="13"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="9"/>
       <c r="G21" s="3">
         <v>0.12253799999999999</v>
       </c>
-      <c r="H21" s="19"/>
-      <c r="I21" s="13"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="9"/>
       <c r="J21" s="3">
         <v>2.8313739999999998</v>
       </c>
-      <c r="K21" s="19"/>
-      <c r="L21" s="13"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="9"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>5.1599999999999997E-4</v>
       </c>
-      <c r="B22" s="19"/>
-      <c r="C22" s="20"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="7"/>
       <c r="D22" s="3">
         <v>6.3420000000000004E-3</v>
       </c>
-      <c r="E22" s="19"/>
-      <c r="F22" s="13"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="9"/>
       <c r="G22" s="3">
         <v>0.124524</v>
       </c>
-      <c r="H22" s="19"/>
-      <c r="I22" s="13"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="9"/>
       <c r="J22" s="3">
         <v>2.8770509999999998</v>
       </c>
-      <c r="K22" s="19"/>
-      <c r="L22" s="13"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="9"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>5.13E-4</v>
       </c>
-      <c r="B23" s="19"/>
-      <c r="C23" s="20"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="7"/>
       <c r="D23" s="3">
         <v>6.7860000000000004E-3</v>
       </c>
-      <c r="E23" s="19"/>
-      <c r="F23" s="14"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="10"/>
       <c r="G23" s="3">
         <v>0.123712</v>
       </c>
-      <c r="H23" s="19"/>
-      <c r="I23" s="14"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="10"/>
       <c r="J23" s="3">
         <v>2.9225249999999998</v>
       </c>
-      <c r="K23" s="19"/>
-      <c r="L23" s="14"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="10"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
@@ -1224,44 +1224,44 @@
       <c r="A27" s="3">
         <v>5.04E-4</v>
       </c>
-      <c r="B27" s="19">
+      <c r="B27" s="6">
         <f>AVERAGE(A27:A31)</f>
         <v>4.4439999999999991E-4</v>
       </c>
-      <c r="C27" s="20">
+      <c r="C27" s="7">
         <f>B3/B27</f>
         <v>6.4531953195319538</v>
       </c>
       <c r="D27" s="3">
         <v>3.692E-3</v>
       </c>
-      <c r="E27" s="19">
+      <c r="E27" s="6">
         <f>AVERAGE(D27:D31)</f>
         <v>4.3686000000000003E-3</v>
       </c>
-      <c r="F27" s="12">
+      <c r="F27" s="8">
         <f>D3/E27</f>
         <v>2.110195485968045</v>
       </c>
       <c r="G27" s="3">
         <v>6.8218000000000001E-2</v>
       </c>
-      <c r="H27" s="19">
+      <c r="H27" s="6">
         <f>AVERAGE(G27:G31)</f>
         <v>7.5724000000000014E-2</v>
       </c>
-      <c r="I27" s="12">
+      <c r="I27" s="8">
         <f>F3/H27</f>
         <v>2.3192092335323009</v>
       </c>
       <c r="J27" s="3">
         <v>1.5362549999999999</v>
       </c>
-      <c r="K27" s="19">
+      <c r="K27" s="6">
         <f>AVERAGE(J27:J31)</f>
         <v>1.6117066000000002</v>
       </c>
-      <c r="L27" s="12">
+      <c r="L27" s="8">
         <f>H3/K27</f>
         <v>2.595385165017007</v>
       </c>
@@ -1270,89 +1270,89 @@
       <c r="A28" s="3">
         <v>3.8099999999999999E-4</v>
       </c>
-      <c r="B28" s="19"/>
-      <c r="C28" s="20"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="7"/>
       <c r="D28" s="3">
         <v>4.3299999999999996E-3</v>
       </c>
-      <c r="E28" s="19"/>
-      <c r="F28" s="13"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="9"/>
       <c r="G28" s="3">
         <v>6.9427000000000003E-2</v>
       </c>
-      <c r="H28" s="19"/>
-      <c r="I28" s="13"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="9"/>
       <c r="J28" s="3">
         <v>1.5048840000000001</v>
       </c>
-      <c r="K28" s="19"/>
-      <c r="L28" s="13"/>
+      <c r="K28" s="6"/>
+      <c r="L28" s="9"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
         <v>3.9800000000000002E-4</v>
       </c>
-      <c r="B29" s="19"/>
-      <c r="C29" s="20"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="7"/>
       <c r="D29" s="3">
         <v>4.908E-3</v>
       </c>
-      <c r="E29" s="19"/>
-      <c r="F29" s="13"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="9"/>
       <c r="G29" s="3">
         <v>0.100582</v>
       </c>
-      <c r="H29" s="19"/>
-      <c r="I29" s="13"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="9"/>
       <c r="J29" s="3">
         <v>1.5909089999999999</v>
       </c>
-      <c r="K29" s="19"/>
-      <c r="L29" s="13"/>
+      <c r="K29" s="6"/>
+      <c r="L29" s="9"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
         <v>4.4999999999999999E-4</v>
       </c>
-      <c r="B30" s="19"/>
-      <c r="C30" s="20"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="7"/>
       <c r="D30" s="3">
         <v>5.3270000000000001E-3</v>
       </c>
-      <c r="E30" s="19"/>
-      <c r="F30" s="13"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="9"/>
       <c r="G30" s="3">
         <v>6.6267000000000006E-2</v>
       </c>
-      <c r="H30" s="19"/>
-      <c r="I30" s="13"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="9"/>
       <c r="J30" s="3">
         <v>1.715792</v>
       </c>
-      <c r="K30" s="19"/>
-      <c r="L30" s="13"/>
+      <c r="K30" s="6"/>
+      <c r="L30" s="9"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
         <v>4.8899999999999996E-4</v>
       </c>
-      <c r="B31" s="19"/>
-      <c r="C31" s="20"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="7"/>
       <c r="D31" s="3">
         <v>3.5860000000000002E-3</v>
       </c>
-      <c r="E31" s="19"/>
-      <c r="F31" s="14"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="10"/>
       <c r="G31" s="3">
         <v>7.4125999999999997E-2</v>
       </c>
-      <c r="H31" s="19"/>
-      <c r="I31" s="14"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="10"/>
       <c r="J31" s="3">
         <v>1.710693</v>
       </c>
-      <c r="K31" s="19"/>
-      <c r="L31" s="14"/>
+      <c r="K31" s="6"/>
+      <c r="L31" s="10"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
@@ -1412,44 +1412,44 @@
       <c r="A35" s="3">
         <v>4.5199999999999998E-4</v>
       </c>
-      <c r="B35" s="19">
+      <c r="B35" s="6">
         <f>AVERAGE(A35:A39)</f>
         <v>4.6160000000000005E-4</v>
       </c>
-      <c r="C35" s="20">
+      <c r="C35" s="7">
         <f>B3/B35</f>
         <v>6.2127383015597912</v>
       </c>
       <c r="D35" s="3">
         <v>3.0070000000000001E-3</v>
       </c>
-      <c r="E35" s="19">
+      <c r="E35" s="6">
         <f>AVERAGE(D35:D39)</f>
         <v>2.7066E-3</v>
       </c>
-      <c r="F35" s="12">
+      <c r="F35" s="8">
         <f>D3/E35</f>
         <v>3.4059705904086317</v>
       </c>
       <c r="G35" s="3">
         <v>5.9722999999999998E-2</v>
       </c>
-      <c r="H35" s="19">
+      <c r="H35" s="6">
         <f>AVERAGE(G35:G39)</f>
         <v>5.3711600000000005E-2</v>
       </c>
-      <c r="I35" s="12">
+      <c r="I35" s="8">
         <f>F3/H35</f>
         <v>3.2696810372433509</v>
       </c>
       <c r="J35" s="3">
         <v>1.1083529999999999</v>
       </c>
-      <c r="K35" s="19">
+      <c r="K35" s="6">
         <f>AVERAGE(J35:J39)</f>
         <v>1.0822175999999999</v>
       </c>
-      <c r="L35" s="12">
+      <c r="L35" s="8">
         <f>H3/K35</f>
         <v>3.8652110259526369</v>
       </c>
@@ -1458,111 +1458,98 @@
       <c r="A36" s="3">
         <v>4.5300000000000001E-4</v>
       </c>
-      <c r="B36" s="19"/>
-      <c r="C36" s="20"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="7"/>
       <c r="D36" s="3">
         <v>2.4359999999999998E-3</v>
       </c>
-      <c r="E36" s="19"/>
-      <c r="F36" s="13"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="9"/>
       <c r="G36" s="3">
         <v>4.4310000000000002E-2</v>
       </c>
-      <c r="H36" s="19"/>
-      <c r="I36" s="13"/>
+      <c r="H36" s="6"/>
+      <c r="I36" s="9"/>
       <c r="J36" s="3">
         <v>0.86892100000000005</v>
       </c>
-      <c r="K36" s="19"/>
-      <c r="L36" s="13"/>
+      <c r="K36" s="6"/>
+      <c r="L36" s="9"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" s="3">
         <v>4.66E-4</v>
       </c>
-      <c r="B37" s="19"/>
-      <c r="C37" s="20"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="7"/>
       <c r="D37" s="3">
         <v>2.294E-3</v>
       </c>
-      <c r="E37" s="19"/>
-      <c r="F37" s="13"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="9"/>
       <c r="G37" s="3">
         <v>5.0810000000000001E-2</v>
       </c>
-      <c r="H37" s="19"/>
-      <c r="I37" s="13"/>
+      <c r="H37" s="6"/>
+      <c r="I37" s="9"/>
       <c r="J37" s="3">
         <v>1.050233</v>
       </c>
-      <c r="K37" s="19"/>
-      <c r="L37" s="13"/>
+      <c r="K37" s="6"/>
+      <c r="L37" s="9"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38" s="3">
         <v>4.3199999999999998E-4</v>
       </c>
-      <c r="B38" s="19"/>
-      <c r="C38" s="20"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="7"/>
       <c r="D38" s="3">
         <v>2.6549999999999998E-3</v>
       </c>
-      <c r="E38" s="19"/>
-      <c r="F38" s="13"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="9"/>
       <c r="G38" s="3">
         <v>5.8358E-2</v>
       </c>
-      <c r="H38" s="19"/>
-      <c r="I38" s="13"/>
+      <c r="H38" s="6"/>
+      <c r="I38" s="9"/>
       <c r="J38" s="3">
         <v>1.09981</v>
       </c>
-      <c r="K38" s="19"/>
-      <c r="L38" s="13"/>
+      <c r="K38" s="6"/>
+      <c r="L38" s="9"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39" s="3">
         <v>5.0500000000000002E-4</v>
       </c>
-      <c r="B39" s="19"/>
-      <c r="C39" s="20"/>
+      <c r="B39" s="6"/>
+      <c r="C39" s="7"/>
       <c r="D39" s="3">
         <v>3.1410000000000001E-3</v>
       </c>
-      <c r="E39" s="19"/>
-      <c r="F39" s="14"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="10"/>
       <c r="G39" s="3">
         <v>5.5357000000000003E-2</v>
       </c>
-      <c r="H39" s="19"/>
-      <c r="I39" s="14"/>
+      <c r="H39" s="6"/>
+      <c r="I39" s="10"/>
       <c r="J39" s="3">
         <v>1.283771</v>
       </c>
-      <c r="K39" s="19"/>
-      <c r="L39" s="14"/>
+      <c r="K39" s="6"/>
+      <c r="L39" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="A33:L33"/>
-    <mergeCell ref="B35:B39"/>
-    <mergeCell ref="C35:C39"/>
-    <mergeCell ref="E35:E39"/>
-    <mergeCell ref="F35:F39"/>
-    <mergeCell ref="H35:H39"/>
-    <mergeCell ref="I35:I39"/>
-    <mergeCell ref="K35:K39"/>
-    <mergeCell ref="L35:L39"/>
-    <mergeCell ref="L19:L23"/>
-    <mergeCell ref="A25:L25"/>
-    <mergeCell ref="B27:B31"/>
-    <mergeCell ref="C27:C31"/>
-    <mergeCell ref="E27:E31"/>
-    <mergeCell ref="F27:F31"/>
-    <mergeCell ref="H27:H31"/>
-    <mergeCell ref="I27:I31"/>
-    <mergeCell ref="K27:K31"/>
-    <mergeCell ref="L27:L31"/>
+    <mergeCell ref="A9:L9"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="B3:B7"/>
+    <mergeCell ref="D3:D7"/>
+    <mergeCell ref="F3:F7"/>
+    <mergeCell ref="H3:H7"/>
     <mergeCell ref="K11:K15"/>
     <mergeCell ref="L11:L15"/>
     <mergeCell ref="A17:L17"/>
@@ -1579,12 +1566,25 @@
     <mergeCell ref="F11:F15"/>
     <mergeCell ref="H11:H15"/>
     <mergeCell ref="I11:I15"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="B3:B7"/>
-    <mergeCell ref="D3:D7"/>
-    <mergeCell ref="F3:F7"/>
-    <mergeCell ref="H3:H7"/>
-    <mergeCell ref="A9:L9"/>
+    <mergeCell ref="L19:L23"/>
+    <mergeCell ref="A25:L25"/>
+    <mergeCell ref="B27:B31"/>
+    <mergeCell ref="C27:C31"/>
+    <mergeCell ref="E27:E31"/>
+    <mergeCell ref="F27:F31"/>
+    <mergeCell ref="H27:H31"/>
+    <mergeCell ref="I27:I31"/>
+    <mergeCell ref="K27:K31"/>
+    <mergeCell ref="L27:L31"/>
+    <mergeCell ref="A33:L33"/>
+    <mergeCell ref="B35:B39"/>
+    <mergeCell ref="C35:C39"/>
+    <mergeCell ref="E35:E39"/>
+    <mergeCell ref="F35:F39"/>
+    <mergeCell ref="H35:H39"/>
+    <mergeCell ref="I35:I39"/>
+    <mergeCell ref="K35:K39"/>
+    <mergeCell ref="L35:L39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1594,21 +1594,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7851D13-C089-4E79-B982-DBF5982D0E6F}">
   <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="G39" sqref="G39"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C27" sqref="C27:C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="23"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="21"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
@@ -1634,21 +1634,21 @@
       <c r="A3" s="1">
         <v>1.438E-3</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3" s="12">
         <f>AVERAGE(A3:A7)</f>
         <v>1.9784000000000004E-3</v>
       </c>
       <c r="C3" s="1">
         <v>2.1944000000000002E-2</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="12">
         <f>AVERAGE(C3:C7)</f>
         <v>2.25554E-2</v>
       </c>
       <c r="E3" s="1">
         <v>2.4267289999999999</v>
       </c>
-      <c r="F3" s="8">
+      <c r="F3" s="12">
         <f>AVERAGE(E3:E7)</f>
         <v>2.2378609999999997</v>
       </c>
@@ -1657,70 +1657,70 @@
       <c r="A4" s="1">
         <v>1.317E-3</v>
       </c>
-      <c r="B4" s="8"/>
+      <c r="B4" s="12"/>
       <c r="C4" s="1">
         <v>2.9302000000000002E-2</v>
       </c>
-      <c r="D4" s="8"/>
+      <c r="D4" s="12"/>
       <c r="E4" s="1">
         <v>1.8761060000000001</v>
       </c>
-      <c r="F4" s="8"/>
+      <c r="F4" s="12"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3.32E-3</v>
       </c>
-      <c r="B5" s="8"/>
+      <c r="B5" s="12"/>
       <c r="C5" s="1">
         <v>2.3130000000000001E-2</v>
       </c>
-      <c r="D5" s="8"/>
+      <c r="D5" s="12"/>
       <c r="E5" s="1">
         <v>2.4563670000000002</v>
       </c>
-      <c r="F5" s="8"/>
+      <c r="F5" s="12"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>1.47E-3</v>
       </c>
-      <c r="B6" s="8"/>
+      <c r="B6" s="12"/>
       <c r="C6" s="1">
         <v>1.6910000000000001E-2</v>
       </c>
-      <c r="D6" s="8"/>
+      <c r="D6" s="12"/>
       <c r="E6" s="1">
         <v>2.0546519999999999</v>
       </c>
-      <c r="F6" s="8"/>
+      <c r="F6" s="12"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>2.3470000000000001E-3</v>
       </c>
-      <c r="B7" s="8"/>
+      <c r="B7" s="12"/>
       <c r="C7" s="1">
         <v>2.1491E-2</v>
       </c>
-      <c r="D7" s="8"/>
+      <c r="D7" s="12"/>
       <c r="E7" s="1">
         <v>2.375451</v>
       </c>
-      <c r="F7" s="8"/>
+      <c r="F7" s="12"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="24" t="s">
+      <c r="A9" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="25"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="26"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="18"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
@@ -1755,33 +1755,33 @@
       <c r="A11" s="3">
         <v>6.4700000000000001E-4</v>
       </c>
-      <c r="B11" s="19">
+      <c r="B11" s="6">
         <f>AVERAGE(A11:A15)</f>
         <v>5.9120000000000006E-4</v>
       </c>
-      <c r="C11" s="20">
+      <c r="C11" s="7">
         <f>B3/B11</f>
         <v>3.3464140730717187</v>
       </c>
       <c r="D11" s="3">
         <v>3.3813999999999997E-2</v>
       </c>
-      <c r="E11" s="19">
+      <c r="E11" s="6">
         <f>AVERAGE(D11:D15)</f>
         <v>2.8969399999999999E-2</v>
       </c>
-      <c r="F11" s="12">
+      <c r="F11" s="8">
         <f>D3/E11</f>
         <v>0.77859396466616504</v>
       </c>
       <c r="G11" s="3">
         <v>1.9461379999999999</v>
       </c>
-      <c r="H11" s="19">
+      <c r="H11" s="6">
         <f>AVERAGE(G11:G15)</f>
         <v>2.1034044000000001</v>
       </c>
-      <c r="I11" s="12">
+      <c r="I11" s="8">
         <f>F3/H11</f>
         <v>1.0639233235415879</v>
       </c>
@@ -1790,82 +1790,82 @@
       <c r="A12" s="3">
         <v>5.7899999999999998E-4</v>
       </c>
-      <c r="B12" s="19"/>
-      <c r="C12" s="20"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="7"/>
       <c r="D12" s="3">
         <v>2.0060999999999999E-2</v>
       </c>
-      <c r="E12" s="19"/>
-      <c r="F12" s="13"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="9"/>
       <c r="G12" s="3">
         <v>2.0668820000000001</v>
       </c>
-      <c r="H12" s="19"/>
-      <c r="I12" s="13"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="9"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>5.1500000000000005E-4</v>
       </c>
-      <c r="B13" s="19"/>
-      <c r="C13" s="20"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="7"/>
       <c r="D13" s="3">
         <v>2.4271999999999998E-2</v>
       </c>
-      <c r="E13" s="19"/>
-      <c r="F13" s="13"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="9"/>
       <c r="G13" s="3">
         <v>2.3161109999999998</v>
       </c>
-      <c r="H13" s="19"/>
-      <c r="I13" s="13"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="9"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>5.8100000000000003E-4</v>
       </c>
-      <c r="B14" s="19"/>
-      <c r="C14" s="20"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="7"/>
       <c r="D14" s="3">
         <v>4.6851999999999998E-2</v>
       </c>
-      <c r="E14" s="19"/>
-      <c r="F14" s="13"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="9"/>
       <c r="G14" s="3">
         <v>1.861777</v>
       </c>
-      <c r="H14" s="19"/>
-      <c r="I14" s="13"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="9"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>6.3400000000000001E-4</v>
       </c>
-      <c r="B15" s="19"/>
-      <c r="C15" s="20"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="7"/>
       <c r="D15" s="3">
         <v>1.9848000000000001E-2</v>
       </c>
-      <c r="E15" s="19"/>
-      <c r="F15" s="14"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="10"/>
       <c r="G15" s="3">
         <v>2.326114</v>
       </c>
-      <c r="H15" s="19"/>
-      <c r="I15" s="14"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="10"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="24" t="s">
+      <c r="A17" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="25"/>
-      <c r="G17" s="25"/>
-      <c r="H17" s="25"/>
-      <c r="I17" s="26"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="18"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
@@ -1900,33 +1900,33 @@
       <c r="A19" s="3">
         <v>9.6699999999999998E-4</v>
       </c>
-      <c r="B19" s="19">
+      <c r="B19" s="6">
         <f>AVERAGE(A19:A23)</f>
         <v>1.1560000000000001E-3</v>
       </c>
-      <c r="C19" s="20">
+      <c r="C19" s="7">
         <f>B3/B19</f>
         <v>1.7114186851211075</v>
       </c>
       <c r="D19" s="3">
         <v>2.6647000000000001E-2</v>
       </c>
-      <c r="E19" s="19">
+      <c r="E19" s="6">
         <f>AVERAGE(D19:D23)</f>
         <v>2.07402E-2</v>
       </c>
-      <c r="F19" s="12">
+      <c r="F19" s="8">
         <f>D3/E19</f>
         <v>1.0875208532222447</v>
       </c>
       <c r="G19" s="3">
         <v>1.5159940000000001</v>
       </c>
-      <c r="H19" s="19">
+      <c r="H19" s="6">
         <f>AVERAGE(G19:G23)</f>
         <v>1.572173</v>
       </c>
-      <c r="I19" s="12">
+      <c r="I19" s="8">
         <f>F3/H19</f>
         <v>1.423419051211285</v>
       </c>
@@ -1935,82 +1935,82 @@
       <c r="A20" s="3">
         <v>9.2000000000000003E-4</v>
       </c>
-      <c r="B20" s="19"/>
-      <c r="C20" s="20"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="7"/>
       <c r="D20" s="3">
         <v>2.4121E-2</v>
       </c>
-      <c r="E20" s="19"/>
-      <c r="F20" s="13"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="9"/>
       <c r="G20" s="3">
         <v>1.2644839999999999</v>
       </c>
-      <c r="H20" s="19"/>
-      <c r="I20" s="13"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="9"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>1.3090000000000001E-3</v>
       </c>
-      <c r="B21" s="19"/>
-      <c r="C21" s="20"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="7"/>
       <c r="D21" s="3">
         <v>2.0069E-2</v>
       </c>
-      <c r="E21" s="19"/>
-      <c r="F21" s="13"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="9"/>
       <c r="G21" s="3">
         <v>1.659119</v>
       </c>
-      <c r="H21" s="19"/>
-      <c r="I21" s="13"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="9"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>1.263E-3</v>
       </c>
-      <c r="B22" s="19"/>
-      <c r="C22" s="20"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="7"/>
       <c r="D22" s="3">
         <v>1.7649999999999999E-2</v>
       </c>
-      <c r="E22" s="19"/>
-      <c r="F22" s="13"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="9"/>
       <c r="G22" s="3">
         <v>2.3957220000000001</v>
       </c>
-      <c r="H22" s="19"/>
-      <c r="I22" s="13"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="9"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>1.3209999999999999E-3</v>
       </c>
-      <c r="B23" s="19"/>
-      <c r="C23" s="20"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="7"/>
       <c r="D23" s="3">
         <v>1.5214E-2</v>
       </c>
-      <c r="E23" s="19"/>
-      <c r="F23" s="14"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="10"/>
       <c r="G23" s="3">
         <v>1.0255460000000001</v>
       </c>
-      <c r="H23" s="19"/>
-      <c r="I23" s="14"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="10"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" s="24" t="s">
+      <c r="A25" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B25" s="25"/>
-      <c r="C25" s="25"/>
-      <c r="D25" s="25"/>
-      <c r="E25" s="25"/>
-      <c r="F25" s="25"/>
-      <c r="G25" s="25"/>
-      <c r="H25" s="25"/>
-      <c r="I25" s="26"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="17"/>
+      <c r="I25" s="18"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
@@ -2045,33 +2045,33 @@
       <c r="A27" s="3">
         <v>1.4790000000000001E-3</v>
       </c>
-      <c r="B27" s="19">
+      <c r="B27" s="6">
         <f>AVERAGE(A27:A31)</f>
         <v>1.6408000000000002E-3</v>
       </c>
-      <c r="C27" s="20">
+      <c r="C27" s="7">
         <f>B3/B27</f>
         <v>1.2057532910775233</v>
       </c>
       <c r="D27" s="3">
         <v>2.1350000000000001E-2</v>
       </c>
-      <c r="E27" s="19">
+      <c r="E27" s="6">
         <f>AVERAGE(D27:D31)</f>
         <v>2.23614E-2</v>
       </c>
-      <c r="F27" s="12">
+      <c r="F27" s="8">
         <f>D3/E27</f>
         <v>1.0086756643143988</v>
       </c>
       <c r="G27" s="3">
         <v>0.92999399999999999</v>
       </c>
-      <c r="H27" s="19">
+      <c r="H27" s="6">
         <f>AVERAGE(G27:G31)</f>
         <v>1.2499398000000002</v>
       </c>
-      <c r="I27" s="12">
+      <c r="I27" s="8">
         <f>F3/H27</f>
         <v>1.7903750244611776</v>
       </c>
@@ -2080,82 +2080,82 @@
       <c r="A28" s="3">
         <v>1.7650000000000001E-3</v>
       </c>
-      <c r="B28" s="19"/>
-      <c r="C28" s="20"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="7"/>
       <c r="D28" s="3">
         <v>1.8789E-2</v>
       </c>
-      <c r="E28" s="19"/>
-      <c r="F28" s="13"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="9"/>
       <c r="G28" s="3">
         <v>1.313869</v>
       </c>
-      <c r="H28" s="19"/>
-      <c r="I28" s="13"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="9"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
         <v>1.681E-3</v>
       </c>
-      <c r="B29" s="19"/>
-      <c r="C29" s="20"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="7"/>
       <c r="D29" s="3">
         <v>2.3209E-2</v>
       </c>
-      <c r="E29" s="19"/>
-      <c r="F29" s="13"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="9"/>
       <c r="G29" s="3">
         <v>1.435206</v>
       </c>
-      <c r="H29" s="19"/>
-      <c r="I29" s="13"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="9"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
         <v>1.498E-3</v>
       </c>
-      <c r="B30" s="19"/>
-      <c r="C30" s="20"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="7"/>
       <c r="D30" s="3">
         <v>2.1609E-2</v>
       </c>
-      <c r="E30" s="19"/>
-      <c r="F30" s="13"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="9"/>
       <c r="G30" s="3">
         <v>1.5782529999999999</v>
       </c>
-      <c r="H30" s="19"/>
-      <c r="I30" s="13"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="9"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
         <v>1.781E-3</v>
       </c>
-      <c r="B31" s="19"/>
-      <c r="C31" s="20"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="7"/>
       <c r="D31" s="3">
         <v>2.6849999999999999E-2</v>
       </c>
-      <c r="E31" s="19"/>
-      <c r="F31" s="14"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="10"/>
       <c r="G31" s="3">
         <v>0.99237699999999995</v>
       </c>
-      <c r="H31" s="19"/>
-      <c r="I31" s="14"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="10"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A33" s="24" t="s">
+      <c r="A33" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="B33" s="25"/>
-      <c r="C33" s="25"/>
-      <c r="D33" s="25"/>
-      <c r="E33" s="25"/>
-      <c r="F33" s="25"/>
-      <c r="G33" s="25"/>
-      <c r="H33" s="25"/>
-      <c r="I33" s="26"/>
+      <c r="B33" s="17"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="17"/>
+      <c r="G33" s="17"/>
+      <c r="H33" s="17"/>
+      <c r="I33" s="18"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
@@ -2190,33 +2190,33 @@
       <c r="A35" s="3">
         <v>2.248E-3</v>
       </c>
-      <c r="B35" s="19">
+      <c r="B35" s="6">
         <f>AVERAGE(A35:A39)</f>
         <v>2.3254E-3</v>
       </c>
-      <c r="C35" s="20">
+      <c r="C35" s="7">
         <f>B3/B35</f>
         <v>0.85077836071213575</v>
       </c>
       <c r="D35" s="3">
         <v>1.7295999999999999E-2</v>
       </c>
-      <c r="E35" s="19">
+      <c r="E35" s="6">
         <f>AVERAGE(D35:D39)</f>
         <v>1.9747799999999999E-2</v>
       </c>
-      <c r="F35" s="12">
+      <c r="F35" s="8">
         <f>D3/E35</f>
         <v>1.1421727989953312</v>
       </c>
       <c r="G35" s="3">
         <v>0.87707999999999997</v>
       </c>
-      <c r="H35" s="19">
+      <c r="H35" s="6">
         <f>AVERAGE(G35:G39)</f>
         <v>1.1370174</v>
       </c>
-      <c r="I35" s="12">
+      <c r="I35" s="8">
         <f>F3/H35</f>
         <v>1.9681853593445446</v>
       </c>
@@ -2225,86 +2225,77 @@
       <c r="A36" s="3">
         <v>2.3479999999999998E-3</v>
       </c>
-      <c r="B36" s="19"/>
-      <c r="C36" s="20"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="7"/>
       <c r="D36" s="3">
         <v>2.3296999999999998E-2</v>
       </c>
-      <c r="E36" s="19"/>
-      <c r="F36" s="13"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="9"/>
       <c r="G36" s="3">
         <v>1.178417</v>
       </c>
-      <c r="H36" s="19"/>
-      <c r="I36" s="13"/>
+      <c r="H36" s="6"/>
+      <c r="I36" s="9"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="3">
         <v>2.4620000000000002E-3</v>
       </c>
-      <c r="B37" s="19"/>
-      <c r="C37" s="20"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="7"/>
       <c r="D37" s="3">
         <v>1.9085999999999999E-2</v>
       </c>
-      <c r="E37" s="19"/>
-      <c r="F37" s="13"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="9"/>
       <c r="G37" s="3">
         <v>1.25576</v>
       </c>
-      <c r="H37" s="19"/>
-      <c r="I37" s="13"/>
+      <c r="H37" s="6"/>
+      <c r="I37" s="9"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="3">
         <v>2.258E-3</v>
       </c>
-      <c r="B38" s="19"/>
-      <c r="C38" s="20"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="7"/>
       <c r="D38" s="3">
         <v>2.0473999999999999E-2</v>
       </c>
-      <c r="E38" s="19"/>
-      <c r="F38" s="13"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="9"/>
       <c r="G38" s="3">
         <v>1.182725</v>
       </c>
-      <c r="H38" s="19"/>
-      <c r="I38" s="13"/>
+      <c r="H38" s="6"/>
+      <c r="I38" s="9"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" s="3">
         <v>2.3110000000000001E-3</v>
       </c>
-      <c r="B39" s="19"/>
-      <c r="C39" s="20"/>
+      <c r="B39" s="6"/>
+      <c r="C39" s="7"/>
       <c r="D39" s="3">
         <v>1.8585999999999998E-2</v>
       </c>
-      <c r="E39" s="19"/>
-      <c r="F39" s="14"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="10"/>
       <c r="G39" s="3">
         <v>1.1911050000000001</v>
       </c>
-      <c r="H39" s="19"/>
-      <c r="I39" s="14"/>
+      <c r="H39" s="6"/>
+      <c r="I39" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="A33:I33"/>
-    <mergeCell ref="B35:B39"/>
-    <mergeCell ref="C35:C39"/>
-    <mergeCell ref="E35:E39"/>
-    <mergeCell ref="F35:F39"/>
-    <mergeCell ref="H35:H39"/>
-    <mergeCell ref="I35:I39"/>
-    <mergeCell ref="A25:I25"/>
-    <mergeCell ref="B27:B31"/>
-    <mergeCell ref="C27:C31"/>
-    <mergeCell ref="E27:E31"/>
-    <mergeCell ref="F27:F31"/>
-    <mergeCell ref="H27:H31"/>
-    <mergeCell ref="I27:I31"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="B3:B7"/>
+    <mergeCell ref="D3:D7"/>
+    <mergeCell ref="F3:F7"/>
+    <mergeCell ref="A9:I9"/>
     <mergeCell ref="I11:I15"/>
     <mergeCell ref="A17:I17"/>
     <mergeCell ref="B19:B23"/>
@@ -2313,16 +2304,25 @@
     <mergeCell ref="F19:F23"/>
     <mergeCell ref="H19:H23"/>
     <mergeCell ref="I19:I23"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="B3:B7"/>
-    <mergeCell ref="D3:D7"/>
-    <mergeCell ref="F3:F7"/>
-    <mergeCell ref="A9:I9"/>
     <mergeCell ref="B11:B15"/>
     <mergeCell ref="C11:C15"/>
     <mergeCell ref="E11:E15"/>
     <mergeCell ref="F11:F15"/>
     <mergeCell ref="H11:H15"/>
+    <mergeCell ref="A25:I25"/>
+    <mergeCell ref="B27:B31"/>
+    <mergeCell ref="C27:C31"/>
+    <mergeCell ref="E27:E31"/>
+    <mergeCell ref="F27:F31"/>
+    <mergeCell ref="H27:H31"/>
+    <mergeCell ref="I27:I31"/>
+    <mergeCell ref="A33:I33"/>
+    <mergeCell ref="B35:B39"/>
+    <mergeCell ref="C35:C39"/>
+    <mergeCell ref="E35:E39"/>
+    <mergeCell ref="F35:F39"/>
+    <mergeCell ref="H35:H39"/>
+    <mergeCell ref="I35:I39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2333,7 +2333,7 @@
   <dimension ref="A1:L39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2348,16 +2348,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -2389,28 +2389,28 @@
       <c r="A3" s="1">
         <v>7.7799999999999996E-3</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3" s="12">
         <f>AVERAGE(A3:A7)</f>
         <v>6.4991999999999992E-3</v>
       </c>
       <c r="C3" s="1">
         <v>3.4301999999999999E-2</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="12">
         <f>AVERAGE(C3:C7)</f>
         <v>4.93788E-2</v>
       </c>
       <c r="E3" s="1">
         <v>2.4107050000000001</v>
       </c>
-      <c r="F3" s="8">
+      <c r="F3" s="12">
         <f>AVERAGE(E3:E7)</f>
         <v>2.3921540000000001</v>
       </c>
       <c r="G3" s="1">
         <v>23.769746000000001</v>
       </c>
-      <c r="H3" s="8">
+      <c r="H3" s="12">
         <f>AVERAGE(G3:G7)</f>
         <v>23.8937372</v>
       </c>
@@ -2419,73 +2419,73 @@
       <c r="A4" s="1">
         <v>5.986E-3</v>
       </c>
-      <c r="B4" s="8"/>
+      <c r="B4" s="12"/>
       <c r="C4" s="1">
         <v>3.2233999999999999E-2</v>
       </c>
-      <c r="D4" s="8"/>
+      <c r="D4" s="12"/>
       <c r="E4" s="1">
         <v>2.3849840000000002</v>
       </c>
-      <c r="F4" s="8"/>
+      <c r="F4" s="12"/>
       <c r="G4" s="1">
         <v>23.880281</v>
       </c>
-      <c r="H4" s="8"/>
+      <c r="H4" s="12"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>6.3420000000000004E-3</v>
       </c>
-      <c r="B5" s="8"/>
+      <c r="B5" s="12"/>
       <c r="C5" s="1">
         <v>3.2267999999999998E-2</v>
       </c>
-      <c r="D5" s="8"/>
+      <c r="D5" s="12"/>
       <c r="E5" s="1">
         <v>2.418174</v>
       </c>
-      <c r="F5" s="8"/>
+      <c r="F5" s="12"/>
       <c r="G5" s="1">
         <v>23.901166</v>
       </c>
-      <c r="H5" s="8"/>
+      <c r="H5" s="12"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>6.0850000000000001E-3</v>
       </c>
-      <c r="B6" s="8"/>
+      <c r="B6" s="12"/>
       <c r="C6" s="1">
         <v>6.1054999999999998E-2</v>
       </c>
-      <c r="D6" s="8"/>
+      <c r="D6" s="12"/>
       <c r="E6" s="1">
         <v>2.374854</v>
       </c>
-      <c r="F6" s="8"/>
+      <c r="F6" s="12"/>
       <c r="G6" s="1">
         <v>23.998033</v>
       </c>
-      <c r="H6" s="8"/>
+      <c r="H6" s="12"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6.3029999999999996E-3</v>
       </c>
-      <c r="B7" s="8"/>
+      <c r="B7" s="12"/>
       <c r="C7" s="1">
         <v>8.7035000000000001E-2</v>
       </c>
-      <c r="D7" s="8"/>
+      <c r="D7" s="12"/>
       <c r="E7" s="1">
         <v>2.3720530000000002</v>
       </c>
-      <c r="F7" s="8"/>
+      <c r="F7" s="12"/>
       <c r="G7" s="1">
         <v>23.919460000000001</v>
       </c>
-      <c r="H7" s="8"/>
+      <c r="H7" s="12"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
@@ -2545,44 +2545,44 @@
       <c r="A11" s="3">
         <v>4.3769999999999998E-3</v>
       </c>
-      <c r="B11" s="9">
+      <c r="B11" s="22">
         <f>AVERAGE(A11:A15)</f>
         <v>4.4596000000000002E-3</v>
       </c>
-      <c r="C11" s="12">
+      <c r="C11" s="8">
         <f>B3/B11</f>
         <v>1.4573504350165931</v>
       </c>
       <c r="D11" s="3">
         <v>6.8006999999999998E-2</v>
       </c>
-      <c r="E11" s="9">
+      <c r="E11" s="22">
         <f>AVERAGE(D11:D15)</f>
         <v>6.4985799999999996E-2</v>
       </c>
-      <c r="F11" s="12">
+      <c r="F11" s="8">
         <f>D3/E11</f>
         <v>0.75983984193469967</v>
       </c>
       <c r="G11" s="3">
         <v>6.6232480000000002</v>
       </c>
-      <c r="H11" s="9">
+      <c r="H11" s="22">
         <f>AVERAGE(G11:G15)</f>
         <v>6.686429200000001</v>
       </c>
-      <c r="I11" s="12">
+      <c r="I11" s="8">
         <f>F3/H11</f>
         <v>0.3577625558347346</v>
       </c>
       <c r="J11" s="3">
         <v>89.042483000000004</v>
       </c>
-      <c r="K11" s="9">
+      <c r="K11" s="22">
         <f>AVERAGE(J11:J15)</f>
         <v>74.137772400000017</v>
       </c>
-      <c r="L11" s="12">
+      <c r="L11" s="8">
         <f>H3/K11</f>
         <v>0.32228830765354899</v>
       </c>
@@ -2591,89 +2591,89 @@
       <c r="A12" s="3">
         <v>4.4380000000000001E-3</v>
       </c>
-      <c r="B12" s="10"/>
-      <c r="C12" s="13"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="9"/>
       <c r="D12" s="3">
         <v>4.1998000000000001E-2</v>
       </c>
-      <c r="E12" s="10"/>
-      <c r="F12" s="13"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="9"/>
       <c r="G12" s="3">
         <v>6.5891760000000001</v>
       </c>
-      <c r="H12" s="10"/>
-      <c r="I12" s="13"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="9"/>
       <c r="J12" s="3">
         <v>71.662083999999993</v>
       </c>
-      <c r="K12" s="10"/>
-      <c r="L12" s="13"/>
+      <c r="K12" s="23"/>
+      <c r="L12" s="9"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>4.5110000000000003E-3</v>
       </c>
-      <c r="B13" s="10"/>
-      <c r="C13" s="13"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="9"/>
       <c r="D13" s="3">
         <v>4.3872000000000001E-2</v>
       </c>
-      <c r="E13" s="10"/>
-      <c r="F13" s="13"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="9"/>
       <c r="G13" s="3">
         <v>6.7215730000000002</v>
       </c>
-      <c r="H13" s="10"/>
-      <c r="I13" s="13"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="9"/>
       <c r="J13" s="3">
         <v>69.002851000000007</v>
       </c>
-      <c r="K13" s="10"/>
-      <c r="L13" s="13"/>
+      <c r="K13" s="23"/>
+      <c r="L13" s="9"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>4.5250000000000004E-3</v>
       </c>
-      <c r="B14" s="10"/>
-      <c r="C14" s="13"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="9"/>
       <c r="D14" s="3">
         <v>5.8254E-2</v>
       </c>
-      <c r="E14" s="10"/>
-      <c r="F14" s="13"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="9"/>
       <c r="G14" s="3">
         <v>6.7527499999999998</v>
       </c>
-      <c r="H14" s="10"/>
-      <c r="I14" s="13"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="9"/>
       <c r="J14" s="3">
         <v>68.275855000000007</v>
       </c>
-      <c r="K14" s="10"/>
-      <c r="L14" s="13"/>
+      <c r="K14" s="23"/>
+      <c r="L14" s="9"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>4.4470000000000004E-3</v>
       </c>
-      <c r="B15" s="11"/>
-      <c r="C15" s="14"/>
+      <c r="B15" s="24"/>
+      <c r="C15" s="10"/>
       <c r="D15" s="3">
         <v>0.112798</v>
       </c>
-      <c r="E15" s="11"/>
-      <c r="F15" s="14"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="10"/>
       <c r="G15" s="3">
         <v>6.7453989999999999</v>
       </c>
-      <c r="H15" s="11"/>
-      <c r="I15" s="14"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="10"/>
       <c r="J15" s="3">
         <v>72.705589000000003</v>
       </c>
-      <c r="K15" s="11"/>
-      <c r="L15" s="14"/>
+      <c r="K15" s="24"/>
+      <c r="L15" s="10"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
@@ -2733,44 +2733,44 @@
       <c r="A19" s="3">
         <v>4.8999999999999998E-3</v>
       </c>
-      <c r="B19" s="9">
+      <c r="B19" s="22">
         <f>AVERAGE(A19:A23)</f>
         <v>4.6842000000000003E-3</v>
       </c>
-      <c r="C19" s="12">
+      <c r="C19" s="8">
         <f>B3/B19</f>
         <v>1.3874727808377094</v>
       </c>
       <c r="D19" s="3">
         <v>5.6577000000000002E-2</v>
       </c>
-      <c r="E19" s="9">
+      <c r="E19" s="22">
         <f>AVERAGE(D19:D23)</f>
         <v>4.8751799999999998E-2</v>
       </c>
-      <c r="F19" s="12">
+      <c r="F19" s="8">
         <f>D3/E19</f>
         <v>1.0128610635914983</v>
       </c>
       <c r="G19" s="3">
         <v>3.4884689999999998</v>
       </c>
-      <c r="H19" s="9">
+      <c r="H19" s="22">
         <f>AVERAGE(G19:G23)</f>
         <v>3.6097006</v>
       </c>
-      <c r="I19" s="12">
+      <c r="I19" s="8">
         <f>F3/H19</f>
         <v>0.6627014993985928</v>
       </c>
       <c r="J19" s="3">
         <v>40.36327</v>
       </c>
-      <c r="K19" s="9">
+      <c r="K19" s="22">
         <f>AVERAGE(J19:J23)</f>
         <v>41.001088199999991</v>
       </c>
-      <c r="L19" s="12">
+      <c r="L19" s="8">
         <f>H3/K19</f>
         <v>0.58275861078243296</v>
       </c>
@@ -2779,89 +2779,89 @@
       <c r="A20" s="3">
         <v>4.7720000000000002E-3</v>
       </c>
-      <c r="B20" s="10"/>
-      <c r="C20" s="13"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="9"/>
       <c r="D20" s="3">
         <v>6.0916999999999999E-2</v>
       </c>
-      <c r="E20" s="10"/>
-      <c r="F20" s="13"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="9"/>
       <c r="G20" s="3">
         <v>3.561401</v>
       </c>
-      <c r="H20" s="10"/>
-      <c r="I20" s="13"/>
+      <c r="H20" s="23"/>
+      <c r="I20" s="9"/>
       <c r="J20" s="3">
         <v>47.20411</v>
       </c>
-      <c r="K20" s="10"/>
-      <c r="L20" s="13"/>
+      <c r="K20" s="23"/>
+      <c r="L20" s="9"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>4.9020000000000001E-3</v>
       </c>
-      <c r="B21" s="10"/>
-      <c r="C21" s="13"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="9"/>
       <c r="D21" s="3">
         <v>4.2832000000000002E-2</v>
       </c>
-      <c r="E21" s="10"/>
-      <c r="F21" s="13"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="9"/>
       <c r="G21" s="3">
         <v>3.6326170000000002</v>
       </c>
-      <c r="H21" s="10"/>
-      <c r="I21" s="13"/>
+      <c r="H21" s="23"/>
+      <c r="I21" s="9"/>
       <c r="J21" s="3">
         <v>41.847327999999997</v>
       </c>
-      <c r="K21" s="10"/>
-      <c r="L21" s="13"/>
+      <c r="K21" s="23"/>
+      <c r="L21" s="9"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>4.4450000000000002E-3</v>
       </c>
-      <c r="B22" s="10"/>
-      <c r="C22" s="13"/>
+      <c r="B22" s="23"/>
+      <c r="C22" s="9"/>
       <c r="D22" s="3">
         <v>4.1216999999999997E-2</v>
       </c>
-      <c r="E22" s="10"/>
-      <c r="F22" s="13"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="9"/>
       <c r="G22" s="3">
         <v>3.6529639999999999</v>
       </c>
-      <c r="H22" s="10"/>
-      <c r="I22" s="13"/>
+      <c r="H22" s="23"/>
+      <c r="I22" s="9"/>
       <c r="J22" s="3">
         <v>37.903092999999998</v>
       </c>
-      <c r="K22" s="10"/>
-      <c r="L22" s="13"/>
+      <c r="K22" s="23"/>
+      <c r="L22" s="9"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>4.4019999999999997E-3</v>
       </c>
-      <c r="B23" s="11"/>
-      <c r="C23" s="14"/>
+      <c r="B23" s="24"/>
+      <c r="C23" s="10"/>
       <c r="D23" s="3">
         <v>4.2215999999999997E-2</v>
       </c>
-      <c r="E23" s="11"/>
-      <c r="F23" s="14"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="10"/>
       <c r="G23" s="3">
         <v>3.7130519999999998</v>
       </c>
-      <c r="H23" s="11"/>
-      <c r="I23" s="14"/>
+      <c r="H23" s="24"/>
+      <c r="I23" s="10"/>
       <c r="J23" s="3">
         <v>37.687640000000002</v>
       </c>
-      <c r="K23" s="11"/>
-      <c r="L23" s="14"/>
+      <c r="K23" s="24"/>
+      <c r="L23" s="10"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
@@ -2921,44 +2921,44 @@
       <c r="A27" s="3">
         <v>4.3699999999999998E-3</v>
       </c>
-      <c r="B27" s="9">
+      <c r="B27" s="22">
         <f>AVERAGE(A27:A31)</f>
         <v>4.3296000000000003E-3</v>
       </c>
-      <c r="C27" s="12">
+      <c r="C27" s="8">
         <f>B3/B27</f>
         <v>1.5011086474501105</v>
       </c>
       <c r="D27" s="3">
         <v>6.8677000000000002E-2</v>
       </c>
-      <c r="E27" s="9">
+      <c r="E27" s="22">
         <f>AVERAGE(D27:D31)</f>
         <v>5.2304200000000002E-2</v>
       </c>
-      <c r="F27" s="12">
+      <c r="F27" s="8">
         <f>D3/E27</f>
         <v>0.94406950111080945</v>
       </c>
       <c r="G27" s="3">
         <v>1.9634100000000001</v>
       </c>
-      <c r="H27" s="9">
+      <c r="H27" s="22">
         <f>AVERAGE(G27:G31)</f>
         <v>2.189451</v>
       </c>
-      <c r="I27" s="12">
+      <c r="I27" s="8">
         <f>F3/H27</f>
         <v>1.0925816563147566</v>
       </c>
       <c r="J27" s="3">
         <v>22.983543000000001</v>
       </c>
-      <c r="K27" s="9">
+      <c r="K27" s="22">
         <f>AVERAGE(J27:J31)</f>
         <v>24.474444599999998</v>
       </c>
-      <c r="L27" s="12">
+      <c r="L27" s="8">
         <f>H3/K27</f>
         <v>0.97627290794578447</v>
       </c>
@@ -2967,89 +2967,89 @@
       <c r="A28" s="3">
         <v>4.2700000000000004E-3</v>
       </c>
-      <c r="B28" s="10"/>
-      <c r="C28" s="13"/>
+      <c r="B28" s="23"/>
+      <c r="C28" s="9"/>
       <c r="D28" s="3">
         <v>4.2324000000000001E-2</v>
       </c>
-      <c r="E28" s="10"/>
-      <c r="F28" s="13"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="9"/>
       <c r="G28" s="3">
         <v>2.1728649999999998</v>
       </c>
-      <c r="H28" s="10"/>
-      <c r="I28" s="13"/>
+      <c r="H28" s="23"/>
+      <c r="I28" s="9"/>
       <c r="J28" s="3">
         <v>23.784718999999999</v>
       </c>
-      <c r="K28" s="10"/>
-      <c r="L28" s="13"/>
+      <c r="K28" s="23"/>
+      <c r="L28" s="9"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
         <v>4.4650000000000002E-3</v>
       </c>
-      <c r="B29" s="10"/>
-      <c r="C29" s="13"/>
+      <c r="B29" s="23"/>
+      <c r="C29" s="9"/>
       <c r="D29" s="3">
         <v>4.3873000000000002E-2</v>
       </c>
-      <c r="E29" s="10"/>
-      <c r="F29" s="13"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="9"/>
       <c r="G29" s="3">
         <v>2.1944849999999998</v>
       </c>
-      <c r="H29" s="10"/>
-      <c r="I29" s="13"/>
+      <c r="H29" s="23"/>
+      <c r="I29" s="9"/>
       <c r="J29" s="3">
         <v>25.523700000000002</v>
       </c>
-      <c r="K29" s="10"/>
-      <c r="L29" s="13"/>
+      <c r="K29" s="23"/>
+      <c r="L29" s="9"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
         <v>4.3579999999999999E-3</v>
       </c>
-      <c r="B30" s="10"/>
-      <c r="C30" s="13"/>
+      <c r="B30" s="23"/>
+      <c r="C30" s="9"/>
       <c r="D30" s="3">
         <v>4.1213E-2</v>
       </c>
-      <c r="E30" s="10"/>
-      <c r="F30" s="13"/>
+      <c r="E30" s="23"/>
+      <c r="F30" s="9"/>
       <c r="G30" s="3">
         <v>2.3042750000000001</v>
       </c>
-      <c r="H30" s="10"/>
-      <c r="I30" s="13"/>
+      <c r="H30" s="23"/>
+      <c r="I30" s="9"/>
       <c r="J30" s="3">
         <v>27.042113000000001</v>
       </c>
-      <c r="K30" s="10"/>
-      <c r="L30" s="13"/>
+      <c r="K30" s="23"/>
+      <c r="L30" s="9"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
         <v>4.1850000000000004E-3</v>
       </c>
-      <c r="B31" s="11"/>
-      <c r="C31" s="14"/>
+      <c r="B31" s="24"/>
+      <c r="C31" s="10"/>
       <c r="D31" s="3">
         <v>6.5434000000000006E-2</v>
       </c>
-      <c r="E31" s="11"/>
-      <c r="F31" s="14"/>
+      <c r="E31" s="24"/>
+      <c r="F31" s="10"/>
       <c r="G31" s="3">
         <v>2.3122199999999999</v>
       </c>
-      <c r="H31" s="11"/>
-      <c r="I31" s="14"/>
+      <c r="H31" s="24"/>
+      <c r="I31" s="10"/>
       <c r="J31" s="3">
         <v>23.038148</v>
       </c>
-      <c r="K31" s="11"/>
-      <c r="L31" s="14"/>
+      <c r="K31" s="24"/>
+      <c r="L31" s="10"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
@@ -3109,44 +3109,44 @@
       <c r="A35" s="3">
         <v>4.5999999999999999E-3</v>
       </c>
-      <c r="B35" s="9">
+      <c r="B35" s="22">
         <f>AVERAGE(A35:A39)</f>
         <v>5.8130000000000005E-3</v>
       </c>
-      <c r="C35" s="12">
+      <c r="C35" s="8">
         <f>B3/B35</f>
         <v>1.1180457595045585</v>
       </c>
       <c r="D35" s="3">
         <v>4.335E-2</v>
       </c>
-      <c r="E35" s="9">
+      <c r="E35" s="22">
         <f>AVERAGE(D35:D39)</f>
         <v>4.2192600000000004E-2</v>
       </c>
-      <c r="F35" s="12">
+      <c r="F35" s="8">
         <f>D3/E35</f>
         <v>1.1703189658850128</v>
       </c>
       <c r="G35" s="3">
         <v>1.668833</v>
       </c>
-      <c r="H35" s="9">
+      <c r="H35" s="22">
         <f>AVERAGE(G35:G39)</f>
         <v>1.9743895999999999</v>
       </c>
-      <c r="I35" s="12">
+      <c r="I35" s="8">
         <f>F3/H35</f>
         <v>1.2115916737000643</v>
       </c>
       <c r="J35" s="3">
         <v>21.320739</v>
       </c>
-      <c r="K35" s="9">
+      <c r="K35" s="22">
         <f>AVERAGE(J35:J39)</f>
         <v>21.781726599999999</v>
       </c>
-      <c r="L35" s="12">
+      <c r="L35" s="8">
         <f>H3/K35</f>
         <v>1.0969624969950731</v>
       </c>
@@ -3155,111 +3155,98 @@
       <c r="A36" s="3">
         <v>4.5840000000000004E-3</v>
       </c>
-      <c r="B36" s="10"/>
-      <c r="C36" s="13"/>
+      <c r="B36" s="23"/>
+      <c r="C36" s="9"/>
       <c r="D36" s="3">
         <v>4.1674000000000003E-2</v>
       </c>
-      <c r="E36" s="10"/>
-      <c r="F36" s="13"/>
+      <c r="E36" s="23"/>
+      <c r="F36" s="9"/>
       <c r="G36" s="3">
         <v>2.009665</v>
       </c>
-      <c r="H36" s="10"/>
-      <c r="I36" s="13"/>
+      <c r="H36" s="23"/>
+      <c r="I36" s="9"/>
       <c r="J36" s="3">
         <v>21.419577</v>
       </c>
-      <c r="K36" s="10"/>
-      <c r="L36" s="13"/>
+      <c r="K36" s="23"/>
+      <c r="L36" s="9"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" s="3">
         <v>7.3130000000000001E-3</v>
       </c>
-      <c r="B37" s="10"/>
-      <c r="C37" s="13"/>
+      <c r="B37" s="23"/>
+      <c r="C37" s="9"/>
       <c r="D37" s="3">
         <v>4.2286999999999998E-2</v>
       </c>
-      <c r="E37" s="10"/>
-      <c r="F37" s="13"/>
+      <c r="E37" s="23"/>
+      <c r="F37" s="9"/>
       <c r="G37" s="3">
         <v>2.188358</v>
       </c>
-      <c r="H37" s="10"/>
-      <c r="I37" s="13"/>
+      <c r="H37" s="23"/>
+      <c r="I37" s="9"/>
       <c r="J37" s="3">
         <v>21.917483000000001</v>
       </c>
-      <c r="K37" s="10"/>
-      <c r="L37" s="13"/>
+      <c r="K37" s="23"/>
+      <c r="L37" s="9"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38" s="3">
         <v>4.6990000000000001E-3</v>
       </c>
-      <c r="B38" s="10"/>
-      <c r="C38" s="13"/>
+      <c r="B38" s="23"/>
+      <c r="C38" s="9"/>
       <c r="D38" s="3">
         <v>4.1896999999999997E-2</v>
       </c>
-      <c r="E38" s="10"/>
-      <c r="F38" s="13"/>
+      <c r="E38" s="23"/>
+      <c r="F38" s="9"/>
       <c r="G38" s="3">
         <v>2.0170970000000001</v>
       </c>
-      <c r="H38" s="10"/>
-      <c r="I38" s="13"/>
+      <c r="H38" s="23"/>
+      <c r="I38" s="9"/>
       <c r="J38" s="3">
         <v>22.68177</v>
       </c>
-      <c r="K38" s="10"/>
-      <c r="L38" s="13"/>
+      <c r="K38" s="23"/>
+      <c r="L38" s="9"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39" s="3">
         <v>7.8689999999999993E-3</v>
       </c>
-      <c r="B39" s="11"/>
-      <c r="C39" s="14"/>
+      <c r="B39" s="24"/>
+      <c r="C39" s="10"/>
       <c r="D39" s="3">
         <v>4.1755E-2</v>
       </c>
-      <c r="E39" s="11"/>
-      <c r="F39" s="14"/>
+      <c r="E39" s="24"/>
+      <c r="F39" s="10"/>
       <c r="G39" s="3">
         <v>1.987995</v>
       </c>
-      <c r="H39" s="11"/>
-      <c r="I39" s="14"/>
+      <c r="H39" s="24"/>
+      <c r="I39" s="10"/>
       <c r="J39" s="3">
         <v>21.569064000000001</v>
       </c>
-      <c r="K39" s="11"/>
-      <c r="L39" s="14"/>
+      <c r="K39" s="24"/>
+      <c r="L39" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="A33:L33"/>
-    <mergeCell ref="B35:B39"/>
-    <mergeCell ref="C35:C39"/>
-    <mergeCell ref="E35:E39"/>
-    <mergeCell ref="F35:F39"/>
-    <mergeCell ref="H35:H39"/>
-    <mergeCell ref="I35:I39"/>
-    <mergeCell ref="K35:K39"/>
-    <mergeCell ref="L35:L39"/>
-    <mergeCell ref="L19:L23"/>
-    <mergeCell ref="A25:L25"/>
-    <mergeCell ref="B27:B31"/>
-    <mergeCell ref="C27:C31"/>
-    <mergeCell ref="E27:E31"/>
-    <mergeCell ref="F27:F31"/>
-    <mergeCell ref="H27:H31"/>
-    <mergeCell ref="I27:I31"/>
-    <mergeCell ref="K27:K31"/>
-    <mergeCell ref="L27:L31"/>
+    <mergeCell ref="A9:L9"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="B3:B7"/>
+    <mergeCell ref="D3:D7"/>
+    <mergeCell ref="F3:F7"/>
+    <mergeCell ref="H3:H7"/>
     <mergeCell ref="K11:K15"/>
     <mergeCell ref="L11:L15"/>
     <mergeCell ref="A17:L17"/>
@@ -3276,7 +3263,782 @@
     <mergeCell ref="F11:F15"/>
     <mergeCell ref="H11:H15"/>
     <mergeCell ref="I11:I15"/>
+    <mergeCell ref="L19:L23"/>
+    <mergeCell ref="A25:L25"/>
+    <mergeCell ref="B27:B31"/>
+    <mergeCell ref="C27:C31"/>
+    <mergeCell ref="E27:E31"/>
+    <mergeCell ref="F27:F31"/>
+    <mergeCell ref="H27:H31"/>
+    <mergeCell ref="I27:I31"/>
+    <mergeCell ref="K27:K31"/>
+    <mergeCell ref="L27:L31"/>
+    <mergeCell ref="A33:L33"/>
+    <mergeCell ref="B35:B39"/>
+    <mergeCell ref="C35:C39"/>
+    <mergeCell ref="E35:E39"/>
+    <mergeCell ref="F35:F39"/>
+    <mergeCell ref="H35:H39"/>
+    <mergeCell ref="I35:I39"/>
+    <mergeCell ref="K35:K39"/>
+    <mergeCell ref="L35:L39"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{118925EF-7105-47D2-92E9-828532FD1FFB}">
+  <dimension ref="A1:L31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="J31" sqref="J31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="22.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="23.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.77734375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="25.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>7.7799999999999996E-3</v>
+      </c>
+      <c r="B3" s="12">
+        <f>AVERAGE(A3:A7)</f>
+        <v>6.4991999999999992E-3</v>
+      </c>
+      <c r="C3" s="1">
+        <v>3.4301999999999999E-2</v>
+      </c>
+      <c r="D3" s="12">
+        <f>AVERAGE(C3:C7)</f>
+        <v>4.93788E-2</v>
+      </c>
+      <c r="E3" s="1">
+        <v>2.4107050000000001</v>
+      </c>
+      <c r="F3" s="12">
+        <f>AVERAGE(E3:E7)</f>
+        <v>2.3921540000000001</v>
+      </c>
+      <c r="G3" s="1">
+        <v>23.769746000000001</v>
+      </c>
+      <c r="H3" s="12">
+        <f>AVERAGE(G3:G7)</f>
+        <v>23.8937372</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>5.986E-3</v>
+      </c>
+      <c r="B4" s="12"/>
+      <c r="C4" s="1">
+        <v>3.2233999999999999E-2</v>
+      </c>
+      <c r="D4" s="12"/>
+      <c r="E4" s="1">
+        <v>2.3849840000000002</v>
+      </c>
+      <c r="F4" s="12"/>
+      <c r="G4" s="1">
+        <v>23.880281</v>
+      </c>
+      <c r="H4" s="12"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>6.3420000000000004E-3</v>
+      </c>
+      <c r="B5" s="12"/>
+      <c r="C5" s="1">
+        <v>3.2267999999999998E-2</v>
+      </c>
+      <c r="D5" s="12"/>
+      <c r="E5" s="1">
+        <v>2.418174</v>
+      </c>
+      <c r="F5" s="12"/>
+      <c r="G5" s="1">
+        <v>23.901166</v>
+      </c>
+      <c r="H5" s="12"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>6.0850000000000001E-3</v>
+      </c>
+      <c r="B6" s="12"/>
+      <c r="C6" s="1">
+        <v>6.1054999999999998E-2</v>
+      </c>
+      <c r="D6" s="12"/>
+      <c r="E6" s="1">
+        <v>2.374854</v>
+      </c>
+      <c r="F6" s="12"/>
+      <c r="G6" s="1">
+        <v>23.998033</v>
+      </c>
+      <c r="H6" s="12"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>6.3029999999999996E-3</v>
+      </c>
+      <c r="B7" s="12"/>
+      <c r="C7" s="1">
+        <v>8.7035000000000001E-2</v>
+      </c>
+      <c r="D7" s="12"/>
+      <c r="E7" s="1">
+        <v>2.3720530000000002</v>
+      </c>
+      <c r="F7" s="12"/>
+      <c r="G7" s="1">
+        <v>23.919460000000001</v>
+      </c>
+      <c r="H7" s="12"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11" s="3">
+        <v>9.0320000000000001E-3</v>
+      </c>
+      <c r="B11" s="22">
+        <f>AVERAGE(A11:A15)</f>
+        <v>6.8849999999999996E-3</v>
+      </c>
+      <c r="C11" s="8">
+        <f>B3/B11</f>
+        <v>0.94396514161220035</v>
+      </c>
+      <c r="D11" s="3">
+        <v>6.0754000000000002E-2</v>
+      </c>
+      <c r="E11" s="22">
+        <f>AVERAGE(D11:D15)</f>
+        <v>4.8256800000000002E-2</v>
+      </c>
+      <c r="F11" s="8">
+        <f>D3/E11</f>
+        <v>1.0232506092405629</v>
+      </c>
+      <c r="G11" s="3">
+        <v>6.6839320000000004</v>
+      </c>
+      <c r="H11" s="22">
+        <f>AVERAGE(G11:G15)</f>
+        <v>6.8683787999999995</v>
+      </c>
+      <c r="I11" s="8">
+        <f>F3/H11</f>
+        <v>0.34828510040826521</v>
+      </c>
+      <c r="J11" s="3">
+        <v>70.209836999999993</v>
+      </c>
+      <c r="K11" s="22">
+        <f>AVERAGE(J11:J15)</f>
+        <v>70.467709400000004</v>
+      </c>
+      <c r="L11" s="8">
+        <f>H3/K11</f>
+        <v>0.33907356154250134</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12" s="3">
+        <v>4.7699999999999999E-3</v>
+      </c>
+      <c r="B12" s="23"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="3">
+        <v>4.4797999999999998E-2</v>
+      </c>
+      <c r="E12" s="23"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="3">
+        <v>6.7206970000000004</v>
+      </c>
+      <c r="H12" s="23"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="3">
+        <v>70.545404000000005</v>
+      </c>
+      <c r="K12" s="23"/>
+      <c r="L12" s="9"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13" s="3">
+        <v>7.247E-3</v>
+      </c>
+      <c r="B13" s="23"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="3">
+        <v>4.6262999999999999E-2</v>
+      </c>
+      <c r="E13" s="23"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="3">
+        <v>6.9822350000000002</v>
+      </c>
+      <c r="H13" s="23"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="3">
+        <v>70.608731000000006</v>
+      </c>
+      <c r="K13" s="23"/>
+      <c r="L13" s="9"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A14" s="3">
+        <v>5.3210000000000002E-3</v>
+      </c>
+      <c r="B14" s="23"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="3">
+        <v>4.4922999999999998E-2</v>
+      </c>
+      <c r="E14" s="23"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="3">
+        <v>6.9757400000000001</v>
+      </c>
+      <c r="H14" s="23"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="3">
+        <v>70.615801000000005</v>
+      </c>
+      <c r="K14" s="23"/>
+      <c r="L14" s="9"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15" s="3">
+        <v>8.0549999999999997E-3</v>
+      </c>
+      <c r="B15" s="24"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="3">
+        <v>4.4546000000000002E-2</v>
+      </c>
+      <c r="E15" s="24"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="3">
+        <v>6.9792899999999998</v>
+      </c>
+      <c r="H15" s="24"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="3">
+        <v>70.358773999999997</v>
+      </c>
+      <c r="K15" s="24"/>
+      <c r="L15" s="10"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A17" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="L18" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A19" s="3">
+        <v>5.0650000000000001E-3</v>
+      </c>
+      <c r="B19" s="22">
+        <f>AVERAGE(A19:A23)</f>
+        <v>5.3268000000000005E-3</v>
+      </c>
+      <c r="C19" s="8">
+        <f>B3/B19</f>
+        <v>1.2200946159044828</v>
+      </c>
+      <c r="D19" s="3">
+        <v>7.0934999999999998E-2</v>
+      </c>
+      <c r="E19" s="22">
+        <f>AVERAGE(D19:D23)</f>
+        <v>5.1336400000000004E-2</v>
+      </c>
+      <c r="F19" s="8">
+        <f>D3/E19</f>
+        <v>0.96186721312752732</v>
+      </c>
+      <c r="G19" s="3">
+        <v>2.459006</v>
+      </c>
+      <c r="H19" s="22">
+        <f>AVERAGE(G19:G23)</f>
+        <v>2.7577574</v>
+      </c>
+      <c r="I19" s="8">
+        <f>F3/H19</f>
+        <v>0.86742727986152812</v>
+      </c>
+      <c r="J19" s="3">
+        <v>28.602495000000001</v>
+      </c>
+      <c r="K19" s="22">
+        <f>AVERAGE(J19:J23)</f>
+        <v>28.852312200000007</v>
+      </c>
+      <c r="L19" s="8">
+        <f>H3/K19</f>
+        <v>0.82813942377900629</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A20" s="3">
+        <v>4.8089999999999999E-3</v>
+      </c>
+      <c r="B20" s="23"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="3">
+        <v>5.6291000000000001E-2</v>
+      </c>
+      <c r="E20" s="23"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="3">
+        <v>2.66601</v>
+      </c>
+      <c r="H20" s="23"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="3">
+        <v>29.142741999999998</v>
+      </c>
+      <c r="K20" s="23"/>
+      <c r="L20" s="9"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A21" s="3">
+        <v>7.4689999999999999E-3</v>
+      </c>
+      <c r="B21" s="23"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="3">
+        <v>4.5187999999999999E-2</v>
+      </c>
+      <c r="E21" s="23"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="3">
+        <v>2.9758619999999998</v>
+      </c>
+      <c r="H21" s="23"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="3">
+        <v>29.044014000000001</v>
+      </c>
+      <c r="K21" s="23"/>
+      <c r="L21" s="9"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A22" s="3">
+        <v>4.6540000000000002E-3</v>
+      </c>
+      <c r="B22" s="23"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="3">
+        <v>4.1925999999999998E-2</v>
+      </c>
+      <c r="E22" s="23"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="3">
+        <v>2.8659680000000001</v>
+      </c>
+      <c r="H22" s="23"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="3">
+        <v>28.845379999999999</v>
+      </c>
+      <c r="K22" s="23"/>
+      <c r="L22" s="9"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A23" s="3">
+        <v>4.6369999999999996E-3</v>
+      </c>
+      <c r="B23" s="24"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="3">
+        <v>4.2341999999999998E-2</v>
+      </c>
+      <c r="E23" s="24"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="3">
+        <v>2.8219409999999998</v>
+      </c>
+      <c r="H23" s="24"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="3">
+        <v>28.626930000000002</v>
+      </c>
+      <c r="K23" s="24"/>
+      <c r="L23" s="10"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I26" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="L26" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A27" s="3">
+        <v>8.1510000000000003E-3</v>
+      </c>
+      <c r="B27" s="22">
+        <f>AVERAGE(A27:A31)</f>
+        <v>7.2250000000000005E-3</v>
+      </c>
+      <c r="C27" s="8">
+        <f>B3/B27</f>
+        <v>0.89954325259515555</v>
+      </c>
+      <c r="D27" s="3">
+        <v>6.0809000000000002E-2</v>
+      </c>
+      <c r="E27" s="22">
+        <f>AVERAGE(D27:D31)</f>
+        <v>6.5335000000000004E-2</v>
+      </c>
+      <c r="F27" s="8">
+        <f>D3/E27</f>
+        <v>0.7557786791153287</v>
+      </c>
+      <c r="G27" s="3">
+        <v>2.307185</v>
+      </c>
+      <c r="H27" s="22">
+        <f>AVERAGE(G27:G31)</f>
+        <v>2.4575374000000001</v>
+      </c>
+      <c r="I27" s="8">
+        <f>F3/H27</f>
+        <v>0.97339474874319309</v>
+      </c>
+      <c r="J27" s="3">
+        <v>24.621490999999999</v>
+      </c>
+      <c r="K27" s="22">
+        <f>AVERAGE(J27:J31)</f>
+        <v>24.755043199999999</v>
+      </c>
+      <c r="L27" s="8">
+        <f>H3/K27</f>
+        <v>0.96520684722537675</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A28" s="3">
+        <v>5.2300000000000003E-3</v>
+      </c>
+      <c r="B28" s="23"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="3">
+        <v>7.2969000000000006E-2</v>
+      </c>
+      <c r="E28" s="23"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="3">
+        <v>2.5550850000000001</v>
+      </c>
+      <c r="H28" s="23"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="3">
+        <v>25.213107000000001</v>
+      </c>
+      <c r="K28" s="23"/>
+      <c r="L28" s="9"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A29" s="3">
+        <v>5.4780000000000002E-3</v>
+      </c>
+      <c r="B29" s="23"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="3">
+        <v>4.4544E-2</v>
+      </c>
+      <c r="E29" s="23"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="3">
+        <v>2.7868710000000001</v>
+      </c>
+      <c r="H29" s="23"/>
+      <c r="I29" s="9"/>
+      <c r="J29" s="3">
+        <v>24.876812000000001</v>
+      </c>
+      <c r="K29" s="23"/>
+      <c r="L29" s="9"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A30" s="3">
+        <v>8.5719999999999998E-3</v>
+      </c>
+      <c r="B30" s="23"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="3">
+        <v>7.3633000000000004E-2</v>
+      </c>
+      <c r="E30" s="23"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="3">
+        <v>2.4429029999999998</v>
+      </c>
+      <c r="H30" s="23"/>
+      <c r="I30" s="9"/>
+      <c r="J30" s="3">
+        <v>24.883980000000001</v>
+      </c>
+      <c r="K30" s="23"/>
+      <c r="L30" s="9"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A31" s="3">
+        <v>8.6940000000000003E-3</v>
+      </c>
+      <c r="B31" s="24"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="3">
+        <v>7.4719999999999995E-2</v>
+      </c>
+      <c r="E31" s="24"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="3">
+        <v>2.195643</v>
+      </c>
+      <c r="H31" s="24"/>
+      <c r="I31" s="10"/>
+      <c r="J31" s="3">
+        <v>24.179825999999998</v>
+      </c>
+      <c r="K31" s="24"/>
+      <c r="L31" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="32">
+    <mergeCell ref="A25:L25"/>
+    <mergeCell ref="B27:B31"/>
+    <mergeCell ref="C27:C31"/>
+    <mergeCell ref="E27:E31"/>
+    <mergeCell ref="F27:F31"/>
+    <mergeCell ref="H27:H31"/>
+    <mergeCell ref="I27:I31"/>
+    <mergeCell ref="K27:K31"/>
+    <mergeCell ref="L27:L31"/>
+    <mergeCell ref="L11:L15"/>
+    <mergeCell ref="A17:L17"/>
+    <mergeCell ref="B19:B23"/>
+    <mergeCell ref="C19:C23"/>
+    <mergeCell ref="E19:E23"/>
+    <mergeCell ref="F19:F23"/>
+    <mergeCell ref="H19:H23"/>
+    <mergeCell ref="I19:I23"/>
+    <mergeCell ref="K19:K23"/>
+    <mergeCell ref="L19:L23"/>
     <mergeCell ref="A9:L9"/>
+    <mergeCell ref="B11:B15"/>
+    <mergeCell ref="C11:C15"/>
+    <mergeCell ref="E11:E15"/>
+    <mergeCell ref="F11:F15"/>
+    <mergeCell ref="H11:H15"/>
+    <mergeCell ref="I11:I15"/>
+    <mergeCell ref="K11:K15"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="B3:B7"/>
     <mergeCell ref="D3:D7"/>
@@ -3285,16 +4047,4 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{118925EF-7105-47D2-92E9-828532FD1FFB}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/MPI/racunanje_ubrzanja_programa_mpi.xlsx
+++ b/MPI/racunanje_ubrzanja_programa_mpi.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saren\OneDrive\Documents\ETF\7. semestar\Multiprocesorski sistemi\GitHub_Domaci\Multiprocessing_Systems\MPI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFFCB1D9-13E9-4031-B41E-A4618D40C4AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E1032C4-AFCE-4617-A351-041B478C47A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{E700D36A-9AEC-48B1-B431-3A7C21838328}"/>
+    <workbookView minimized="1" xWindow="2616" yWindow="2616" windowWidth="18048" windowHeight="8676" xr2:uid="{E700D36A-9AEC-48B1-B431-3A7C21838328}"/>
   </bookViews>
   <sheets>
     <sheet name="Zadatak 1" sheetId="3" r:id="rId1"/>
@@ -248,7 +248,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -262,8 +262,26 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -280,30 +298,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -313,10 +307,13 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -328,10 +325,10 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -650,23 +647,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E507908-E47E-43FA-866F-ABBDC664C0C3}">
   <dimension ref="A1:L47"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="L47" sqref="L47"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
@@ -698,28 +695,28 @@
       <c r="A3" s="1">
         <v>2.859E-3</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="13">
         <f>AVERAGE(A3:A7)</f>
         <v>2.8677999999999998E-3</v>
       </c>
       <c r="C3" s="1">
         <v>9.2750000000000003E-3</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="13">
         <f>AVERAGE(C3:C7)</f>
         <v>9.2186000000000021E-3</v>
       </c>
       <c r="E3" s="1">
         <v>0.176201</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F3" s="13">
         <f>AVERAGE(E3:E7)</f>
         <v>0.17561979999999999</v>
       </c>
       <c r="G3" s="1">
         <v>4.1992710000000004</v>
       </c>
-      <c r="H3" s="8">
+      <c r="H3" s="14">
         <f>AVERAGE(G3:G7)</f>
         <v>4.1829993999999999</v>
       </c>
@@ -728,89 +725,89 @@
       <c r="A4" s="1">
         <v>2.872E-3</v>
       </c>
-      <c r="B4" s="7"/>
+      <c r="B4" s="13"/>
       <c r="C4" s="1">
         <v>1.0198E-2</v>
       </c>
-      <c r="D4" s="7"/>
+      <c r="D4" s="13"/>
       <c r="E4" s="1">
         <v>0.176263</v>
       </c>
-      <c r="F4" s="7"/>
+      <c r="F4" s="13"/>
       <c r="G4" s="1">
         <v>4.2012299999999998</v>
       </c>
-      <c r="H4" s="9"/>
+      <c r="H4" s="15"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>2.8570000000000002E-3</v>
       </c>
-      <c r="B5" s="7"/>
+      <c r="B5" s="13"/>
       <c r="C5" s="1">
         <v>9.7560000000000008E-3</v>
       </c>
-      <c r="D5" s="7"/>
+      <c r="D5" s="13"/>
       <c r="E5" s="1">
         <v>0.17635200000000001</v>
       </c>
-      <c r="F5" s="7"/>
+      <c r="F5" s="13"/>
       <c r="G5" s="1">
         <v>4.1154200000000003</v>
       </c>
-      <c r="H5" s="9"/>
+      <c r="H5" s="15"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>2.9009999999999999E-3</v>
       </c>
-      <c r="B6" s="7"/>
+      <c r="B6" s="13"/>
       <c r="C6" s="1">
         <v>8.5199999999999998E-3</v>
       </c>
-      <c r="D6" s="7"/>
+      <c r="D6" s="13"/>
       <c r="E6" s="1">
         <v>0.17640700000000001</v>
       </c>
-      <c r="F6" s="7"/>
+      <c r="F6" s="13"/>
       <c r="G6" s="1">
         <v>4.1990109999999996</v>
       </c>
-      <c r="H6" s="9"/>
+      <c r="H6" s="15"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>2.8500000000000001E-3</v>
       </c>
-      <c r="B7" s="7"/>
+      <c r="B7" s="13"/>
       <c r="C7" s="1">
         <v>8.3440000000000007E-3</v>
       </c>
-      <c r="D7" s="7"/>
+      <c r="D7" s="13"/>
       <c r="E7" s="1">
         <v>0.172876</v>
       </c>
-      <c r="F7" s="7"/>
+      <c r="F7" s="13"/>
       <c r="G7" s="1">
         <v>4.2000650000000004</v>
       </c>
-      <c r="H7" s="10"/>
+      <c r="H7" s="16"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
@@ -854,44 +851,44 @@
       <c r="A11" s="3">
         <v>6.9800000000000005E-4</v>
       </c>
-      <c r="B11" s="11">
+      <c r="B11" s="7">
         <f>AVERAGE(A11:A15)</f>
         <v>6.8980000000000007E-4</v>
       </c>
-      <c r="C11" s="15">
+      <c r="C11" s="8">
         <f>B3/B11</f>
         <v>4.1574369382429683</v>
       </c>
       <c r="D11" s="3">
         <v>1.0813E-2</v>
       </c>
-      <c r="E11" s="11">
+      <c r="E11" s="7">
         <f>AVERAGE(D11:D15)</f>
         <v>1.1069199999999998E-2</v>
       </c>
-      <c r="F11" s="12">
+      <c r="F11" s="9">
         <f>D3/E11</f>
         <v>0.83281537961189644</v>
       </c>
       <c r="G11" s="3">
         <v>0.206654</v>
       </c>
-      <c r="H11" s="11">
+      <c r="H11" s="7">
         <f>AVERAGE(G11:G15)</f>
         <v>0.21116679999999999</v>
       </c>
-      <c r="I11" s="12">
+      <c r="I11" s="9">
         <f>F3/H11</f>
         <v>0.83166387898097616</v>
       </c>
       <c r="J11" s="3">
         <v>4.5652889999999999</v>
       </c>
-      <c r="K11" s="11">
+      <c r="K11" s="7">
         <f>AVERAGE(J11:J15)</f>
         <v>4.6684320000000001</v>
       </c>
-      <c r="L11" s="12">
+      <c r="L11" s="9">
         <f>H3/K11</f>
         <v>0.89601806345256818</v>
       </c>
@@ -900,139 +897,139 @@
       <c r="A12" s="3">
         <v>6.7500000000000004E-4</v>
       </c>
-      <c r="B12" s="11"/>
-      <c r="C12" s="15"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="8"/>
       <c r="D12" s="3">
         <v>1.1304E-2</v>
       </c>
-      <c r="E12" s="11"/>
-      <c r="F12" s="13"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="10"/>
       <c r="G12" s="3">
         <v>0.20962600000000001</v>
       </c>
-      <c r="H12" s="11"/>
-      <c r="I12" s="13"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="10"/>
       <c r="J12" s="3">
         <v>4.6637890000000004</v>
       </c>
-      <c r="K12" s="11"/>
-      <c r="L12" s="13"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="10"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>6.8000000000000005E-4</v>
       </c>
-      <c r="B13" s="11"/>
-      <c r="C13" s="15"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="8"/>
       <c r="D13" s="3">
         <v>1.1237E-2</v>
       </c>
-      <c r="E13" s="11"/>
-      <c r="F13" s="13"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="10"/>
       <c r="G13" s="3">
         <v>0.21007999999999999</v>
       </c>
-      <c r="H13" s="11"/>
-      <c r="I13" s="13"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="10"/>
       <c r="J13" s="3">
         <v>4.674715</v>
       </c>
-      <c r="K13" s="11"/>
-      <c r="L13" s="13"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="10"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>6.9300000000000004E-4</v>
       </c>
-      <c r="B14" s="11"/>
-      <c r="C14" s="15"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="8"/>
       <c r="D14" s="3">
         <v>1.0857E-2</v>
       </c>
-      <c r="E14" s="11"/>
-      <c r="F14" s="13"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="10"/>
       <c r="G14" s="3">
         <v>0.21654999999999999</v>
       </c>
-      <c r="H14" s="11"/>
-      <c r="I14" s="13"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="10"/>
       <c r="J14" s="3">
         <v>4.6830360000000004</v>
       </c>
-      <c r="K14" s="11"/>
-      <c r="L14" s="13"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="10"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>7.0299999999999996E-4</v>
       </c>
-      <c r="B15" s="11"/>
-      <c r="C15" s="15"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="8"/>
       <c r="D15" s="3">
         <v>1.1135000000000001E-2</v>
       </c>
-      <c r="E15" s="11"/>
-      <c r="F15" s="14"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="11"/>
       <c r="G15" s="3">
         <v>0.212924</v>
       </c>
-      <c r="H15" s="11"/>
-      <c r="I15" s="14"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="11"/>
       <c r="J15" s="3">
         <v>4.755331</v>
       </c>
-      <c r="K15" s="11"/>
-      <c r="L15" s="14"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="11"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A17" s="27"/>
-      <c r="B17" s="28">
+      <c r="A17" s="5"/>
+      <c r="B17" s="5">
         <v>4.9799999999999996E-4</v>
       </c>
-      <c r="C17" s="28">
+      <c r="C17" s="5">
         <f>B3/B17</f>
         <v>5.7586345381526103</v>
       </c>
-      <c r="D17" s="27"/>
-      <c r="E17" s="27">
+      <c r="D17" s="5"/>
+      <c r="E17" s="5">
         <v>8.4860000000000005E-3</v>
       </c>
-      <c r="F17" s="27">
+      <c r="F17" s="5">
         <f>D3/E17</f>
         <v>1.0863304265849636</v>
       </c>
-      <c r="G17" s="27"/>
-      <c r="H17" s="27">
+      <c r="G17" s="5"/>
+      <c r="H17" s="5">
         <v>0.178068</v>
       </c>
-      <c r="I17" s="27">
+      <c r="I17" s="5">
         <f>F3/H17</f>
         <v>0.98625131972055613</v>
       </c>
-      <c r="J17" s="27"/>
-      <c r="K17" s="27">
+      <c r="J17" s="5"/>
+      <c r="K17" s="5">
         <v>4.2223829999999998</v>
       </c>
-      <c r="L17" s="27">
+      <c r="L17" s="5">
         <f>H3/K17</f>
         <v>0.99067266043843016</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
@@ -1076,44 +1073,44 @@
       <c r="A21" s="3">
         <v>6.1600000000000001E-4</v>
       </c>
-      <c r="B21" s="11">
+      <c r="B21" s="7">
         <f>AVERAGE(A21:A25)</f>
         <v>5.4779999999999998E-4</v>
       </c>
-      <c r="C21" s="15">
+      <c r="C21" s="8">
         <f>B3/B21</f>
         <v>5.2351223074114639</v>
       </c>
       <c r="D21" s="3">
         <v>6.2249999999999996E-3</v>
       </c>
-      <c r="E21" s="11">
+      <c r="E21" s="7">
         <f>AVERAGE(D21:D25)</f>
         <v>6.4689999999999999E-3</v>
       </c>
-      <c r="F21" s="12">
+      <c r="F21" s="9">
         <f>D3/E21</f>
         <v>1.4250425104343798</v>
       </c>
       <c r="G21" s="3">
         <v>0.14038600000000001</v>
       </c>
-      <c r="H21" s="11">
+      <c r="H21" s="7">
         <f>AVERAGE(G21:G25)</f>
         <v>0.12656260000000003</v>
       </c>
-      <c r="I21" s="12">
+      <c r="I21" s="9">
         <f>F3/H21</f>
         <v>1.3876121381830016</v>
       </c>
       <c r="J21" s="3">
         <v>2.786152</v>
       </c>
-      <c r="K21" s="11">
+      <c r="K21" s="7">
         <f>AVERAGE(J21:J25)</f>
         <v>2.8426081999999999</v>
       </c>
-      <c r="L21" s="12">
+      <c r="L21" s="9">
         <f>H3/K21</f>
         <v>1.4715356833206912</v>
       </c>
@@ -1122,89 +1119,89 @@
       <c r="A22" s="3">
         <v>6.0499999999999996E-4</v>
       </c>
-      <c r="B22" s="11"/>
-      <c r="C22" s="15"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="8"/>
       <c r="D22" s="3">
         <v>6.5729999999999998E-3</v>
       </c>
-      <c r="E22" s="11"/>
-      <c r="F22" s="13"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="10"/>
       <c r="G22" s="3">
         <v>0.121653</v>
       </c>
-      <c r="H22" s="11"/>
-      <c r="I22" s="13"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="10"/>
       <c r="J22" s="3">
         <v>2.7959390000000002</v>
       </c>
-      <c r="K22" s="11"/>
-      <c r="L22" s="13"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="10"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>4.8899999999999996E-4</v>
       </c>
-      <c r="B23" s="11"/>
-      <c r="C23" s="15"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="8"/>
       <c r="D23" s="3">
         <v>6.4190000000000002E-3</v>
       </c>
-      <c r="E23" s="11"/>
-      <c r="F23" s="13"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="10"/>
       <c r="G23" s="3">
         <v>0.12253799999999999</v>
       </c>
-      <c r="H23" s="11"/>
-      <c r="I23" s="13"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="10"/>
       <c r="J23" s="3">
         <v>2.8313739999999998</v>
       </c>
-      <c r="K23" s="11"/>
-      <c r="L23" s="13"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="10"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>5.1599999999999997E-4</v>
       </c>
-      <c r="B24" s="11"/>
-      <c r="C24" s="15"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="8"/>
       <c r="D24" s="3">
         <v>6.3420000000000004E-3</v>
       </c>
-      <c r="E24" s="11"/>
-      <c r="F24" s="13"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="10"/>
       <c r="G24" s="3">
         <v>0.124524</v>
       </c>
-      <c r="H24" s="11"/>
-      <c r="I24" s="13"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="10"/>
       <c r="J24" s="3">
         <v>2.8770509999999998</v>
       </c>
-      <c r="K24" s="11"/>
-      <c r="L24" s="13"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="10"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <v>5.13E-4</v>
       </c>
-      <c r="B25" s="11"/>
-      <c r="C25" s="15"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="8"/>
       <c r="D25" s="3">
         <v>6.7860000000000004E-3</v>
       </c>
-      <c r="E25" s="11"/>
-      <c r="F25" s="14"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="11"/>
       <c r="G25" s="3">
         <v>0.123712</v>
       </c>
-      <c r="H25" s="11"/>
-      <c r="I25" s="14"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="11"/>
       <c r="J25" s="3">
         <v>2.9225249999999998</v>
       </c>
-      <c r="K25" s="11"/>
-      <c r="L25" s="14"/>
+      <c r="K25" s="7"/>
+      <c r="L25" s="11"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B27">
@@ -1237,20 +1234,20 @@
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A29" s="5" t="s">
+      <c r="A29" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
-      <c r="J29" s="5"/>
-      <c r="K29" s="5"/>
-      <c r="L29" s="5"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="6"/>
+      <c r="K29" s="6"/>
+      <c r="L29" s="6"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
@@ -1294,44 +1291,44 @@
       <c r="A31" s="3">
         <v>5.04E-4</v>
       </c>
-      <c r="B31" s="11">
+      <c r="B31" s="7">
         <f>AVERAGE(A31:A35)</f>
         <v>4.4439999999999991E-4</v>
       </c>
-      <c r="C31" s="15">
+      <c r="C31" s="8">
         <f>B3/B31</f>
         <v>6.4531953195319538</v>
       </c>
       <c r="D31" s="3">
         <v>3.692E-3</v>
       </c>
-      <c r="E31" s="11">
+      <c r="E31" s="7">
         <f>AVERAGE(D31:D35)</f>
         <v>4.3686000000000003E-3</v>
       </c>
-      <c r="F31" s="12">
+      <c r="F31" s="9">
         <f>D3/E31</f>
         <v>2.110195485968045</v>
       </c>
       <c r="G31" s="3">
         <v>6.8218000000000001E-2</v>
       </c>
-      <c r="H31" s="11">
+      <c r="H31" s="7">
         <f>AVERAGE(G31:G35)</f>
         <v>7.5724000000000014E-2</v>
       </c>
-      <c r="I31" s="12">
+      <c r="I31" s="9">
         <f>F3/H31</f>
         <v>2.3192092335323009</v>
       </c>
       <c r="J31" s="3">
         <v>1.5362549999999999</v>
       </c>
-      <c r="K31" s="11">
+      <c r="K31" s="7">
         <f>AVERAGE(J31:J35)</f>
         <v>1.6117066000000002</v>
       </c>
-      <c r="L31" s="12">
+      <c r="L31" s="9">
         <f>H3/K31</f>
         <v>2.595385165017007</v>
       </c>
@@ -1340,89 +1337,89 @@
       <c r="A32" s="3">
         <v>3.8099999999999999E-4</v>
       </c>
-      <c r="B32" s="11"/>
-      <c r="C32" s="15"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="8"/>
       <c r="D32" s="3">
         <v>4.3299999999999996E-3</v>
       </c>
-      <c r="E32" s="11"/>
-      <c r="F32" s="13"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="10"/>
       <c r="G32" s="3">
         <v>6.9427000000000003E-2</v>
       </c>
-      <c r="H32" s="11"/>
-      <c r="I32" s="13"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="10"/>
       <c r="J32" s="3">
         <v>1.5048840000000001</v>
       </c>
-      <c r="K32" s="11"/>
-      <c r="L32" s="13"/>
+      <c r="K32" s="7"/>
+      <c r="L32" s="10"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" s="3">
         <v>3.9800000000000002E-4</v>
       </c>
-      <c r="B33" s="11"/>
-      <c r="C33" s="15"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="8"/>
       <c r="D33" s="3">
         <v>4.908E-3</v>
       </c>
-      <c r="E33" s="11"/>
-      <c r="F33" s="13"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="10"/>
       <c r="G33" s="3">
         <v>0.100582</v>
       </c>
-      <c r="H33" s="11"/>
-      <c r="I33" s="13"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="10"/>
       <c r="J33" s="3">
         <v>1.5909089999999999</v>
       </c>
-      <c r="K33" s="11"/>
-      <c r="L33" s="13"/>
+      <c r="K33" s="7"/>
+      <c r="L33" s="10"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
         <v>4.4999999999999999E-4</v>
       </c>
-      <c r="B34" s="11"/>
-      <c r="C34" s="15"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="8"/>
       <c r="D34" s="3">
         <v>5.3270000000000001E-3</v>
       </c>
-      <c r="E34" s="11"/>
-      <c r="F34" s="13"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="10"/>
       <c r="G34" s="3">
         <v>6.6267000000000006E-2</v>
       </c>
-      <c r="H34" s="11"/>
-      <c r="I34" s="13"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="10"/>
       <c r="J34" s="3">
         <v>1.715792</v>
       </c>
-      <c r="K34" s="11"/>
-      <c r="L34" s="13"/>
+      <c r="K34" s="7"/>
+      <c r="L34" s="10"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" s="3">
         <v>4.8899999999999996E-4</v>
       </c>
-      <c r="B35" s="11"/>
-      <c r="C35" s="15"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="8"/>
       <c r="D35" s="3">
         <v>3.5860000000000002E-3</v>
       </c>
-      <c r="E35" s="11"/>
-      <c r="F35" s="14"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="11"/>
       <c r="G35" s="3">
         <v>7.4125999999999997E-2</v>
       </c>
-      <c r="H35" s="11"/>
-      <c r="I35" s="14"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="11"/>
       <c r="J35" s="3">
         <v>1.710693</v>
       </c>
-      <c r="K35" s="11"/>
-      <c r="L35" s="14"/>
+      <c r="K35" s="7"/>
+      <c r="L35" s="11"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B37">
@@ -1455,20 +1452,20 @@
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A39" s="5" t="s">
+      <c r="A39" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B39" s="5"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="5"/>
-      <c r="E39" s="5"/>
-      <c r="F39" s="5"/>
-      <c r="G39" s="5"/>
-      <c r="H39" s="5"/>
-      <c r="I39" s="5"/>
-      <c r="J39" s="5"/>
-      <c r="K39" s="5"/>
-      <c r="L39" s="5"/>
+      <c r="B39" s="6"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="6"/>
+      <c r="H39" s="6"/>
+      <c r="I39" s="6"/>
+      <c r="J39" s="6"/>
+      <c r="K39" s="6"/>
+      <c r="L39" s="6"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40" s="3">
@@ -1512,44 +1509,44 @@
       <c r="A41" s="3">
         <v>4.5199999999999998E-4</v>
       </c>
-      <c r="B41" s="11">
+      <c r="B41" s="7">
         <f>AVERAGE(A41:A45)</f>
         <v>4.6160000000000005E-4</v>
       </c>
-      <c r="C41" s="15">
+      <c r="C41" s="8">
         <f>B3/B41</f>
         <v>6.2127383015597912</v>
       </c>
       <c r="D41" s="3">
         <v>3.0070000000000001E-3</v>
       </c>
-      <c r="E41" s="11">
+      <c r="E41" s="7">
         <f>AVERAGE(D41:D45)</f>
         <v>2.7066E-3</v>
       </c>
-      <c r="F41" s="12">
+      <c r="F41" s="9">
         <f>D3/E41</f>
         <v>3.4059705904086317</v>
       </c>
       <c r="G41" s="3">
         <v>5.9722999999999998E-2</v>
       </c>
-      <c r="H41" s="11">
+      <c r="H41" s="7">
         <f>AVERAGE(G41:G45)</f>
         <v>5.3711600000000005E-2</v>
       </c>
-      <c r="I41" s="12">
+      <c r="I41" s="9">
         <f>F3/H41</f>
         <v>3.2696810372433509</v>
       </c>
       <c r="J41" s="3">
         <v>1.1083529999999999</v>
       </c>
-      <c r="K41" s="11">
+      <c r="K41" s="7">
         <f>AVERAGE(J41:J45)</f>
         <v>1.0822175999999999</v>
       </c>
-      <c r="L41" s="12">
+      <c r="L41" s="9">
         <f>H3/K41</f>
         <v>3.8652110259526369</v>
       </c>
@@ -1558,89 +1555,89 @@
       <c r="A42" s="3">
         <v>4.5300000000000001E-4</v>
       </c>
-      <c r="B42" s="11"/>
-      <c r="C42" s="15"/>
+      <c r="B42" s="7"/>
+      <c r="C42" s="8"/>
       <c r="D42" s="3">
         <v>2.4359999999999998E-3</v>
       </c>
-      <c r="E42" s="11"/>
-      <c r="F42" s="13"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="10"/>
       <c r="G42" s="3">
         <v>4.4310000000000002E-2</v>
       </c>
-      <c r="H42" s="11"/>
-      <c r="I42" s="13"/>
+      <c r="H42" s="7"/>
+      <c r="I42" s="10"/>
       <c r="J42" s="3">
         <v>0.86892100000000005</v>
       </c>
-      <c r="K42" s="11"/>
-      <c r="L42" s="13"/>
+      <c r="K42" s="7"/>
+      <c r="L42" s="10"/>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43" s="3">
         <v>4.66E-4</v>
       </c>
-      <c r="B43" s="11"/>
-      <c r="C43" s="15"/>
+      <c r="B43" s="7"/>
+      <c r="C43" s="8"/>
       <c r="D43" s="3">
         <v>2.294E-3</v>
       </c>
-      <c r="E43" s="11"/>
-      <c r="F43" s="13"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="10"/>
       <c r="G43" s="3">
         <v>5.0810000000000001E-2</v>
       </c>
-      <c r="H43" s="11"/>
-      <c r="I43" s="13"/>
+      <c r="H43" s="7"/>
+      <c r="I43" s="10"/>
       <c r="J43" s="3">
         <v>1.050233</v>
       </c>
-      <c r="K43" s="11"/>
-      <c r="L43" s="13"/>
+      <c r="K43" s="7"/>
+      <c r="L43" s="10"/>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44" s="3">
         <v>4.3199999999999998E-4</v>
       </c>
-      <c r="B44" s="11"/>
-      <c r="C44" s="15"/>
+      <c r="B44" s="7"/>
+      <c r="C44" s="8"/>
       <c r="D44" s="3">
         <v>2.6549999999999998E-3</v>
       </c>
-      <c r="E44" s="11"/>
-      <c r="F44" s="13"/>
+      <c r="E44" s="7"/>
+      <c r="F44" s="10"/>
       <c r="G44" s="3">
         <v>5.8358E-2</v>
       </c>
-      <c r="H44" s="11"/>
-      <c r="I44" s="13"/>
+      <c r="H44" s="7"/>
+      <c r="I44" s="10"/>
       <c r="J44" s="3">
         <v>1.09981</v>
       </c>
-      <c r="K44" s="11"/>
-      <c r="L44" s="13"/>
+      <c r="K44" s="7"/>
+      <c r="L44" s="10"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45" s="3">
         <v>5.0500000000000002E-4</v>
       </c>
-      <c r="B45" s="11"/>
-      <c r="C45" s="15"/>
+      <c r="B45" s="7"/>
+      <c r="C45" s="8"/>
       <c r="D45" s="3">
         <v>3.1410000000000001E-3</v>
       </c>
-      <c r="E45" s="11"/>
-      <c r="F45" s="14"/>
+      <c r="E45" s="7"/>
+      <c r="F45" s="11"/>
       <c r="G45" s="3">
         <v>5.5357000000000003E-2</v>
       </c>
-      <c r="H45" s="11"/>
-      <c r="I45" s="14"/>
+      <c r="H45" s="7"/>
+      <c r="I45" s="11"/>
       <c r="J45" s="3">
         <v>1.283771</v>
       </c>
-      <c r="K45" s="11"/>
-      <c r="L45" s="14"/>
+      <c r="K45" s="7"/>
+      <c r="L45" s="11"/>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B47">
@@ -1674,25 +1671,12 @@
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="A39:L39"/>
-    <mergeCell ref="B41:B45"/>
-    <mergeCell ref="C41:C45"/>
-    <mergeCell ref="E41:E45"/>
-    <mergeCell ref="F41:F45"/>
-    <mergeCell ref="H41:H45"/>
-    <mergeCell ref="I41:I45"/>
-    <mergeCell ref="K41:K45"/>
-    <mergeCell ref="L41:L45"/>
-    <mergeCell ref="L21:L25"/>
-    <mergeCell ref="A29:L29"/>
-    <mergeCell ref="B31:B35"/>
-    <mergeCell ref="C31:C35"/>
-    <mergeCell ref="E31:E35"/>
-    <mergeCell ref="F31:F35"/>
-    <mergeCell ref="H31:H35"/>
-    <mergeCell ref="I31:I35"/>
-    <mergeCell ref="K31:K35"/>
-    <mergeCell ref="L31:L35"/>
+    <mergeCell ref="A9:L9"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="B3:B7"/>
+    <mergeCell ref="D3:D7"/>
+    <mergeCell ref="F3:F7"/>
+    <mergeCell ref="H3:H7"/>
     <mergeCell ref="K11:K15"/>
     <mergeCell ref="L11:L15"/>
     <mergeCell ref="A19:L19"/>
@@ -1709,12 +1693,25 @@
     <mergeCell ref="F11:F15"/>
     <mergeCell ref="H11:H15"/>
     <mergeCell ref="I11:I15"/>
-    <mergeCell ref="A9:L9"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="B3:B7"/>
-    <mergeCell ref="D3:D7"/>
-    <mergeCell ref="F3:F7"/>
-    <mergeCell ref="H3:H7"/>
+    <mergeCell ref="L21:L25"/>
+    <mergeCell ref="A29:L29"/>
+    <mergeCell ref="B31:B35"/>
+    <mergeCell ref="C31:C35"/>
+    <mergeCell ref="E31:E35"/>
+    <mergeCell ref="F31:F35"/>
+    <mergeCell ref="H31:H35"/>
+    <mergeCell ref="I31:I35"/>
+    <mergeCell ref="K31:K35"/>
+    <mergeCell ref="L31:L35"/>
+    <mergeCell ref="A39:L39"/>
+    <mergeCell ref="B41:B45"/>
+    <mergeCell ref="C41:C45"/>
+    <mergeCell ref="E41:E45"/>
+    <mergeCell ref="F41:F45"/>
+    <mergeCell ref="H41:H45"/>
+    <mergeCell ref="I41:I45"/>
+    <mergeCell ref="K41:K45"/>
+    <mergeCell ref="L41:L45"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1724,24 +1721,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7851D13-C089-4E79-B982-DBF5982D0E6F}">
   <dimension ref="A1:I47"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="O45" sqref="O45"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="8.88671875" style="27"/>
+    <col min="1" max="16384" width="8.88671875" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="18"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="22"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
@@ -1767,21 +1764,21 @@
       <c r="A3" s="1">
         <v>1.438E-3</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="13">
         <f>AVERAGE(A3:A7)</f>
         <v>1.9784000000000004E-3</v>
       </c>
       <c r="C3" s="1">
         <v>2.1944000000000002E-2</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="13">
         <f>AVERAGE(C3:C7)</f>
         <v>2.25554E-2</v>
       </c>
       <c r="E3" s="1">
         <v>2.4267289999999999</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F3" s="13">
         <f>AVERAGE(E3:E7)</f>
         <v>2.2378609999999997</v>
       </c>
@@ -1790,70 +1787,70 @@
       <c r="A4" s="1">
         <v>1.317E-3</v>
       </c>
-      <c r="B4" s="7"/>
+      <c r="B4" s="13"/>
       <c r="C4" s="1">
         <v>2.9302000000000002E-2</v>
       </c>
-      <c r="D4" s="7"/>
+      <c r="D4" s="13"/>
       <c r="E4" s="1">
         <v>1.8761060000000001</v>
       </c>
-      <c r="F4" s="7"/>
+      <c r="F4" s="13"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3.32E-3</v>
       </c>
-      <c r="B5" s="7"/>
+      <c r="B5" s="13"/>
       <c r="C5" s="1">
         <v>2.3130000000000001E-2</v>
       </c>
-      <c r="D5" s="7"/>
+      <c r="D5" s="13"/>
       <c r="E5" s="1">
         <v>2.4563670000000002</v>
       </c>
-      <c r="F5" s="7"/>
+      <c r="F5" s="13"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>1.47E-3</v>
       </c>
-      <c r="B6" s="7"/>
+      <c r="B6" s="13"/>
       <c r="C6" s="1">
         <v>1.6910000000000001E-2</v>
       </c>
-      <c r="D6" s="7"/>
+      <c r="D6" s="13"/>
       <c r="E6" s="1">
         <v>2.0546519999999999</v>
       </c>
-      <c r="F6" s="7"/>
+      <c r="F6" s="13"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>2.3470000000000001E-3</v>
       </c>
-      <c r="B7" s="7"/>
+      <c r="B7" s="13"/>
       <c r="C7" s="1">
         <v>2.1491E-2</v>
       </c>
-      <c r="D7" s="7"/>
+      <c r="D7" s="13"/>
       <c r="E7" s="1">
         <v>2.375451</v>
       </c>
-      <c r="F7" s="7"/>
+      <c r="F7" s="13"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="20"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="21"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="19"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
@@ -1888,33 +1885,33 @@
       <c r="A11" s="3">
         <v>6.4700000000000001E-4</v>
       </c>
-      <c r="B11" s="11">
+      <c r="B11" s="7">
         <f>AVERAGE(A11:A15)</f>
         <v>5.9120000000000006E-4</v>
       </c>
-      <c r="C11" s="15">
+      <c r="C11" s="8">
         <f>B3/B11</f>
         <v>3.3464140730717187</v>
       </c>
       <c r="D11" s="3">
         <v>3.3813999999999997E-2</v>
       </c>
-      <c r="E11" s="11">
+      <c r="E11" s="7">
         <f>AVERAGE(D11:D15)</f>
         <v>2.8969399999999999E-2</v>
       </c>
-      <c r="F11" s="12">
+      <c r="F11" s="9">
         <f>D3/E11</f>
         <v>0.77859396466616504</v>
       </c>
       <c r="G11" s="3">
         <v>1.9461379999999999</v>
       </c>
-      <c r="H11" s="11">
+      <c r="H11" s="7">
         <f>AVERAGE(G11:G15)</f>
         <v>2.1034044000000001</v>
       </c>
-      <c r="I11" s="12">
+      <c r="I11" s="9">
         <f>F3/H11</f>
         <v>1.0639233235415879</v>
       </c>
@@ -1923,105 +1920,105 @@
       <c r="A12" s="3">
         <v>5.7899999999999998E-4</v>
       </c>
-      <c r="B12" s="11"/>
-      <c r="C12" s="15"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="8"/>
       <c r="D12" s="3">
         <v>2.0060999999999999E-2</v>
       </c>
-      <c r="E12" s="11"/>
-      <c r="F12" s="13"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="10"/>
       <c r="G12" s="3">
         <v>2.0668820000000001</v>
       </c>
-      <c r="H12" s="11"/>
-      <c r="I12" s="13"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="10"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>5.1500000000000005E-4</v>
       </c>
-      <c r="B13" s="11"/>
-      <c r="C13" s="15"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="8"/>
       <c r="D13" s="3">
         <v>2.4271999999999998E-2</v>
       </c>
-      <c r="E13" s="11"/>
-      <c r="F13" s="13"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="10"/>
       <c r="G13" s="3">
         <v>2.3161109999999998</v>
       </c>
-      <c r="H13" s="11"/>
-      <c r="I13" s="13"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="10"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>5.8100000000000003E-4</v>
       </c>
-      <c r="B14" s="11"/>
-      <c r="C14" s="15"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="8"/>
       <c r="D14" s="3">
         <v>4.6851999999999998E-2</v>
       </c>
-      <c r="E14" s="11"/>
-      <c r="F14" s="13"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="10"/>
       <c r="G14" s="3">
         <v>1.861777</v>
       </c>
-      <c r="H14" s="11"/>
-      <c r="I14" s="13"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="10"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>6.3400000000000001E-4</v>
       </c>
-      <c r="B15" s="11"/>
-      <c r="C15" s="15"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="8"/>
       <c r="D15" s="3">
         <v>1.9848000000000001E-2</v>
       </c>
-      <c r="E15" s="11"/>
-      <c r="F15" s="14"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="11"/>
       <c r="G15" s="3">
         <v>2.326114</v>
       </c>
-      <c r="H15" s="11"/>
-      <c r="I15" s="14"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="11"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B17" s="27">
+      <c r="B17" s="5">
         <v>5.1699999999999999E-4</v>
       </c>
-      <c r="C17" s="27">
+      <c r="C17" s="5">
         <f>B3/B17</f>
         <v>3.8266924564796914</v>
       </c>
-      <c r="E17" s="27">
+      <c r="E17" s="5">
         <v>2.2440999999999999E-2</v>
       </c>
-      <c r="F17" s="27">
+      <c r="F17" s="5">
         <f>D3/E17</f>
         <v>1.0050978120404617</v>
       </c>
-      <c r="H17" s="27">
+      <c r="H17" s="5">
         <v>2.2003170000000001</v>
       </c>
-      <c r="I17" s="27">
+      <c r="I17" s="5">
         <f>F3/H17</f>
         <v>1.0170629959228601</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="19" t="s">
+      <c r="A19" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B19" s="20"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="20"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="20"/>
-      <c r="H19" s="20"/>
-      <c r="I19" s="21"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="19"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
@@ -2056,33 +2053,33 @@
       <c r="A21" s="3">
         <v>9.6699999999999998E-4</v>
       </c>
-      <c r="B21" s="11">
+      <c r="B21" s="7">
         <f>AVERAGE(A21:A25)</f>
         <v>1.1560000000000001E-3</v>
       </c>
-      <c r="C21" s="15">
+      <c r="C21" s="8">
         <f>B3/B21</f>
         <v>1.7114186851211075</v>
       </c>
       <c r="D21" s="3">
         <v>2.6647000000000001E-2</v>
       </c>
-      <c r="E21" s="11">
+      <c r="E21" s="7">
         <f>AVERAGE(D21:D25)</f>
         <v>2.07402E-2</v>
       </c>
-      <c r="F21" s="12">
+      <c r="F21" s="9">
         <f>D3/E21</f>
         <v>1.0875208532222447</v>
       </c>
       <c r="G21" s="3">
         <v>1.5159940000000001</v>
       </c>
-      <c r="H21" s="11">
+      <c r="H21" s="7">
         <f>AVERAGE(G21:G25)</f>
         <v>1.572173</v>
       </c>
-      <c r="I21" s="12">
+      <c r="I21" s="9">
         <f>F3/H21</f>
         <v>1.423419051211285</v>
       </c>
@@ -2091,105 +2088,105 @@
       <c r="A22" s="3">
         <v>9.2000000000000003E-4</v>
       </c>
-      <c r="B22" s="11"/>
-      <c r="C22" s="15"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="8"/>
       <c r="D22" s="3">
         <v>2.4121E-2</v>
       </c>
-      <c r="E22" s="11"/>
-      <c r="F22" s="13"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="10"/>
       <c r="G22" s="3">
         <v>1.2644839999999999</v>
       </c>
-      <c r="H22" s="11"/>
-      <c r="I22" s="13"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="10"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>1.3090000000000001E-3</v>
       </c>
-      <c r="B23" s="11"/>
-      <c r="C23" s="15"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="8"/>
       <c r="D23" s="3">
         <v>2.0069E-2</v>
       </c>
-      <c r="E23" s="11"/>
-      <c r="F23" s="13"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="10"/>
       <c r="G23" s="3">
         <v>1.659119</v>
       </c>
-      <c r="H23" s="11"/>
-      <c r="I23" s="13"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="10"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>1.263E-3</v>
       </c>
-      <c r="B24" s="11"/>
-      <c r="C24" s="15"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="8"/>
       <c r="D24" s="3">
         <v>1.7649999999999999E-2</v>
       </c>
-      <c r="E24" s="11"/>
-      <c r="F24" s="13"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="10"/>
       <c r="G24" s="3">
         <v>2.3957220000000001</v>
       </c>
-      <c r="H24" s="11"/>
-      <c r="I24" s="13"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="10"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <v>1.3209999999999999E-3</v>
       </c>
-      <c r="B25" s="11"/>
-      <c r="C25" s="15"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="8"/>
       <c r="D25" s="3">
         <v>1.5214E-2</v>
       </c>
-      <c r="E25" s="11"/>
-      <c r="F25" s="14"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="11"/>
       <c r="G25" s="3">
         <v>1.0255460000000001</v>
       </c>
-      <c r="H25" s="11"/>
-      <c r="I25" s="14"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="11"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B27" s="27">
+      <c r="B27" s="5">
         <v>1.062E-3</v>
       </c>
-      <c r="C27" s="27">
+      <c r="C27" s="5">
         <f>B3/B27</f>
         <v>1.8629001883239176</v>
       </c>
-      <c r="E27" s="27">
+      <c r="E27" s="5">
         <v>1.5445E-2</v>
       </c>
-      <c r="F27" s="27">
+      <c r="F27" s="5">
         <f>D3/E27</f>
         <v>1.4603690514729686</v>
       </c>
-      <c r="H27" s="27">
+      <c r="H27" s="5">
         <v>1.1726350000000001</v>
       </c>
-      <c r="I27" s="27">
+      <c r="I27" s="5">
         <f>F3/H27</f>
         <v>1.9084037232386886</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A29" s="19" t="s">
+      <c r="A29" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B29" s="20"/>
-      <c r="C29" s="20"/>
-      <c r="D29" s="20"/>
-      <c r="E29" s="20"/>
-      <c r="F29" s="20"/>
-      <c r="G29" s="20"/>
-      <c r="H29" s="20"/>
-      <c r="I29" s="21"/>
+      <c r="B29" s="18"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="18"/>
+      <c r="H29" s="18"/>
+      <c r="I29" s="19"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
@@ -2224,33 +2221,33 @@
       <c r="A31" s="3">
         <v>1.4790000000000001E-3</v>
       </c>
-      <c r="B31" s="11">
+      <c r="B31" s="7">
         <f>AVERAGE(A31:A35)</f>
         <v>1.6408000000000002E-3</v>
       </c>
-      <c r="C31" s="15">
+      <c r="C31" s="8">
         <f>B3/B31</f>
         <v>1.2057532910775233</v>
       </c>
       <c r="D31" s="3">
         <v>2.1350000000000001E-2</v>
       </c>
-      <c r="E31" s="11">
+      <c r="E31" s="7">
         <f>AVERAGE(D31:D35)</f>
         <v>2.23614E-2</v>
       </c>
-      <c r="F31" s="12">
+      <c r="F31" s="9">
         <f>D3/E31</f>
         <v>1.0086756643143988</v>
       </c>
       <c r="G31" s="3">
         <v>0.92999399999999999</v>
       </c>
-      <c r="H31" s="11">
+      <c r="H31" s="7">
         <f>AVERAGE(G31:G35)</f>
         <v>1.2499398000000002</v>
       </c>
-      <c r="I31" s="12">
+      <c r="I31" s="9">
         <f>F3/H31</f>
         <v>1.7903750244611776</v>
       </c>
@@ -2259,105 +2256,105 @@
       <c r="A32" s="3">
         <v>1.7650000000000001E-3</v>
       </c>
-      <c r="B32" s="11"/>
-      <c r="C32" s="15"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="8"/>
       <c r="D32" s="3">
         <v>1.8789E-2</v>
       </c>
-      <c r="E32" s="11"/>
-      <c r="F32" s="13"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="10"/>
       <c r="G32" s="3">
         <v>1.313869</v>
       </c>
-      <c r="H32" s="11"/>
-      <c r="I32" s="13"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="10"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="3">
         <v>1.681E-3</v>
       </c>
-      <c r="B33" s="11"/>
-      <c r="C33" s="15"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="8"/>
       <c r="D33" s="3">
         <v>2.3209E-2</v>
       </c>
-      <c r="E33" s="11"/>
-      <c r="F33" s="13"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="10"/>
       <c r="G33" s="3">
         <v>1.435206</v>
       </c>
-      <c r="H33" s="11"/>
-      <c r="I33" s="13"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="10"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
         <v>1.498E-3</v>
       </c>
-      <c r="B34" s="11"/>
-      <c r="C34" s="15"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="8"/>
       <c r="D34" s="3">
         <v>2.1609E-2</v>
       </c>
-      <c r="E34" s="11"/>
-      <c r="F34" s="13"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="10"/>
       <c r="G34" s="3">
         <v>1.5782529999999999</v>
       </c>
-      <c r="H34" s="11"/>
-      <c r="I34" s="13"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="10"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="3">
         <v>1.781E-3</v>
       </c>
-      <c r="B35" s="11"/>
-      <c r="C35" s="15"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="8"/>
       <c r="D35" s="3">
         <v>2.6849999999999999E-2</v>
       </c>
-      <c r="E35" s="11"/>
-      <c r="F35" s="14"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="11"/>
       <c r="G35" s="3">
         <v>0.99237699999999995</v>
       </c>
-      <c r="H35" s="11"/>
-      <c r="I35" s="14"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="11"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B37" s="27">
+      <c r="B37" s="5">
         <v>1.402E-3</v>
       </c>
-      <c r="C37" s="27">
+      <c r="C37" s="5">
         <f>B3/B37</f>
         <v>1.4111269614835951</v>
       </c>
-      <c r="E37" s="27">
+      <c r="E37" s="5">
         <v>1.3858000000000001E-2</v>
       </c>
-      <c r="F37" s="27">
+      <c r="F37" s="5">
         <f>D3/E37</f>
         <v>1.6276086015298021</v>
       </c>
-      <c r="H37" s="27">
+      <c r="H37" s="5">
         <v>0.995618</v>
       </c>
-      <c r="I37" s="27">
+      <c r="I37" s="5">
         <f>F3/H37</f>
         <v>2.2477104672675661</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A39" s="19" t="s">
+      <c r="A39" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="B39" s="20"/>
-      <c r="C39" s="20"/>
-      <c r="D39" s="20"/>
-      <c r="E39" s="20"/>
-      <c r="F39" s="20"/>
-      <c r="G39" s="20"/>
-      <c r="H39" s="20"/>
-      <c r="I39" s="21"/>
+      <c r="B39" s="18"/>
+      <c r="C39" s="18"/>
+      <c r="D39" s="18"/>
+      <c r="E39" s="18"/>
+      <c r="F39" s="18"/>
+      <c r="G39" s="18"/>
+      <c r="H39" s="18"/>
+      <c r="I39" s="19"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" s="3">
@@ -2392,33 +2389,33 @@
       <c r="A41" s="3">
         <v>2.248E-3</v>
       </c>
-      <c r="B41" s="11">
+      <c r="B41" s="7">
         <f>AVERAGE(A41:A45)</f>
         <v>2.3254E-3</v>
       </c>
-      <c r="C41" s="15">
+      <c r="C41" s="8">
         <f>B3/B41</f>
         <v>0.85077836071213575</v>
       </c>
       <c r="D41" s="3">
         <v>1.7295999999999999E-2</v>
       </c>
-      <c r="E41" s="11">
+      <c r="E41" s="7">
         <f>AVERAGE(D41:D45)</f>
         <v>1.9747799999999999E-2</v>
       </c>
-      <c r="F41" s="12">
+      <c r="F41" s="9">
         <f>D3/E41</f>
         <v>1.1421727989953312</v>
       </c>
       <c r="G41" s="3">
         <v>0.87707999999999997</v>
       </c>
-      <c r="H41" s="11">
+      <c r="H41" s="7">
         <f>AVERAGE(G41:G45)</f>
         <v>1.1370174</v>
       </c>
-      <c r="I41" s="12">
+      <c r="I41" s="9">
         <f>F3/H41</f>
         <v>1.9681853593445446</v>
       </c>
@@ -2427,109 +2424,100 @@
       <c r="A42" s="3">
         <v>2.3479999999999998E-3</v>
       </c>
-      <c r="B42" s="11"/>
-      <c r="C42" s="15"/>
+      <c r="B42" s="7"/>
+      <c r="C42" s="8"/>
       <c r="D42" s="3">
         <v>2.3296999999999998E-2</v>
       </c>
-      <c r="E42" s="11"/>
-      <c r="F42" s="13"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="10"/>
       <c r="G42" s="3">
         <v>1.178417</v>
       </c>
-      <c r="H42" s="11"/>
-      <c r="I42" s="13"/>
+      <c r="H42" s="7"/>
+      <c r="I42" s="10"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" s="3">
         <v>2.4620000000000002E-3</v>
       </c>
-      <c r="B43" s="11"/>
-      <c r="C43" s="15"/>
+      <c r="B43" s="7"/>
+      <c r="C43" s="8"/>
       <c r="D43" s="3">
         <v>1.9085999999999999E-2</v>
       </c>
-      <c r="E43" s="11"/>
-      <c r="F43" s="13"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="10"/>
       <c r="G43" s="3">
         <v>1.25576</v>
       </c>
-      <c r="H43" s="11"/>
-      <c r="I43" s="13"/>
+      <c r="H43" s="7"/>
+      <c r="I43" s="10"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" s="3">
         <v>2.258E-3</v>
       </c>
-      <c r="B44" s="11"/>
-      <c r="C44" s="15"/>
+      <c r="B44" s="7"/>
+      <c r="C44" s="8"/>
       <c r="D44" s="3">
         <v>2.0473999999999999E-2</v>
       </c>
-      <c r="E44" s="11"/>
-      <c r="F44" s="13"/>
+      <c r="E44" s="7"/>
+      <c r="F44" s="10"/>
       <c r="G44" s="3">
         <v>1.182725</v>
       </c>
-      <c r="H44" s="11"/>
-      <c r="I44" s="13"/>
+      <c r="H44" s="7"/>
+      <c r="I44" s="10"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" s="3">
         <v>2.3110000000000001E-3</v>
       </c>
-      <c r="B45" s="11"/>
-      <c r="C45" s="15"/>
+      <c r="B45" s="7"/>
+      <c r="C45" s="8"/>
       <c r="D45" s="3">
         <v>1.8585999999999998E-2</v>
       </c>
-      <c r="E45" s="11"/>
-      <c r="F45" s="14"/>
+      <c r="E45" s="7"/>
+      <c r="F45" s="11"/>
       <c r="G45" s="3">
         <v>1.1911050000000001</v>
       </c>
-      <c r="H45" s="11"/>
-      <c r="I45" s="14"/>
+      <c r="H45" s="7"/>
+      <c r="I45" s="11"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B47" s="27">
+      <c r="B47" s="5">
         <v>2.464E-3</v>
       </c>
-      <c r="C47" s="27">
+      <c r="C47" s="5">
         <f>B3/B47</f>
         <v>0.80292207792207804</v>
       </c>
-      <c r="E47" s="27">
+      <c r="E47" s="5">
         <v>1.6029999999999999E-2</v>
       </c>
-      <c r="F47" s="27">
+      <c r="F47" s="5">
         <f>D3/E47</f>
         <v>1.4070742358078603</v>
       </c>
-      <c r="H47" s="27">
+      <c r="H47" s="5">
         <v>0.876641</v>
       </c>
-      <c r="I47" s="27">
+      <c r="I47" s="5">
         <f>F3/H47</f>
         <v>2.5527678947254344</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="A39:I39"/>
-    <mergeCell ref="B41:B45"/>
-    <mergeCell ref="C41:C45"/>
-    <mergeCell ref="E41:E45"/>
-    <mergeCell ref="F41:F45"/>
-    <mergeCell ref="H41:H45"/>
-    <mergeCell ref="I41:I45"/>
-    <mergeCell ref="A29:I29"/>
-    <mergeCell ref="B31:B35"/>
-    <mergeCell ref="C31:C35"/>
-    <mergeCell ref="E31:E35"/>
-    <mergeCell ref="F31:F35"/>
-    <mergeCell ref="H31:H35"/>
-    <mergeCell ref="I31:I35"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="B3:B7"/>
+    <mergeCell ref="D3:D7"/>
+    <mergeCell ref="F3:F7"/>
+    <mergeCell ref="A9:I9"/>
     <mergeCell ref="I11:I15"/>
     <mergeCell ref="A19:I19"/>
     <mergeCell ref="B21:B25"/>
@@ -2543,11 +2531,20 @@
     <mergeCell ref="E11:E15"/>
     <mergeCell ref="F11:F15"/>
     <mergeCell ref="H11:H15"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="B3:B7"/>
-    <mergeCell ref="D3:D7"/>
-    <mergeCell ref="F3:F7"/>
-    <mergeCell ref="A9:I9"/>
+    <mergeCell ref="A29:I29"/>
+    <mergeCell ref="B31:B35"/>
+    <mergeCell ref="C31:C35"/>
+    <mergeCell ref="E31:E35"/>
+    <mergeCell ref="F31:F35"/>
+    <mergeCell ref="H31:H35"/>
+    <mergeCell ref="I31:I35"/>
+    <mergeCell ref="A39:I39"/>
+    <mergeCell ref="B41:B45"/>
+    <mergeCell ref="C41:C45"/>
+    <mergeCell ref="E41:E45"/>
+    <mergeCell ref="F41:F45"/>
+    <mergeCell ref="H41:H45"/>
+    <mergeCell ref="I41:I45"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2563,29 +2560,29 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.77734375" style="27" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" style="27"/>
-    <col min="3" max="4" width="23.77734375" style="27" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.77734375" style="27" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" style="27" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.88671875" style="27" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.88671875" style="27"/>
-    <col min="9" max="9" width="7.77734375" style="27" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="25.88671875" style="27" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.88671875" style="27"/>
+    <col min="1" max="1" width="22.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.88671875" style="5"/>
+    <col min="3" max="4" width="23.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.88671875" style="5"/>
+    <col min="9" max="9" width="7.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="25.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.88671875" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -2617,28 +2614,28 @@
       <c r="A3" s="1">
         <v>7.7799999999999996E-3</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="13">
         <f>AVERAGE(A3:A7)</f>
         <v>6.4991999999999992E-3</v>
       </c>
       <c r="C3" s="1">
         <v>3.4301999999999999E-2</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="13">
         <f>AVERAGE(C3:C7)</f>
         <v>4.93788E-2</v>
       </c>
       <c r="E3" s="1">
         <v>2.4107050000000001</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F3" s="13">
         <f>AVERAGE(E3:E7)</f>
         <v>2.3921540000000001</v>
       </c>
       <c r="G3" s="1">
         <v>23.769746000000001</v>
       </c>
-      <c r="H3" s="7">
+      <c r="H3" s="13">
         <f>AVERAGE(G3:G7)</f>
         <v>23.8937372</v>
       </c>
@@ -2647,89 +2644,89 @@
       <c r="A4" s="1">
         <v>5.986E-3</v>
       </c>
-      <c r="B4" s="7"/>
+      <c r="B4" s="13"/>
       <c r="C4" s="1">
         <v>3.2233999999999999E-2</v>
       </c>
-      <c r="D4" s="7"/>
+      <c r="D4" s="13"/>
       <c r="E4" s="1">
         <v>2.3849840000000002</v>
       </c>
-      <c r="F4" s="7"/>
+      <c r="F4" s="13"/>
       <c r="G4" s="1">
         <v>23.880281</v>
       </c>
-      <c r="H4" s="7"/>
+      <c r="H4" s="13"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>6.3420000000000004E-3</v>
       </c>
-      <c r="B5" s="7"/>
+      <c r="B5" s="13"/>
       <c r="C5" s="1">
         <v>3.2267999999999998E-2</v>
       </c>
-      <c r="D5" s="7"/>
+      <c r="D5" s="13"/>
       <c r="E5" s="1">
         <v>2.418174</v>
       </c>
-      <c r="F5" s="7"/>
+      <c r="F5" s="13"/>
       <c r="G5" s="1">
         <v>23.901166</v>
       </c>
-      <c r="H5" s="7"/>
+      <c r="H5" s="13"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>6.0850000000000001E-3</v>
       </c>
-      <c r="B6" s="7"/>
+      <c r="B6" s="13"/>
       <c r="C6" s="1">
         <v>6.1054999999999998E-2</v>
       </c>
-      <c r="D6" s="7"/>
+      <c r="D6" s="13"/>
       <c r="E6" s="1">
         <v>2.374854</v>
       </c>
-      <c r="F6" s="7"/>
+      <c r="F6" s="13"/>
       <c r="G6" s="1">
         <v>23.998033</v>
       </c>
-      <c r="H6" s="7"/>
+      <c r="H6" s="13"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6.3029999999999996E-3</v>
       </c>
-      <c r="B7" s="7"/>
+      <c r="B7" s="13"/>
       <c r="C7" s="1">
         <v>8.7035000000000001E-2</v>
       </c>
-      <c r="D7" s="7"/>
+      <c r="D7" s="13"/>
       <c r="E7" s="1">
         <v>2.3720530000000002</v>
       </c>
-      <c r="F7" s="7"/>
+      <c r="F7" s="13"/>
       <c r="G7" s="1">
         <v>23.919460000000001</v>
       </c>
-      <c r="H7" s="7"/>
+      <c r="H7" s="13"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
@@ -2773,44 +2770,44 @@
       <c r="A11" s="3">
         <v>4.3769999999999998E-3</v>
       </c>
-      <c r="B11" s="24">
+      <c r="B11" s="23">
         <f>AVERAGE(A11:A15)</f>
         <v>4.4596000000000002E-3</v>
       </c>
-      <c r="C11" s="12">
+      <c r="C11" s="9">
         <f>B3/B11</f>
         <v>1.4573504350165931</v>
       </c>
       <c r="D11" s="3">
         <v>6.8006999999999998E-2</v>
       </c>
-      <c r="E11" s="24">
+      <c r="E11" s="23">
         <f>AVERAGE(D11:D15)</f>
         <v>6.4985799999999996E-2</v>
       </c>
-      <c r="F11" s="12">
+      <c r="F11" s="9">
         <f>D3/E11</f>
         <v>0.75983984193469967</v>
       </c>
       <c r="G11" s="3">
         <v>6.6232480000000002</v>
       </c>
-      <c r="H11" s="24">
+      <c r="H11" s="23">
         <f>AVERAGE(G11:G15)</f>
         <v>6.686429200000001</v>
       </c>
-      <c r="I11" s="12">
+      <c r="I11" s="9">
         <f>F3/H11</f>
         <v>0.3577625558347346</v>
       </c>
       <c r="J11" s="3">
         <v>89.042483000000004</v>
       </c>
-      <c r="K11" s="24">
+      <c r="K11" s="23">
         <f>AVERAGE(J11:J15)</f>
         <v>74.137772400000017</v>
       </c>
-      <c r="L11" s="12">
+      <c r="L11" s="9">
         <f>H3/K11</f>
         <v>0.32228830765354899</v>
       </c>
@@ -2819,135 +2816,135 @@
       <c r="A12" s="3">
         <v>4.4380000000000001E-3</v>
       </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="13"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="10"/>
       <c r="D12" s="3">
         <v>4.1998000000000001E-2</v>
       </c>
-      <c r="E12" s="25"/>
-      <c r="F12" s="13"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="10"/>
       <c r="G12" s="3">
         <v>6.5891760000000001</v>
       </c>
-      <c r="H12" s="25"/>
-      <c r="I12" s="13"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="10"/>
       <c r="J12" s="3">
         <v>71.662083999999993</v>
       </c>
-      <c r="K12" s="25"/>
-      <c r="L12" s="13"/>
+      <c r="K12" s="24"/>
+      <c r="L12" s="10"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>4.5110000000000003E-3</v>
       </c>
-      <c r="B13" s="25"/>
-      <c r="C13" s="13"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="10"/>
       <c r="D13" s="3">
         <v>4.3872000000000001E-2</v>
       </c>
-      <c r="E13" s="25"/>
-      <c r="F13" s="13"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="10"/>
       <c r="G13" s="3">
         <v>6.7215730000000002</v>
       </c>
-      <c r="H13" s="25"/>
-      <c r="I13" s="13"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="10"/>
       <c r="J13" s="3">
         <v>69.002851000000007</v>
       </c>
-      <c r="K13" s="25"/>
-      <c r="L13" s="13"/>
+      <c r="K13" s="24"/>
+      <c r="L13" s="10"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>4.5250000000000004E-3</v>
       </c>
-      <c r="B14" s="25"/>
-      <c r="C14" s="13"/>
+      <c r="B14" s="24"/>
+      <c r="C14" s="10"/>
       <c r="D14" s="3">
         <v>5.8254E-2</v>
       </c>
-      <c r="E14" s="25"/>
-      <c r="F14" s="13"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="10"/>
       <c r="G14" s="3">
         <v>6.7527499999999998</v>
       </c>
-      <c r="H14" s="25"/>
-      <c r="I14" s="13"/>
+      <c r="H14" s="24"/>
+      <c r="I14" s="10"/>
       <c r="J14" s="3">
         <v>68.275855000000007</v>
       </c>
-      <c r="K14" s="25"/>
-      <c r="L14" s="13"/>
+      <c r="K14" s="24"/>
+      <c r="L14" s="10"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>4.4470000000000004E-3</v>
       </c>
-      <c r="B15" s="26"/>
-      <c r="C15" s="14"/>
+      <c r="B15" s="25"/>
+      <c r="C15" s="11"/>
       <c r="D15" s="3">
         <v>0.112798</v>
       </c>
-      <c r="E15" s="26"/>
-      <c r="F15" s="14"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="11"/>
       <c r="G15" s="3">
         <v>6.7453989999999999</v>
       </c>
-      <c r="H15" s="26"/>
-      <c r="I15" s="14"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="11"/>
       <c r="J15" s="3">
         <v>72.705589000000003</v>
       </c>
-      <c r="K15" s="26"/>
-      <c r="L15" s="14"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="11"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B17" s="27">
+      <c r="B17" s="5">
         <v>2.5156999999999999E-2</v>
       </c>
-      <c r="C17" s="27">
+      <c r="C17" s="5">
         <f>B3/B17</f>
         <v>0.25834558969670468</v>
       </c>
-      <c r="E17" s="27">
+      <c r="E17" s="5">
         <v>4.2804000000000002E-2</v>
       </c>
-      <c r="F17" s="27">
+      <c r="F17" s="5">
         <f>D3/E17</f>
         <v>1.1536024670591534</v>
       </c>
-      <c r="H17" s="27">
+      <c r="H17" s="5">
         <v>2.334498</v>
       </c>
-      <c r="I17" s="27">
+      <c r="I17" s="5">
         <f>F3/H17</f>
         <v>1.0246973867615223</v>
       </c>
-      <c r="K17" s="27">
+      <c r="K17" s="5">
         <v>23.389420999999999</v>
       </c>
-      <c r="L17" s="27">
+      <c r="L17" s="5">
         <f>H3/K17</f>
         <v>1.0215617222846176</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
@@ -2991,44 +2988,44 @@
       <c r="A21" s="3">
         <v>4.8999999999999998E-3</v>
       </c>
-      <c r="B21" s="24">
+      <c r="B21" s="23">
         <f>AVERAGE(A21:A25)</f>
         <v>4.6842000000000003E-3</v>
       </c>
-      <c r="C21" s="12">
+      <c r="C21" s="9">
         <f>B3/B21</f>
         <v>1.3874727808377094</v>
       </c>
       <c r="D21" s="3">
         <v>5.6577000000000002E-2</v>
       </c>
-      <c r="E21" s="24">
+      <c r="E21" s="23">
         <f>AVERAGE(D21:D25)</f>
         <v>4.8751799999999998E-2</v>
       </c>
-      <c r="F21" s="12">
+      <c r="F21" s="9">
         <f>D3/E21</f>
         <v>1.0128610635914983</v>
       </c>
       <c r="G21" s="3">
         <v>3.4884689999999998</v>
       </c>
-      <c r="H21" s="24">
+      <c r="H21" s="23">
         <f>AVERAGE(G21:G25)</f>
         <v>3.6097006</v>
       </c>
-      <c r="I21" s="12">
+      <c r="I21" s="9">
         <f>F3/H21</f>
         <v>0.6627014993985928</v>
       </c>
       <c r="J21" s="3">
         <v>40.36327</v>
       </c>
-      <c r="K21" s="24">
+      <c r="K21" s="23">
         <f>AVERAGE(J21:J25)</f>
         <v>41.001088199999991</v>
       </c>
-      <c r="L21" s="12">
+      <c r="L21" s="9">
         <f>H3/K21</f>
         <v>0.58275861078243296</v>
       </c>
@@ -3037,135 +3034,135 @@
       <c r="A22" s="3">
         <v>4.7720000000000002E-3</v>
       </c>
-      <c r="B22" s="25"/>
-      <c r="C22" s="13"/>
+      <c r="B22" s="24"/>
+      <c r="C22" s="10"/>
       <c r="D22" s="3">
         <v>6.0916999999999999E-2</v>
       </c>
-      <c r="E22" s="25"/>
-      <c r="F22" s="13"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="10"/>
       <c r="G22" s="3">
         <v>3.561401</v>
       </c>
-      <c r="H22" s="25"/>
-      <c r="I22" s="13"/>
+      <c r="H22" s="24"/>
+      <c r="I22" s="10"/>
       <c r="J22" s="3">
         <v>47.20411</v>
       </c>
-      <c r="K22" s="25"/>
-      <c r="L22" s="13"/>
+      <c r="K22" s="24"/>
+      <c r="L22" s="10"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>4.9020000000000001E-3</v>
       </c>
-      <c r="B23" s="25"/>
-      <c r="C23" s="13"/>
+      <c r="B23" s="24"/>
+      <c r="C23" s="10"/>
       <c r="D23" s="3">
         <v>4.2832000000000002E-2</v>
       </c>
-      <c r="E23" s="25"/>
-      <c r="F23" s="13"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="10"/>
       <c r="G23" s="3">
         <v>3.6326170000000002</v>
       </c>
-      <c r="H23" s="25"/>
-      <c r="I23" s="13"/>
+      <c r="H23" s="24"/>
+      <c r="I23" s="10"/>
       <c r="J23" s="3">
         <v>41.847327999999997</v>
       </c>
-      <c r="K23" s="25"/>
-      <c r="L23" s="13"/>
+      <c r="K23" s="24"/>
+      <c r="L23" s="10"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>4.4450000000000002E-3</v>
       </c>
-      <c r="B24" s="25"/>
-      <c r="C24" s="13"/>
+      <c r="B24" s="24"/>
+      <c r="C24" s="10"/>
       <c r="D24" s="3">
         <v>4.1216999999999997E-2</v>
       </c>
-      <c r="E24" s="25"/>
-      <c r="F24" s="13"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="10"/>
       <c r="G24" s="3">
         <v>3.6529639999999999</v>
       </c>
-      <c r="H24" s="25"/>
-      <c r="I24" s="13"/>
+      <c r="H24" s="24"/>
+      <c r="I24" s="10"/>
       <c r="J24" s="3">
         <v>37.903092999999998</v>
       </c>
-      <c r="K24" s="25"/>
-      <c r="L24" s="13"/>
+      <c r="K24" s="24"/>
+      <c r="L24" s="10"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <v>4.4019999999999997E-3</v>
       </c>
-      <c r="B25" s="26"/>
-      <c r="C25" s="14"/>
+      <c r="B25" s="25"/>
+      <c r="C25" s="11"/>
       <c r="D25" s="3">
         <v>4.2215999999999997E-2</v>
       </c>
-      <c r="E25" s="26"/>
-      <c r="F25" s="14"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="11"/>
       <c r="G25" s="3">
         <v>3.7130519999999998</v>
       </c>
-      <c r="H25" s="26"/>
-      <c r="I25" s="14"/>
+      <c r="H25" s="25"/>
+      <c r="I25" s="11"/>
       <c r="J25" s="3">
         <v>37.687640000000002</v>
       </c>
-      <c r="K25" s="26"/>
-      <c r="L25" s="14"/>
+      <c r="K25" s="25"/>
+      <c r="L25" s="11"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B27" s="27">
+      <c r="B27" s="5">
         <v>4.3024E-2</v>
       </c>
-      <c r="C27" s="27">
+      <c r="C27" s="5">
         <f>B3/B27</f>
         <v>0.15105987355894382</v>
       </c>
-      <c r="E27" s="27">
+      <c r="E27" s="5">
         <v>5.2034999999999998E-2</v>
       </c>
-      <c r="F27" s="27">
+      <c r="F27" s="5">
         <f>D3/E27</f>
         <v>0.94895358893052761</v>
       </c>
-      <c r="H27" s="27">
+      <c r="H27" s="5">
         <v>1.3026709999999999</v>
       </c>
-      <c r="I27" s="27">
+      <c r="I27" s="5">
         <f>F3/H27</f>
         <v>1.8363454778681649</v>
       </c>
-      <c r="K27" s="27">
+      <c r="K27" s="5">
         <v>13.500404</v>
       </c>
-      <c r="L27" s="27">
+      <c r="L27" s="5">
         <f>H3/K27</f>
         <v>1.7698534947546756</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A29" s="5" t="s">
+      <c r="A29" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
-      <c r="J29" s="5"/>
-      <c r="K29" s="5"/>
-      <c r="L29" s="5"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="6"/>
+      <c r="K29" s="6"/>
+      <c r="L29" s="6"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
@@ -3209,44 +3206,44 @@
       <c r="A31" s="3">
         <v>4.3699999999999998E-3</v>
       </c>
-      <c r="B31" s="24">
+      <c r="B31" s="23">
         <f>AVERAGE(A31:A35)</f>
         <v>4.3296000000000003E-3</v>
       </c>
-      <c r="C31" s="12">
+      <c r="C31" s="9">
         <f>B3/B31</f>
         <v>1.5011086474501105</v>
       </c>
       <c r="D31" s="3">
         <v>6.8677000000000002E-2</v>
       </c>
-      <c r="E31" s="24">
+      <c r="E31" s="23">
         <f>AVERAGE(D31:D35)</f>
         <v>5.2304200000000002E-2</v>
       </c>
-      <c r="F31" s="12">
+      <c r="F31" s="9">
         <f>D3/E31</f>
         <v>0.94406950111080945</v>
       </c>
       <c r="G31" s="3">
         <v>1.9634100000000001</v>
       </c>
-      <c r="H31" s="24">
+      <c r="H31" s="23">
         <f>AVERAGE(G31:G35)</f>
         <v>2.189451</v>
       </c>
-      <c r="I31" s="12">
+      <c r="I31" s="9">
         <f>F3/H31</f>
         <v>1.0925816563147566</v>
       </c>
       <c r="J31" s="3">
         <v>22.983543000000001</v>
       </c>
-      <c r="K31" s="24">
+      <c r="K31" s="23">
         <f>AVERAGE(J31:J35)</f>
         <v>24.474444599999998</v>
       </c>
-      <c r="L31" s="12">
+      <c r="L31" s="9">
         <f>H3/K31</f>
         <v>0.97627290794578447</v>
       </c>
@@ -3255,135 +3252,135 @@
       <c r="A32" s="3">
         <v>4.2700000000000004E-3</v>
       </c>
-      <c r="B32" s="25"/>
-      <c r="C32" s="13"/>
+      <c r="B32" s="24"/>
+      <c r="C32" s="10"/>
       <c r="D32" s="3">
         <v>4.2324000000000001E-2</v>
       </c>
-      <c r="E32" s="25"/>
-      <c r="F32" s="13"/>
+      <c r="E32" s="24"/>
+      <c r="F32" s="10"/>
       <c r="G32" s="3">
         <v>2.1728649999999998</v>
       </c>
-      <c r="H32" s="25"/>
-      <c r="I32" s="13"/>
+      <c r="H32" s="24"/>
+      <c r="I32" s="10"/>
       <c r="J32" s="3">
         <v>23.784718999999999</v>
       </c>
-      <c r="K32" s="25"/>
-      <c r="L32" s="13"/>
+      <c r="K32" s="24"/>
+      <c r="L32" s="10"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" s="3">
         <v>4.4650000000000002E-3</v>
       </c>
-      <c r="B33" s="25"/>
-      <c r="C33" s="13"/>
+      <c r="B33" s="24"/>
+      <c r="C33" s="10"/>
       <c r="D33" s="3">
         <v>4.3873000000000002E-2</v>
       </c>
-      <c r="E33" s="25"/>
-      <c r="F33" s="13"/>
+      <c r="E33" s="24"/>
+      <c r="F33" s="10"/>
       <c r="G33" s="3">
         <v>2.1944849999999998</v>
       </c>
-      <c r="H33" s="25"/>
-      <c r="I33" s="13"/>
+      <c r="H33" s="24"/>
+      <c r="I33" s="10"/>
       <c r="J33" s="3">
         <v>25.523700000000002</v>
       </c>
-      <c r="K33" s="25"/>
-      <c r="L33" s="13"/>
+      <c r="K33" s="24"/>
+      <c r="L33" s="10"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
         <v>4.3579999999999999E-3</v>
       </c>
-      <c r="B34" s="25"/>
-      <c r="C34" s="13"/>
+      <c r="B34" s="24"/>
+      <c r="C34" s="10"/>
       <c r="D34" s="3">
         <v>4.1213E-2</v>
       </c>
-      <c r="E34" s="25"/>
-      <c r="F34" s="13"/>
+      <c r="E34" s="24"/>
+      <c r="F34" s="10"/>
       <c r="G34" s="3">
         <v>2.3042750000000001</v>
       </c>
-      <c r="H34" s="25"/>
-      <c r="I34" s="13"/>
+      <c r="H34" s="24"/>
+      <c r="I34" s="10"/>
       <c r="J34" s="3">
         <v>27.042113000000001</v>
       </c>
-      <c r="K34" s="25"/>
-      <c r="L34" s="13"/>
+      <c r="K34" s="24"/>
+      <c r="L34" s="10"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" s="3">
         <v>4.1850000000000004E-3</v>
       </c>
-      <c r="B35" s="26"/>
-      <c r="C35" s="14"/>
+      <c r="B35" s="25"/>
+      <c r="C35" s="11"/>
       <c r="D35" s="3">
         <v>6.5434000000000006E-2</v>
       </c>
-      <c r="E35" s="26"/>
-      <c r="F35" s="14"/>
+      <c r="E35" s="25"/>
+      <c r="F35" s="11"/>
       <c r="G35" s="3">
         <v>2.3122199999999999</v>
       </c>
-      <c r="H35" s="26"/>
-      <c r="I35" s="14"/>
+      <c r="H35" s="25"/>
+      <c r="I35" s="11"/>
       <c r="J35" s="3">
         <v>23.038148</v>
       </c>
-      <c r="K35" s="26"/>
-      <c r="L35" s="14"/>
+      <c r="K35" s="25"/>
+      <c r="L35" s="11"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B37" s="27">
+      <c r="B37" s="5">
         <v>1.3883E-2</v>
       </c>
-      <c r="C37" s="27">
+      <c r="C37" s="5">
         <f>B3/B37</f>
         <v>0.46814089173809692</v>
       </c>
-      <c r="E37" s="27">
+      <c r="E37" s="5">
         <v>6.9018999999999997E-2</v>
       </c>
-      <c r="F37" s="27">
+      <c r="F37" s="5">
         <f>D3/E37</f>
         <v>0.71543777800315855</v>
       </c>
-      <c r="H37" s="27">
+      <c r="H37" s="5">
         <v>0.81615499999999996</v>
       </c>
-      <c r="I37" s="27">
+      <c r="I37" s="5">
         <f>F3/H37</f>
         <v>2.9310045273263046</v>
       </c>
-      <c r="K37" s="27">
+      <c r="K37" s="5">
         <v>9.4231940000000005</v>
       </c>
-      <c r="L37" s="27">
+      <c r="L37" s="5">
         <f>H3/K37</f>
         <v>2.5356304030247068</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A39" s="5" t="s">
+      <c r="A39" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B39" s="5"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="5"/>
-      <c r="E39" s="5"/>
-      <c r="F39" s="5"/>
-      <c r="G39" s="5"/>
-      <c r="H39" s="5"/>
-      <c r="I39" s="5"/>
-      <c r="J39" s="5"/>
-      <c r="K39" s="5"/>
-      <c r="L39" s="5"/>
+      <c r="B39" s="6"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="6"/>
+      <c r="H39" s="6"/>
+      <c r="I39" s="6"/>
+      <c r="J39" s="6"/>
+      <c r="K39" s="6"/>
+      <c r="L39" s="6"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
@@ -3427,44 +3424,44 @@
       <c r="A41" s="3">
         <v>4.5999999999999999E-3</v>
       </c>
-      <c r="B41" s="24">
+      <c r="B41" s="23">
         <f>AVERAGE(A41:A45)</f>
         <v>5.8130000000000005E-3</v>
       </c>
-      <c r="C41" s="12">
+      <c r="C41" s="9">
         <f>B3/B41</f>
         <v>1.1180457595045585</v>
       </c>
       <c r="D41" s="3">
         <v>4.335E-2</v>
       </c>
-      <c r="E41" s="24">
+      <c r="E41" s="23">
         <f>AVERAGE(D41:D45)</f>
         <v>4.2192600000000004E-2</v>
       </c>
-      <c r="F41" s="12">
+      <c r="F41" s="9">
         <f>D3/E41</f>
         <v>1.1703189658850128</v>
       </c>
       <c r="G41" s="3">
         <v>1.668833</v>
       </c>
-      <c r="H41" s="24">
+      <c r="H41" s="23">
         <f>AVERAGE(G41:G45)</f>
         <v>1.9743895999999999</v>
       </c>
-      <c r="I41" s="12">
+      <c r="I41" s="9">
         <f>F3/H41</f>
         <v>1.2115916737000643</v>
       </c>
       <c r="J41" s="3">
         <v>21.320739</v>
       </c>
-      <c r="K41" s="24">
+      <c r="K41" s="23">
         <f>AVERAGE(J41:J45)</f>
         <v>21.781726599999999</v>
       </c>
-      <c r="L41" s="12">
+      <c r="L41" s="9">
         <f>H3/K41</f>
         <v>1.0969624969950731</v>
       </c>
@@ -3473,141 +3470,128 @@
       <c r="A42" s="3">
         <v>4.5840000000000004E-3</v>
       </c>
-      <c r="B42" s="25"/>
-      <c r="C42" s="13"/>
+      <c r="B42" s="24"/>
+      <c r="C42" s="10"/>
       <c r="D42" s="3">
         <v>4.1674000000000003E-2</v>
       </c>
-      <c r="E42" s="25"/>
-      <c r="F42" s="13"/>
+      <c r="E42" s="24"/>
+      <c r="F42" s="10"/>
       <c r="G42" s="3">
         <v>2.009665</v>
       </c>
-      <c r="H42" s="25"/>
-      <c r="I42" s="13"/>
+      <c r="H42" s="24"/>
+      <c r="I42" s="10"/>
       <c r="J42" s="3">
         <v>21.419577</v>
       </c>
-      <c r="K42" s="25"/>
-      <c r="L42" s="13"/>
+      <c r="K42" s="24"/>
+      <c r="L42" s="10"/>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43" s="3">
         <v>7.3130000000000001E-3</v>
       </c>
-      <c r="B43" s="25"/>
-      <c r="C43" s="13"/>
+      <c r="B43" s="24"/>
+      <c r="C43" s="10"/>
       <c r="D43" s="3">
         <v>4.2286999999999998E-2</v>
       </c>
-      <c r="E43" s="25"/>
-      <c r="F43" s="13"/>
+      <c r="E43" s="24"/>
+      <c r="F43" s="10"/>
       <c r="G43" s="3">
         <v>2.188358</v>
       </c>
-      <c r="H43" s="25"/>
-      <c r="I43" s="13"/>
+      <c r="H43" s="24"/>
+      <c r="I43" s="10"/>
       <c r="J43" s="3">
         <v>21.917483000000001</v>
       </c>
-      <c r="K43" s="25"/>
-      <c r="L43" s="13"/>
+      <c r="K43" s="24"/>
+      <c r="L43" s="10"/>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44" s="3">
         <v>4.6990000000000001E-3</v>
       </c>
-      <c r="B44" s="25"/>
-      <c r="C44" s="13"/>
+      <c r="B44" s="24"/>
+      <c r="C44" s="10"/>
       <c r="D44" s="3">
         <v>4.1896999999999997E-2</v>
       </c>
-      <c r="E44" s="25"/>
-      <c r="F44" s="13"/>
+      <c r="E44" s="24"/>
+      <c r="F44" s="10"/>
       <c r="G44" s="3">
         <v>2.0170970000000001</v>
       </c>
-      <c r="H44" s="25"/>
-      <c r="I44" s="13"/>
+      <c r="H44" s="24"/>
+      <c r="I44" s="10"/>
       <c r="J44" s="3">
         <v>22.68177</v>
       </c>
-      <c r="K44" s="25"/>
-      <c r="L44" s="13"/>
+      <c r="K44" s="24"/>
+      <c r="L44" s="10"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45" s="3">
         <v>7.8689999999999993E-3</v>
       </c>
-      <c r="B45" s="26"/>
-      <c r="C45" s="14"/>
+      <c r="B45" s="25"/>
+      <c r="C45" s="11"/>
       <c r="D45" s="3">
         <v>4.1755E-2</v>
       </c>
-      <c r="E45" s="26"/>
-      <c r="F45" s="14"/>
+      <c r="E45" s="25"/>
+      <c r="F45" s="11"/>
       <c r="G45" s="3">
         <v>1.987995</v>
       </c>
-      <c r="H45" s="26"/>
-      <c r="I45" s="14"/>
+      <c r="H45" s="25"/>
+      <c r="I45" s="11"/>
       <c r="J45" s="3">
         <v>21.569064000000001</v>
       </c>
-      <c r="K45" s="26"/>
-      <c r="L45" s="14"/>
+      <c r="K45" s="25"/>
+      <c r="L45" s="11"/>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B47" s="27">
+      <c r="B47" s="5">
         <v>6.7840000000000001E-3</v>
       </c>
-      <c r="C47" s="27">
+      <c r="C47" s="5">
         <f>B3/B47</f>
         <v>0.95801886792452817</v>
       </c>
-      <c r="E47" s="27">
+      <c r="E47" s="5">
         <v>4.0334000000000002E-2</v>
       </c>
-      <c r="F47" s="27">
+      <c r="F47" s="5">
         <f>D3/E47</f>
         <v>1.2242475330986264</v>
       </c>
-      <c r="H47" s="27">
+      <c r="H47" s="5">
         <v>0.75825900000000002</v>
       </c>
-      <c r="I47" s="27">
+      <c r="I47" s="5">
         <f>F3/H47</f>
         <v>3.1547980307520254</v>
       </c>
-      <c r="K47" s="27">
+      <c r="K47" s="5">
         <v>7.3455329999999996</v>
       </c>
-      <c r="L47" s="27">
+      <c r="L47" s="5">
         <f>H3/K47</f>
         <v>3.2528255199452514</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="A39:L39"/>
-    <mergeCell ref="B41:B45"/>
-    <mergeCell ref="C41:C45"/>
-    <mergeCell ref="E41:E45"/>
-    <mergeCell ref="F41:F45"/>
-    <mergeCell ref="H41:H45"/>
-    <mergeCell ref="I41:I45"/>
-    <mergeCell ref="K41:K45"/>
-    <mergeCell ref="L41:L45"/>
-    <mergeCell ref="L21:L25"/>
-    <mergeCell ref="A29:L29"/>
-    <mergeCell ref="B31:B35"/>
-    <mergeCell ref="C31:C35"/>
-    <mergeCell ref="E31:E35"/>
-    <mergeCell ref="F31:F35"/>
-    <mergeCell ref="H31:H35"/>
-    <mergeCell ref="I31:I35"/>
-    <mergeCell ref="K31:K35"/>
-    <mergeCell ref="L31:L35"/>
+    <mergeCell ref="A9:L9"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="B3:B7"/>
+    <mergeCell ref="D3:D7"/>
+    <mergeCell ref="F3:F7"/>
+    <mergeCell ref="H3:H7"/>
     <mergeCell ref="K11:K15"/>
     <mergeCell ref="L11:L15"/>
     <mergeCell ref="A19:L19"/>
@@ -3624,857 +3608,6 @@
     <mergeCell ref="F11:F15"/>
     <mergeCell ref="H11:H15"/>
     <mergeCell ref="I11:I15"/>
-    <mergeCell ref="A9:L9"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="B3:B7"/>
-    <mergeCell ref="D3:D7"/>
-    <mergeCell ref="F3:F7"/>
-    <mergeCell ref="H3:H7"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{118925EF-7105-47D2-92E9-828532FD1FFB}">
-  <dimension ref="A1:L37"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="L37" sqref="L37"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="22.77734375" style="27" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" style="27"/>
-    <col min="3" max="4" width="23.77734375" style="27" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.77734375" style="27" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" style="27" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.88671875" style="27" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.88671875" style="27"/>
-    <col min="9" max="9" width="7.77734375" style="27" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="25.88671875" style="27" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.88671875" style="27"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
-        <v>7.7799999999999996E-3</v>
-      </c>
-      <c r="B3" s="7">
-        <f>AVERAGE(A3:A7)</f>
-        <v>6.4991999999999992E-3</v>
-      </c>
-      <c r="C3" s="1">
-        <v>3.4301999999999999E-2</v>
-      </c>
-      <c r="D3" s="7">
-        <f>AVERAGE(C3:C7)</f>
-        <v>4.93788E-2</v>
-      </c>
-      <c r="E3" s="1">
-        <v>2.4107050000000001</v>
-      </c>
-      <c r="F3" s="7">
-        <f>AVERAGE(E3:E7)</f>
-        <v>2.3921540000000001</v>
-      </c>
-      <c r="G3" s="1">
-        <v>23.769746000000001</v>
-      </c>
-      <c r="H3" s="7">
-        <f>AVERAGE(G3:G7)</f>
-        <v>23.8937372</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
-        <v>5.986E-3</v>
-      </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="1">
-        <v>3.2233999999999999E-2</v>
-      </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="1">
-        <v>2.3849840000000002</v>
-      </c>
-      <c r="F4" s="7"/>
-      <c r="G4" s="1">
-        <v>23.880281</v>
-      </c>
-      <c r="H4" s="7"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
-        <v>6.3420000000000004E-3</v>
-      </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="1">
-        <v>3.2267999999999998E-2</v>
-      </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="1">
-        <v>2.418174</v>
-      </c>
-      <c r="F5" s="7"/>
-      <c r="G5" s="1">
-        <v>23.901166</v>
-      </c>
-      <c r="H5" s="7"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
-        <v>6.0850000000000001E-3</v>
-      </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="1">
-        <v>6.1054999999999998E-2</v>
-      </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="1">
-        <v>2.374854</v>
-      </c>
-      <c r="F6" s="7"/>
-      <c r="G6" s="1">
-        <v>23.998033</v>
-      </c>
-      <c r="H6" s="7"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
-        <v>6.3029999999999996E-3</v>
-      </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="1">
-        <v>8.7035000000000001E-2</v>
-      </c>
-      <c r="D7" s="7"/>
-      <c r="E7" s="1">
-        <v>2.3720530000000002</v>
-      </c>
-      <c r="F7" s="7"/>
-      <c r="G7" s="1">
-        <v>23.919460000000001</v>
-      </c>
-      <c r="H7" s="7"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="L10" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" s="3">
-        <v>9.0320000000000001E-3</v>
-      </c>
-      <c r="B11" s="24">
-        <f>AVERAGE(A11:A15)</f>
-        <v>6.8849999999999996E-3</v>
-      </c>
-      <c r="C11" s="12">
-        <f>B3/B11</f>
-        <v>0.94396514161220035</v>
-      </c>
-      <c r="D11" s="3">
-        <v>6.0754000000000002E-2</v>
-      </c>
-      <c r="E11" s="24">
-        <f>AVERAGE(D11:D15)</f>
-        <v>4.8256800000000002E-2</v>
-      </c>
-      <c r="F11" s="12">
-        <f>D3/E11</f>
-        <v>1.0232506092405629</v>
-      </c>
-      <c r="G11" s="3">
-        <v>6.6839320000000004</v>
-      </c>
-      <c r="H11" s="24">
-        <f>AVERAGE(G11:G15)</f>
-        <v>6.8683787999999995</v>
-      </c>
-      <c r="I11" s="12">
-        <f>F3/H11</f>
-        <v>0.34828510040826521</v>
-      </c>
-      <c r="J11" s="3">
-        <v>70.209836999999993</v>
-      </c>
-      <c r="K11" s="24">
-        <f>AVERAGE(J11:J15)</f>
-        <v>70.467709400000004</v>
-      </c>
-      <c r="L11" s="12">
-        <f>H3/K11</f>
-        <v>0.33907356154250134</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A12" s="3">
-        <v>4.7699999999999999E-3</v>
-      </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="3">
-        <v>4.4797999999999998E-2</v>
-      </c>
-      <c r="E12" s="25"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="3">
-        <v>6.7206970000000004</v>
-      </c>
-      <c r="H12" s="25"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="3">
-        <v>70.545404000000005</v>
-      </c>
-      <c r="K12" s="25"/>
-      <c r="L12" s="13"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13" s="3">
-        <v>7.247E-3</v>
-      </c>
-      <c r="B13" s="25"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="3">
-        <v>4.6262999999999999E-2</v>
-      </c>
-      <c r="E13" s="25"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="3">
-        <v>6.9822350000000002</v>
-      </c>
-      <c r="H13" s="25"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="3">
-        <v>70.608731000000006</v>
-      </c>
-      <c r="K13" s="25"/>
-      <c r="L13" s="13"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A14" s="3">
-        <v>5.3210000000000002E-3</v>
-      </c>
-      <c r="B14" s="25"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="3">
-        <v>4.4922999999999998E-2</v>
-      </c>
-      <c r="E14" s="25"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="3">
-        <v>6.9757400000000001</v>
-      </c>
-      <c r="H14" s="25"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="3">
-        <v>70.615801000000005</v>
-      </c>
-      <c r="K14" s="25"/>
-      <c r="L14" s="13"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A15" s="3">
-        <v>8.0549999999999997E-3</v>
-      </c>
-      <c r="B15" s="26"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="3">
-        <v>4.4546000000000002E-2</v>
-      </c>
-      <c r="E15" s="26"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="3">
-        <v>6.9792899999999998</v>
-      </c>
-      <c r="H15" s="26"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="3">
-        <v>70.358773999999997</v>
-      </c>
-      <c r="K15" s="26"/>
-      <c r="L15" s="14"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B17" s="27">
-        <v>3.7672999999999998E-2</v>
-      </c>
-      <c r="C17" s="27">
-        <f>B3/B17</f>
-        <v>0.17251612560719878</v>
-      </c>
-      <c r="E17" s="27">
-        <v>3.8704000000000002E-2</v>
-      </c>
-      <c r="F17" s="27">
-        <f>D3/E17</f>
-        <v>1.2758061182306737</v>
-      </c>
-      <c r="H17" s="27">
-        <v>2.339318</v>
-      </c>
-      <c r="I17" s="27">
-        <f>F3/H17</f>
-        <v>1.0225860699571414</v>
-      </c>
-      <c r="K17" s="27">
-        <v>24.393135000000001</v>
-      </c>
-      <c r="L17" s="27">
-        <f>H3/K17</f>
-        <v>0.97952711695319195</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A19" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A20" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="I20" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K20" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="L20" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A21" s="3">
-        <v>5.0650000000000001E-3</v>
-      </c>
-      <c r="B21" s="24">
-        <f>AVERAGE(A21:A25)</f>
-        <v>5.3268000000000005E-3</v>
-      </c>
-      <c r="C21" s="12">
-        <f>B3/B21</f>
-        <v>1.2200946159044828</v>
-      </c>
-      <c r="D21" s="3">
-        <v>7.0934999999999998E-2</v>
-      </c>
-      <c r="E21" s="24">
-        <f>AVERAGE(D21:D25)</f>
-        <v>5.1336400000000004E-2</v>
-      </c>
-      <c r="F21" s="12">
-        <f>D3/E21</f>
-        <v>0.96186721312752732</v>
-      </c>
-      <c r="G21" s="3">
-        <v>2.459006</v>
-      </c>
-      <c r="H21" s="24">
-        <f>AVERAGE(G21:G25)</f>
-        <v>2.7577574</v>
-      </c>
-      <c r="I21" s="12">
-        <f>F3/H21</f>
-        <v>0.86742727986152812</v>
-      </c>
-      <c r="J21" s="3">
-        <v>28.602495000000001</v>
-      </c>
-      <c r="K21" s="24">
-        <f>AVERAGE(J21:J25)</f>
-        <v>28.852312200000007</v>
-      </c>
-      <c r="L21" s="12">
-        <f>H3/K21</f>
-        <v>0.82813942377900629</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A22" s="3">
-        <v>4.8089999999999999E-3</v>
-      </c>
-      <c r="B22" s="25"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="3">
-        <v>5.6291000000000001E-2</v>
-      </c>
-      <c r="E22" s="25"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="3">
-        <v>2.66601</v>
-      </c>
-      <c r="H22" s="25"/>
-      <c r="I22" s="13"/>
-      <c r="J22" s="3">
-        <v>29.142741999999998</v>
-      </c>
-      <c r="K22" s="25"/>
-      <c r="L22" s="13"/>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A23" s="3">
-        <v>7.4689999999999999E-3</v>
-      </c>
-      <c r="B23" s="25"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="3">
-        <v>4.5187999999999999E-2</v>
-      </c>
-      <c r="E23" s="25"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="3">
-        <v>2.9758619999999998</v>
-      </c>
-      <c r="H23" s="25"/>
-      <c r="I23" s="13"/>
-      <c r="J23" s="3">
-        <v>29.044014000000001</v>
-      </c>
-      <c r="K23" s="25"/>
-      <c r="L23" s="13"/>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A24" s="3">
-        <v>4.6540000000000002E-3</v>
-      </c>
-      <c r="B24" s="25"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="3">
-        <v>4.1925999999999998E-2</v>
-      </c>
-      <c r="E24" s="25"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="3">
-        <v>2.8659680000000001</v>
-      </c>
-      <c r="H24" s="25"/>
-      <c r="I24" s="13"/>
-      <c r="J24" s="3">
-        <v>28.845379999999999</v>
-      </c>
-      <c r="K24" s="25"/>
-      <c r="L24" s="13"/>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A25" s="3">
-        <v>4.6369999999999996E-3</v>
-      </c>
-      <c r="B25" s="26"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="3">
-        <v>4.2341999999999998E-2</v>
-      </c>
-      <c r="E25" s="26"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="3">
-        <v>2.8219409999999998</v>
-      </c>
-      <c r="H25" s="26"/>
-      <c r="I25" s="14"/>
-      <c r="J25" s="3">
-        <v>28.626930000000002</v>
-      </c>
-      <c r="K25" s="26"/>
-      <c r="L25" s="14"/>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B27" s="27">
-        <v>5.1928000000000002E-2</v>
-      </c>
-      <c r="C27" s="27">
-        <f>B3/B27</f>
-        <v>0.12515791095362808</v>
-      </c>
-      <c r="E27" s="27">
-        <v>4.2942000000000001E-2</v>
-      </c>
-      <c r="F27" s="27">
-        <f>D3/E27</f>
-        <v>1.1498952074891715</v>
-      </c>
-      <c r="H27" s="27">
-        <v>1.0155400000000001</v>
-      </c>
-      <c r="I27" s="27">
-        <f>F3/H27</f>
-        <v>2.355548772081848</v>
-      </c>
-      <c r="K27" s="27">
-        <v>11.221342</v>
-      </c>
-      <c r="L27" s="27">
-        <f>H3/K27</f>
-        <v>2.1293119129601434</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A29" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
-      <c r="J29" s="5"/>
-      <c r="K29" s="5"/>
-      <c r="L29" s="5"/>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A30" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F30" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G30" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H30" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="I30" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="J30" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K30" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="L30" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A31" s="3">
-        <v>8.1510000000000003E-3</v>
-      </c>
-      <c r="B31" s="24">
-        <f>AVERAGE(A31:A35)</f>
-        <v>7.2250000000000005E-3</v>
-      </c>
-      <c r="C31" s="12">
-        <f>B3/B31</f>
-        <v>0.89954325259515555</v>
-      </c>
-      <c r="D31" s="3">
-        <v>6.0809000000000002E-2</v>
-      </c>
-      <c r="E31" s="24">
-        <f>AVERAGE(D31:D35)</f>
-        <v>6.5335000000000004E-2</v>
-      </c>
-      <c r="F31" s="12">
-        <f>D3/E31</f>
-        <v>0.7557786791153287</v>
-      </c>
-      <c r="G31" s="3">
-        <v>2.307185</v>
-      </c>
-      <c r="H31" s="24">
-        <f>AVERAGE(G31:G35)</f>
-        <v>2.4575374000000001</v>
-      </c>
-      <c r="I31" s="12">
-        <f>F3/H31</f>
-        <v>0.97339474874319309</v>
-      </c>
-      <c r="J31" s="3">
-        <v>24.621490999999999</v>
-      </c>
-      <c r="K31" s="24">
-        <f>AVERAGE(J31:J35)</f>
-        <v>24.755043199999999</v>
-      </c>
-      <c r="L31" s="12">
-        <f>H3/K31</f>
-        <v>0.96520684722537675</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A32" s="3">
-        <v>5.2300000000000003E-3</v>
-      </c>
-      <c r="B32" s="25"/>
-      <c r="C32" s="13"/>
-      <c r="D32" s="3">
-        <v>7.2969000000000006E-2</v>
-      </c>
-      <c r="E32" s="25"/>
-      <c r="F32" s="13"/>
-      <c r="G32" s="3">
-        <v>2.5550850000000001</v>
-      </c>
-      <c r="H32" s="25"/>
-      <c r="I32" s="13"/>
-      <c r="J32" s="3">
-        <v>25.213107000000001</v>
-      </c>
-      <c r="K32" s="25"/>
-      <c r="L32" s="13"/>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A33" s="3">
-        <v>5.4780000000000002E-3</v>
-      </c>
-      <c r="B33" s="25"/>
-      <c r="C33" s="13"/>
-      <c r="D33" s="3">
-        <v>4.4544E-2</v>
-      </c>
-      <c r="E33" s="25"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="3">
-        <v>2.7868710000000001</v>
-      </c>
-      <c r="H33" s="25"/>
-      <c r="I33" s="13"/>
-      <c r="J33" s="3">
-        <v>24.876812000000001</v>
-      </c>
-      <c r="K33" s="25"/>
-      <c r="L33" s="13"/>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A34" s="3">
-        <v>8.5719999999999998E-3</v>
-      </c>
-      <c r="B34" s="25"/>
-      <c r="C34" s="13"/>
-      <c r="D34" s="3">
-        <v>7.3633000000000004E-2</v>
-      </c>
-      <c r="E34" s="25"/>
-      <c r="F34" s="13"/>
-      <c r="G34" s="3">
-        <v>2.4429029999999998</v>
-      </c>
-      <c r="H34" s="25"/>
-      <c r="I34" s="13"/>
-      <c r="J34" s="3">
-        <v>24.883980000000001</v>
-      </c>
-      <c r="K34" s="25"/>
-      <c r="L34" s="13"/>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A35" s="3">
-        <v>8.6940000000000003E-3</v>
-      </c>
-      <c r="B35" s="26"/>
-      <c r="C35" s="14"/>
-      <c r="D35" s="3">
-        <v>7.4719999999999995E-2</v>
-      </c>
-      <c r="E35" s="26"/>
-      <c r="F35" s="14"/>
-      <c r="G35" s="3">
-        <v>2.195643</v>
-      </c>
-      <c r="H35" s="26"/>
-      <c r="I35" s="14"/>
-      <c r="J35" s="3">
-        <v>24.179825999999998</v>
-      </c>
-      <c r="K35" s="26"/>
-      <c r="L35" s="14"/>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B37" s="27">
-        <v>6.3796000000000005E-2</v>
-      </c>
-      <c r="C37" s="27">
-        <f>B3/B37</f>
-        <v>0.1018747256881309</v>
-      </c>
-      <c r="E37" s="27">
-        <v>4.3046000000000001E-2</v>
-      </c>
-      <c r="F37" s="27">
-        <f>D3/E37</f>
-        <v>1.1471170375876969</v>
-      </c>
-      <c r="H37" s="27">
-        <v>0.62474399999999997</v>
-      </c>
-      <c r="I37" s="27">
-        <f>F3/H37</f>
-        <v>3.8290147644475181</v>
-      </c>
-      <c r="K37" s="27">
-        <v>8.1244069999999997</v>
-      </c>
-      <c r="L37" s="27">
-        <f>H3/K37</f>
-        <v>2.9409823018467689</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="32">
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="B3:B7"/>
-    <mergeCell ref="D3:D7"/>
-    <mergeCell ref="F3:F7"/>
-    <mergeCell ref="H3:H7"/>
-    <mergeCell ref="A9:L9"/>
-    <mergeCell ref="B11:B15"/>
-    <mergeCell ref="C11:C15"/>
-    <mergeCell ref="E11:E15"/>
-    <mergeCell ref="F11:F15"/>
-    <mergeCell ref="H11:H15"/>
-    <mergeCell ref="I11:I15"/>
-    <mergeCell ref="K11:K15"/>
-    <mergeCell ref="L11:L15"/>
-    <mergeCell ref="A19:L19"/>
-    <mergeCell ref="B21:B25"/>
-    <mergeCell ref="C21:C25"/>
-    <mergeCell ref="E21:E25"/>
-    <mergeCell ref="F21:F25"/>
-    <mergeCell ref="H21:H25"/>
-    <mergeCell ref="I21:I25"/>
-    <mergeCell ref="K21:K25"/>
     <mergeCell ref="L21:L25"/>
     <mergeCell ref="A29:L29"/>
     <mergeCell ref="B31:B35"/>
@@ -4485,6 +3618,870 @@
     <mergeCell ref="I31:I35"/>
     <mergeCell ref="K31:K35"/>
     <mergeCell ref="L31:L35"/>
+    <mergeCell ref="A39:L39"/>
+    <mergeCell ref="B41:B45"/>
+    <mergeCell ref="C41:C45"/>
+    <mergeCell ref="E41:E45"/>
+    <mergeCell ref="F41:F45"/>
+    <mergeCell ref="H41:H45"/>
+    <mergeCell ref="I41:I45"/>
+    <mergeCell ref="K41:K45"/>
+    <mergeCell ref="L41:L45"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{118925EF-7105-47D2-92E9-828532FD1FFB}">
+  <dimension ref="A1:L37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L37" sqref="L37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="22.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.88671875" style="5"/>
+    <col min="3" max="4" width="23.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.88671875" style="5"/>
+    <col min="9" max="9" width="7.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="25.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.88671875" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>7.7799999999999996E-3</v>
+      </c>
+      <c r="B3" s="13">
+        <f>AVERAGE(A3:A7)</f>
+        <v>6.4991999999999992E-3</v>
+      </c>
+      <c r="C3" s="1">
+        <v>3.4301999999999999E-2</v>
+      </c>
+      <c r="D3" s="13">
+        <f>AVERAGE(C3:C7)</f>
+        <v>4.93788E-2</v>
+      </c>
+      <c r="E3" s="1">
+        <v>2.4107050000000001</v>
+      </c>
+      <c r="F3" s="13">
+        <f>AVERAGE(E3:E7)</f>
+        <v>2.3921540000000001</v>
+      </c>
+      <c r="G3" s="1">
+        <v>23.769746000000001</v>
+      </c>
+      <c r="H3" s="13">
+        <f>AVERAGE(G3:G7)</f>
+        <v>23.8937372</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>5.986E-3</v>
+      </c>
+      <c r="B4" s="13"/>
+      <c r="C4" s="1">
+        <v>3.2233999999999999E-2</v>
+      </c>
+      <c r="D4" s="13"/>
+      <c r="E4" s="1">
+        <v>2.3849840000000002</v>
+      </c>
+      <c r="F4" s="13"/>
+      <c r="G4" s="1">
+        <v>23.880281</v>
+      </c>
+      <c r="H4" s="13"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>6.3420000000000004E-3</v>
+      </c>
+      <c r="B5" s="13"/>
+      <c r="C5" s="1">
+        <v>3.2267999999999998E-2</v>
+      </c>
+      <c r="D5" s="13"/>
+      <c r="E5" s="1">
+        <v>2.418174</v>
+      </c>
+      <c r="F5" s="13"/>
+      <c r="G5" s="1">
+        <v>23.901166</v>
+      </c>
+      <c r="H5" s="13"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>6.0850000000000001E-3</v>
+      </c>
+      <c r="B6" s="13"/>
+      <c r="C6" s="1">
+        <v>6.1054999999999998E-2</v>
+      </c>
+      <c r="D6" s="13"/>
+      <c r="E6" s="1">
+        <v>2.374854</v>
+      </c>
+      <c r="F6" s="13"/>
+      <c r="G6" s="1">
+        <v>23.998033</v>
+      </c>
+      <c r="H6" s="13"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>6.3029999999999996E-3</v>
+      </c>
+      <c r="B7" s="13"/>
+      <c r="C7" s="1">
+        <v>8.7035000000000001E-2</v>
+      </c>
+      <c r="D7" s="13"/>
+      <c r="E7" s="1">
+        <v>2.3720530000000002</v>
+      </c>
+      <c r="F7" s="13"/>
+      <c r="G7" s="1">
+        <v>23.919460000000001</v>
+      </c>
+      <c r="H7" s="13"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11" s="3">
+        <v>9.0320000000000001E-3</v>
+      </c>
+      <c r="B11" s="23">
+        <f>AVERAGE(A11:A15)</f>
+        <v>6.8849999999999996E-3</v>
+      </c>
+      <c r="C11" s="9">
+        <f>B3/B11</f>
+        <v>0.94396514161220035</v>
+      </c>
+      <c r="D11" s="3">
+        <v>6.0754000000000002E-2</v>
+      </c>
+      <c r="E11" s="23">
+        <f>AVERAGE(D11:D15)</f>
+        <v>4.8256800000000002E-2</v>
+      </c>
+      <c r="F11" s="9">
+        <f>D3/E11</f>
+        <v>1.0232506092405629</v>
+      </c>
+      <c r="G11" s="3">
+        <v>6.6839320000000004</v>
+      </c>
+      <c r="H11" s="23">
+        <f>AVERAGE(G11:G15)</f>
+        <v>6.8683787999999995</v>
+      </c>
+      <c r="I11" s="9">
+        <f>F3/H11</f>
+        <v>0.34828510040826521</v>
+      </c>
+      <c r="J11" s="3">
+        <v>70.209836999999993</v>
+      </c>
+      <c r="K11" s="23">
+        <f>AVERAGE(J11:J15)</f>
+        <v>70.467709400000004</v>
+      </c>
+      <c r="L11" s="9">
+        <f>H3/K11</f>
+        <v>0.33907356154250134</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12" s="3">
+        <v>4.7699999999999999E-3</v>
+      </c>
+      <c r="B12" s="24"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="3">
+        <v>4.4797999999999998E-2</v>
+      </c>
+      <c r="E12" s="24"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="3">
+        <v>6.7206970000000004</v>
+      </c>
+      <c r="H12" s="24"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="3">
+        <v>70.545404000000005</v>
+      </c>
+      <c r="K12" s="24"/>
+      <c r="L12" s="10"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13" s="3">
+        <v>7.247E-3</v>
+      </c>
+      <c r="B13" s="24"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="3">
+        <v>4.6262999999999999E-2</v>
+      </c>
+      <c r="E13" s="24"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="3">
+        <v>6.9822350000000002</v>
+      </c>
+      <c r="H13" s="24"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="3">
+        <v>70.608731000000006</v>
+      </c>
+      <c r="K13" s="24"/>
+      <c r="L13" s="10"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A14" s="3">
+        <v>5.3210000000000002E-3</v>
+      </c>
+      <c r="B14" s="24"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="3">
+        <v>4.4922999999999998E-2</v>
+      </c>
+      <c r="E14" s="24"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="3">
+        <v>6.9757400000000001</v>
+      </c>
+      <c r="H14" s="24"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="3">
+        <v>70.615801000000005</v>
+      </c>
+      <c r="K14" s="24"/>
+      <c r="L14" s="10"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15" s="3">
+        <v>8.0549999999999997E-3</v>
+      </c>
+      <c r="B15" s="25"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="3">
+        <v>4.4546000000000002E-2</v>
+      </c>
+      <c r="E15" s="25"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="3">
+        <v>6.9792899999999998</v>
+      </c>
+      <c r="H15" s="25"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="3">
+        <v>70.358773999999997</v>
+      </c>
+      <c r="K15" s="25"/>
+      <c r="L15" s="11"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B17" s="5">
+        <v>3.7672999999999998E-2</v>
+      </c>
+      <c r="C17" s="5">
+        <f>B3/B17</f>
+        <v>0.17251612560719878</v>
+      </c>
+      <c r="E17" s="5">
+        <v>3.8704000000000002E-2</v>
+      </c>
+      <c r="F17" s="5">
+        <f>D3/E17</f>
+        <v>1.2758061182306737</v>
+      </c>
+      <c r="H17" s="5">
+        <v>2.339318</v>
+      </c>
+      <c r="I17" s="5">
+        <f>F3/H17</f>
+        <v>1.0225860699571414</v>
+      </c>
+      <c r="K17" s="5">
+        <v>24.393135000000001</v>
+      </c>
+      <c r="L17" s="5">
+        <f>H3/K17</f>
+        <v>0.97952711695319195</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A19" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="L20" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A21" s="3">
+        <v>5.0650000000000001E-3</v>
+      </c>
+      <c r="B21" s="23">
+        <f>AVERAGE(A21:A25)</f>
+        <v>5.3268000000000005E-3</v>
+      </c>
+      <c r="C21" s="9">
+        <f>B3/B21</f>
+        <v>1.2200946159044828</v>
+      </c>
+      <c r="D21" s="3">
+        <v>7.0934999999999998E-2</v>
+      </c>
+      <c r="E21" s="23">
+        <f>AVERAGE(D21:D25)</f>
+        <v>5.1336400000000004E-2</v>
+      </c>
+      <c r="F21" s="9">
+        <f>D3/E21</f>
+        <v>0.96186721312752732</v>
+      </c>
+      <c r="G21" s="3">
+        <v>2.459006</v>
+      </c>
+      <c r="H21" s="23">
+        <f>AVERAGE(G21:G25)</f>
+        <v>2.7577574</v>
+      </c>
+      <c r="I21" s="9">
+        <f>F3/H21</f>
+        <v>0.86742727986152812</v>
+      </c>
+      <c r="J21" s="3">
+        <v>28.602495000000001</v>
+      </c>
+      <c r="K21" s="23">
+        <f>AVERAGE(J21:J25)</f>
+        <v>28.852312200000007</v>
+      </c>
+      <c r="L21" s="9">
+        <f>H3/K21</f>
+        <v>0.82813942377900629</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A22" s="3">
+        <v>4.8089999999999999E-3</v>
+      </c>
+      <c r="B22" s="24"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="3">
+        <v>5.6291000000000001E-2</v>
+      </c>
+      <c r="E22" s="24"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="3">
+        <v>2.66601</v>
+      </c>
+      <c r="H22" s="24"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="3">
+        <v>29.142741999999998</v>
+      </c>
+      <c r="K22" s="24"/>
+      <c r="L22" s="10"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A23" s="3">
+        <v>7.4689999999999999E-3</v>
+      </c>
+      <c r="B23" s="24"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="3">
+        <v>4.5187999999999999E-2</v>
+      </c>
+      <c r="E23" s="24"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="3">
+        <v>2.9758619999999998</v>
+      </c>
+      <c r="H23" s="24"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="3">
+        <v>29.044014000000001</v>
+      </c>
+      <c r="K23" s="24"/>
+      <c r="L23" s="10"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A24" s="3">
+        <v>4.6540000000000002E-3</v>
+      </c>
+      <c r="B24" s="24"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="3">
+        <v>4.1925999999999998E-2</v>
+      </c>
+      <c r="E24" s="24"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="3">
+        <v>2.8659680000000001</v>
+      </c>
+      <c r="H24" s="24"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="3">
+        <v>28.845379999999999</v>
+      </c>
+      <c r="K24" s="24"/>
+      <c r="L24" s="10"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A25" s="3">
+        <v>4.6369999999999996E-3</v>
+      </c>
+      <c r="B25" s="25"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="3">
+        <v>4.2341999999999998E-2</v>
+      </c>
+      <c r="E25" s="25"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="3">
+        <v>2.8219409999999998</v>
+      </c>
+      <c r="H25" s="25"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="3">
+        <v>28.626930000000002</v>
+      </c>
+      <c r="K25" s="25"/>
+      <c r="L25" s="11"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B27" s="5">
+        <v>5.1928000000000002E-2</v>
+      </c>
+      <c r="C27" s="5">
+        <f>B3/B27</f>
+        <v>0.12515791095362808</v>
+      </c>
+      <c r="E27" s="5">
+        <v>4.2942000000000001E-2</v>
+      </c>
+      <c r="F27" s="5">
+        <f>D3/E27</f>
+        <v>1.1498952074891715</v>
+      </c>
+      <c r="H27" s="5">
+        <v>1.0155400000000001</v>
+      </c>
+      <c r="I27" s="5">
+        <f>F3/H27</f>
+        <v>2.355548772081848</v>
+      </c>
+      <c r="K27" s="5">
+        <v>11.221342</v>
+      </c>
+      <c r="L27" s="5">
+        <f>H3/K27</f>
+        <v>2.1293119129601434</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A29" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="6"/>
+      <c r="K29" s="6"/>
+      <c r="L29" s="6"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I30" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J30" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K30" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="L30" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A31" s="3">
+        <v>8.1510000000000003E-3</v>
+      </c>
+      <c r="B31" s="23">
+        <f>AVERAGE(A31:A35)</f>
+        <v>7.2250000000000005E-3</v>
+      </c>
+      <c r="C31" s="9">
+        <f>B3/B31</f>
+        <v>0.89954325259515555</v>
+      </c>
+      <c r="D31" s="3">
+        <v>6.0809000000000002E-2</v>
+      </c>
+      <c r="E31" s="23">
+        <f>AVERAGE(D31:D35)</f>
+        <v>6.5335000000000004E-2</v>
+      </c>
+      <c r="F31" s="9">
+        <f>D3/E31</f>
+        <v>0.7557786791153287</v>
+      </c>
+      <c r="G31" s="3">
+        <v>2.307185</v>
+      </c>
+      <c r="H31" s="23">
+        <f>AVERAGE(G31:G35)</f>
+        <v>2.4575374000000001</v>
+      </c>
+      <c r="I31" s="9">
+        <f>F3/H31</f>
+        <v>0.97339474874319309</v>
+      </c>
+      <c r="J31" s="3">
+        <v>24.621490999999999</v>
+      </c>
+      <c r="K31" s="23">
+        <f>AVERAGE(J31:J35)</f>
+        <v>24.755043199999999</v>
+      </c>
+      <c r="L31" s="9">
+        <f>H3/K31</f>
+        <v>0.96520684722537675</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A32" s="3">
+        <v>5.2300000000000003E-3</v>
+      </c>
+      <c r="B32" s="24"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="3">
+        <v>7.2969000000000006E-2</v>
+      </c>
+      <c r="E32" s="24"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="3">
+        <v>2.5550850000000001</v>
+      </c>
+      <c r="H32" s="24"/>
+      <c r="I32" s="10"/>
+      <c r="J32" s="3">
+        <v>25.213107000000001</v>
+      </c>
+      <c r="K32" s="24"/>
+      <c r="L32" s="10"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A33" s="3">
+        <v>5.4780000000000002E-3</v>
+      </c>
+      <c r="B33" s="24"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="3">
+        <v>4.4544E-2</v>
+      </c>
+      <c r="E33" s="24"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="3">
+        <v>2.7868710000000001</v>
+      </c>
+      <c r="H33" s="24"/>
+      <c r="I33" s="10"/>
+      <c r="J33" s="3">
+        <v>24.876812000000001</v>
+      </c>
+      <c r="K33" s="24"/>
+      <c r="L33" s="10"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A34" s="3">
+        <v>8.5719999999999998E-3</v>
+      </c>
+      <c r="B34" s="24"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="3">
+        <v>7.3633000000000004E-2</v>
+      </c>
+      <c r="E34" s="24"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="3">
+        <v>2.4429029999999998</v>
+      </c>
+      <c r="H34" s="24"/>
+      <c r="I34" s="10"/>
+      <c r="J34" s="3">
+        <v>24.883980000000001</v>
+      </c>
+      <c r="K34" s="24"/>
+      <c r="L34" s="10"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A35" s="3">
+        <v>8.6940000000000003E-3</v>
+      </c>
+      <c r="B35" s="25"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="3">
+        <v>7.4719999999999995E-2</v>
+      </c>
+      <c r="E35" s="25"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="3">
+        <v>2.195643</v>
+      </c>
+      <c r="H35" s="25"/>
+      <c r="I35" s="11"/>
+      <c r="J35" s="3">
+        <v>24.179825999999998</v>
+      </c>
+      <c r="K35" s="25"/>
+      <c r="L35" s="11"/>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B37" s="5">
+        <v>6.3796000000000005E-2</v>
+      </c>
+      <c r="C37" s="5">
+        <f>B3/B37</f>
+        <v>0.1018747256881309</v>
+      </c>
+      <c r="E37" s="5">
+        <v>4.3046000000000001E-2</v>
+      </c>
+      <c r="F37" s="5">
+        <f>D3/E37</f>
+        <v>1.1471170375876969</v>
+      </c>
+      <c r="H37" s="5">
+        <v>0.62474399999999997</v>
+      </c>
+      <c r="I37" s="5">
+        <f>F3/H37</f>
+        <v>3.8290147644475181</v>
+      </c>
+      <c r="K37" s="5">
+        <v>8.1244069999999997</v>
+      </c>
+      <c r="L37" s="5">
+        <f>H3/K37</f>
+        <v>2.9409823018467689</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="32">
+    <mergeCell ref="A29:L29"/>
+    <mergeCell ref="B31:B35"/>
+    <mergeCell ref="C31:C35"/>
+    <mergeCell ref="E31:E35"/>
+    <mergeCell ref="F31:F35"/>
+    <mergeCell ref="H31:H35"/>
+    <mergeCell ref="I31:I35"/>
+    <mergeCell ref="K31:K35"/>
+    <mergeCell ref="L31:L35"/>
+    <mergeCell ref="A19:L19"/>
+    <mergeCell ref="B21:B25"/>
+    <mergeCell ref="C21:C25"/>
+    <mergeCell ref="E21:E25"/>
+    <mergeCell ref="F21:F25"/>
+    <mergeCell ref="H21:H25"/>
+    <mergeCell ref="I21:I25"/>
+    <mergeCell ref="K21:K25"/>
+    <mergeCell ref="L21:L25"/>
+    <mergeCell ref="A9:L9"/>
+    <mergeCell ref="B11:B15"/>
+    <mergeCell ref="C11:C15"/>
+    <mergeCell ref="E11:E15"/>
+    <mergeCell ref="F11:F15"/>
+    <mergeCell ref="H11:H15"/>
+    <mergeCell ref="I11:I15"/>
+    <mergeCell ref="K11:K15"/>
+    <mergeCell ref="L11:L15"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="B3:B7"/>
+    <mergeCell ref="D3:D7"/>
+    <mergeCell ref="F3:F7"/>
+    <mergeCell ref="H3:H7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
